--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -18,45 +18,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <x:si>
-    <x:t>총 참여 횟수</x:t>
+    <x:t>정다올</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김소원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남현우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현준수</x:t>
   </x:si>
   <x:si>
     <x:t>김아영</x:t>
   </x:si>
   <x:si>
-    <x:t>날짜</x:t>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이정은</x:t>
   </x:si>
   <x:si>
     <x:t>이름</x:t>
   </x:si>
   <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김소연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
     <x:t>이제섭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조민정</x:t>
   </x:si>
   <x:si>
     <x:t>박규태</x:t>
@@ -65,7 +62,13 @@
     <x:t>총인원</x:t>
   </x:si>
   <x:si>
-    <x:t>이정은</x:t>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 참여 횟수</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -144,7 +147,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="8">
+  <x:borders count="2">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -173,90 +176,6 @@
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -320,7 +239,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -404,78 +323,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1115,10 +969,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:L35"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H8" activeCellId="0" sqref="H8:H8"/>
+      <x:selection activeCell="H13" activeCellId="0" sqref="H13:H13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1131,89 +985,94 @@
     <x:col min="8" max="16384" width="8.88671875" style="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:12" customHeight="1">
+    <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="8"/>
-      <x:c r="D1" s="8"/>
-      <x:c r="E1" s="8"/>
-      <x:c r="F1" s="8"/>
-      <x:c r="G1" s="8"/>
-      <x:c r="H1" s="8"/>
-      <x:c r="I1" s="8"/>
-      <x:c r="J1" s="8"/>
-      <x:c r="K1" s="8"/>
-      <x:c r="L1" s="9"/>
-    </x:row>
-    <x:row r="2" spans="1:12" customHeight="1">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1" s="7"/>
+      <x:c r="D1" s="7"/>
+      <x:c r="E1" s="7"/>
+      <x:c r="F1" s="7"/>
+      <x:c r="G1" s="7"/>
+      <x:c r="H1" s="7"/>
+      <x:c r="I1" s="7"/>
+      <x:c r="J1" s="7"/>
+      <x:c r="K1" s="7"/>
+      <x:c r="L1" s="7"/>
+      <x:c r="M1" s="7"/>
+    </x:row>
+    <x:row r="2" spans="1:13" customHeight="1">
       <x:c r="A2" s="2">
         <x:f>COUNTA(B3:L3)</x:f>
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B2" s="10"/>
-      <x:c r="C2" s="11"/>
-      <x:c r="D2" s="11"/>
-      <x:c r="E2" s="11"/>
-      <x:c r="F2" s="11"/>
-      <x:c r="G2" s="11"/>
-      <x:c r="H2" s="11"/>
-      <x:c r="I2" s="11"/>
-      <x:c r="J2" s="11"/>
-      <x:c r="K2" s="11"/>
-      <x:c r="L2" s="12"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
+      <x:c r="B2" s="7"/>
+      <x:c r="C2" s="7"/>
+      <x:c r="D2" s="7"/>
+      <x:c r="E2" s="7"/>
+      <x:c r="F2" s="7"/>
+      <x:c r="G2" s="7"/>
+      <x:c r="H2" s="7"/>
+      <x:c r="I2" s="7"/>
+      <x:c r="J2" s="7"/>
+      <x:c r="K2" s="7"/>
+      <x:c r="L2" s="7"/>
+      <x:c r="M2" s="7"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:12">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
       <x:c r="A4" s="3">
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1223,34 +1082,40 @@
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
       <x:c r="L4" s="6"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
+      <x:c r="M4" s="2"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
       <x:c r="A5" s="3">
         <x:f>A4+1</x:f>
         <x:v>45444</x:v>
       </x:c>
-      <x:c r="B5" s="6"/>
+      <x:c r="B5" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
       <x:c r="J5" s="6"/>
       <x:c r="K5" s="6"/>
       <x:c r="L5" s="6"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
+      <x:c r="M5" s="2"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
       <x:c r="A6" s="3">
         <x:f t="shared" ref="A6:A34" si="0">A5+1</x:f>
         <x:v>45445</x:v>
       </x:c>
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
-      <x:c r="D6" s="6"/>
+      <x:c r="D6" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6"/>
@@ -1259,8 +1124,9 @@
       <x:c r="J6" s="6"/>
       <x:c r="K6" s="6"/>
       <x:c r="L6" s="6"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
+      <x:c r="M6" s="2"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
       <x:c r="A7" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45446</x:v>
@@ -1276,25 +1142,33 @@
       <x:c r="J7" s="6"/>
       <x:c r="K7" s="6"/>
       <x:c r="L7" s="6"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
+      <x:c r="M7" s="2"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
       <x:c r="A8" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45447</x:v>
       </x:c>
-      <x:c r="B8" s="6"/>
+      <x:c r="B8" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
-      <x:c r="G8" s="6"/>
+      <x:c r="G8" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
-      <x:c r="J8" s="6"/>
+      <x:c r="J8" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
+      <x:c r="M8" s="2"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
       <x:c r="A9" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45448</x:v>
@@ -1310,25 +1184,39 @@
       <x:c r="J9" s="6"/>
       <x:c r="K9" s="6"/>
       <x:c r="L9" s="6"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
+      <x:c r="M9" s="2"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
       <x:c r="A10" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45449</x:v>
       </x:c>
-      <x:c r="B10" s="6"/>
+      <x:c r="B10" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="C10" s="6"/>
-      <x:c r="D10" s="6"/>
-      <x:c r="E10" s="6"/>
+      <x:c r="D10" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="F10" s="6"/>
-      <x:c r="G10" s="6"/>
+      <x:c r="G10" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
-      <x:c r="K10" s="6"/>
-      <x:c r="L10" s="6"/>
-    </x:row>
-    <x:row r="11" spans="1:12">
+      <x:c r="K10" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L10" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M10" s="2"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
       <x:c r="A11" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45450</x:v>
@@ -1344,8 +1232,9 @@
       <x:c r="J11" s="6"/>
       <x:c r="K11" s="6"/>
       <x:c r="L11" s="6"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
+      <x:c r="M11" s="2"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
       <x:c r="A12" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45451</x:v>
@@ -1361,8 +1250,9 @@
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="6"/>
       <x:c r="L12" s="6"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
+      <x:c r="M12" s="2"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
       <x:c r="A13" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45452</x:v>
@@ -1378,8 +1268,9 @@
       <x:c r="J13" s="6"/>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="6"/>
-    </x:row>
-    <x:row r="14" spans="1:12">
+      <x:c r="M13" s="2"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
       <x:c r="A14" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45453</x:v>
@@ -1395,8 +1286,9 @@
       <x:c r="J14" s="6"/>
       <x:c r="K14" s="6"/>
       <x:c r="L14" s="6"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
+      <x:c r="M14" s="2"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
       <x:c r="A15" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45454</x:v>
@@ -1412,8 +1304,9 @@
       <x:c r="J15" s="6"/>
       <x:c r="K15" s="6"/>
       <x:c r="L15" s="6"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
+      <x:c r="M15" s="2"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
       <x:c r="A16" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45455</x:v>
@@ -1429,8 +1322,9 @@
       <x:c r="J16" s="6"/>
       <x:c r="K16" s="6"/>
       <x:c r="L16" s="6"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
+      <x:c r="M16" s="2"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
       <x:c r="A17" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45456</x:v>
@@ -1446,8 +1340,9 @@
       <x:c r="J17" s="6"/>
       <x:c r="K17" s="6"/>
       <x:c r="L17" s="6"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
+      <x:c r="M17" s="2"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
       <x:c r="A18" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45457</x:v>
@@ -1463,8 +1358,9 @@
       <x:c r="J18" s="6"/>
       <x:c r="K18" s="6"/>
       <x:c r="L18" s="6"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
+      <x:c r="M18" s="2"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
       <x:c r="A19" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45458</x:v>
@@ -1480,8 +1376,9 @@
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="6"/>
-    </x:row>
-    <x:row r="20" spans="1:12">
+      <x:c r="M19" s="2"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
       <x:c r="A20" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45459</x:v>
@@ -1497,8 +1394,9 @@
       <x:c r="J20" s="6"/>
       <x:c r="K20" s="6"/>
       <x:c r="L20" s="6"/>
-    </x:row>
-    <x:row r="21" spans="1:12">
+      <x:c r="M20" s="2"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
       <x:c r="A21" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45460</x:v>
@@ -1514,8 +1412,9 @@
       <x:c r="J21" s="6"/>
       <x:c r="K21" s="6"/>
       <x:c r="L21" s="6"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
+      <x:c r="M21" s="2"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
       <x:c r="A22" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45461</x:v>
@@ -1531,8 +1430,9 @@
       <x:c r="J22" s="6"/>
       <x:c r="K22" s="6"/>
       <x:c r="L22" s="6"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
+      <x:c r="M22" s="2"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
       <x:c r="A23" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45462</x:v>
@@ -1548,8 +1448,9 @@
       <x:c r="J23" s="6"/>
       <x:c r="K23" s="6"/>
       <x:c r="L23" s="6"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
+      <x:c r="M23" s="2"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
       <x:c r="A24" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45463</x:v>
@@ -1565,8 +1466,9 @@
       <x:c r="J24" s="6"/>
       <x:c r="K24" s="6"/>
       <x:c r="L24" s="6"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
+      <x:c r="M24" s="2"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
       <x:c r="A25" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45464</x:v>
@@ -1582,8 +1484,9 @@
       <x:c r="J25" s="6"/>
       <x:c r="K25" s="6"/>
       <x:c r="L25" s="6"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
+      <x:c r="M25" s="2"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
       <x:c r="A26" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45465</x:v>
@@ -1599,8 +1502,9 @@
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
       <x:c r="L26" s="6"/>
-    </x:row>
-    <x:row r="27" spans="1:12">
+      <x:c r="M26" s="2"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
       <x:c r="A27" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45466</x:v>
@@ -1616,8 +1520,9 @@
       <x:c r="J27" s="6"/>
       <x:c r="K27" s="6"/>
       <x:c r="L27" s="6"/>
-    </x:row>
-    <x:row r="28" spans="1:12">
+      <x:c r="M27" s="2"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
       <x:c r="A28" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45467</x:v>
@@ -1633,8 +1538,9 @@
       <x:c r="J28" s="6"/>
       <x:c r="K28" s="6"/>
       <x:c r="L28" s="6"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
+      <x:c r="M28" s="2"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
       <x:c r="A29" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45468</x:v>
@@ -1650,8 +1556,9 @@
       <x:c r="J29" s="6"/>
       <x:c r="K29" s="6"/>
       <x:c r="L29" s="6"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
+      <x:c r="M29" s="2"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
       <x:c r="A30" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45469</x:v>
@@ -1667,8 +1574,9 @@
       <x:c r="J30" s="6"/>
       <x:c r="K30" s="6"/>
       <x:c r="L30" s="6"/>
-    </x:row>
-    <x:row r="31" spans="1:12">
+      <x:c r="M30" s="2"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
       <x:c r="A31" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45470</x:v>
@@ -1684,8 +1592,9 @@
       <x:c r="J31" s="6"/>
       <x:c r="K31" s="6"/>
       <x:c r="L31" s="6"/>
-    </x:row>
-    <x:row r="32" spans="1:12">
+      <x:c r="M31" s="2"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
       <x:c r="A32" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45471</x:v>
@@ -1701,8 +1610,9 @@
       <x:c r="J32" s="6"/>
       <x:c r="K32" s="6"/>
       <x:c r="L32" s="6"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
+      <x:c r="M32" s="2"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
       <x:c r="A33" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45472</x:v>
@@ -1718,8 +1628,9 @@
       <x:c r="J33" s="6"/>
       <x:c r="K33" s="6"/>
       <x:c r="L33" s="6"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
+      <x:c r="M33" s="2"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
       <x:c r="A34" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45473</x:v>
@@ -1735,26 +1646,27 @@
       <x:c r="J34" s="6"/>
       <x:c r="K34" s="6"/>
       <x:c r="L34" s="6"/>
-    </x:row>
-    <x:row r="35" spans="1:12">
+      <x:c r="M34" s="2"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
       <x:c r="A35" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C35" s="2">
-        <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
+        <x:f t="shared" ref="C35:M35" si="1">COUNTA(C4:C34)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
@@ -1762,7 +1674,7 @@
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
@@ -1774,20 +1686,24 @@
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M35" s="2">
+        <x:f t="shared" si="1"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B1:L2"/>
+    <x:mergeCell ref="B1:M2"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -18,42 +18,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <x:si>
-    <x:t>정다올</x:t>
+    <x:t>총 참여 횟수</x:t>
   </x:si>
   <x:si>
-    <x:t>김소원</x:t>
+    <x:t>김아영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김소연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
   </x:si>
   <x:si>
     <x:t>남현우</x:t>
   </x:si>
   <x:si>
-    <x:t>조민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
     <x:t>현준수</x:t>
   </x:si>
   <x:si>
-    <x:t>김아영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이제섭</x:t>
+    <x:t>조민정</x:t>
   </x:si>
   <x:si>
     <x:t>박규태</x:t>
@@ -62,13 +65,7 @@
     <x:t>총인원</x:t>
   </x:si>
   <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 참여 횟수</x:t>
+    <x:t>이정은</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -147,7 +144,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="8">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -170,6 +167,90 @@
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
@@ -239,7 +320,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -323,13 +404,78 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -969,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:M35"/>
+  <x:dimension ref="A1:L35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H13" activeCellId="0" sqref="H13:H13"/>
+      <x:selection activeCell="H8" activeCellId="0" sqref="H8:H8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -985,94 +1131,89 @@
     <x:col min="8" max="16384" width="8.88671875" style="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" customHeight="1">
+    <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C1" s="7"/>
-      <x:c r="D1" s="7"/>
-      <x:c r="E1" s="7"/>
-      <x:c r="F1" s="7"/>
-      <x:c r="G1" s="7"/>
-      <x:c r="H1" s="7"/>
-      <x:c r="I1" s="7"/>
-      <x:c r="J1" s="7"/>
-      <x:c r="K1" s="7"/>
-      <x:c r="L1" s="7"/>
-      <x:c r="M1" s="7"/>
-    </x:row>
-    <x:row r="2" spans="1:13" customHeight="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="8"/>
+      <x:c r="D1" s="8"/>
+      <x:c r="E1" s="8"/>
+      <x:c r="F1" s="8"/>
+      <x:c r="G1" s="8"/>
+      <x:c r="H1" s="8"/>
+      <x:c r="I1" s="8"/>
+      <x:c r="J1" s="8"/>
+      <x:c r="K1" s="8"/>
+      <x:c r="L1" s="9"/>
+    </x:row>
+    <x:row r="2" spans="1:12" customHeight="1">
       <x:c r="A2" s="2">
         <x:f>COUNTA(B3:L3)</x:f>
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B2" s="7"/>
-      <x:c r="C2" s="7"/>
-      <x:c r="D2" s="7"/>
-      <x:c r="E2" s="7"/>
-      <x:c r="F2" s="7"/>
-      <x:c r="G2" s="7"/>
-      <x:c r="H2" s="7"/>
-      <x:c r="I2" s="7"/>
-      <x:c r="J2" s="7"/>
-      <x:c r="K2" s="7"/>
-      <x:c r="L2" s="7"/>
-      <x:c r="M2" s="7"/>
-    </x:row>
-    <x:row r="3" spans="1:13">
+      <x:c r="B2" s="10"/>
+      <x:c r="C2" s="11"/>
+      <x:c r="D2" s="11"/>
+      <x:c r="E2" s="11"/>
+      <x:c r="F2" s="11"/>
+      <x:c r="G2" s="11"/>
+      <x:c r="H2" s="11"/>
+      <x:c r="I2" s="11"/>
+      <x:c r="J2" s="11"/>
+      <x:c r="K2" s="11"/>
+      <x:c r="L2" s="12"/>
+    </x:row>
+    <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
+      <x:c r="F3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="H3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
+      <x:c r="L3" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M3" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:13">
+    </x:row>
+    <x:row r="4" spans="1:12">
       <x:c r="A4" s="3">
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1082,40 +1223,34 @@
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
       <x:c r="L4" s="6"/>
-      <x:c r="M4" s="2"/>
-    </x:row>
-    <x:row r="5" spans="1:13">
+    </x:row>
+    <x:row r="5" spans="1:12">
       <x:c r="A5" s="3">
         <x:f>A4+1</x:f>
         <x:v>45444</x:v>
       </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="B5" s="6"/>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
       <x:c r="J5" s="6"/>
       <x:c r="K5" s="6"/>
       <x:c r="L5" s="6"/>
-      <x:c r="M5" s="2"/>
-    </x:row>
-    <x:row r="6" spans="1:13">
+    </x:row>
+    <x:row r="6" spans="1:12">
       <x:c r="A6" s="3">
         <x:f t="shared" ref="A6:A34" si="0">A5+1</x:f>
         <x:v>45445</x:v>
       </x:c>
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
-      <x:c r="D6" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="D6" s="6"/>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6"/>
@@ -1124,9 +1259,8 @@
       <x:c r="J6" s="6"/>
       <x:c r="K6" s="6"/>
       <x:c r="L6" s="6"/>
-      <x:c r="M6" s="2"/>
-    </x:row>
-    <x:row r="7" spans="1:13">
+    </x:row>
+    <x:row r="7" spans="1:12">
       <x:c r="A7" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45446</x:v>
@@ -1142,33 +1276,25 @@
       <x:c r="J7" s="6"/>
       <x:c r="K7" s="6"/>
       <x:c r="L7" s="6"/>
-      <x:c r="M7" s="2"/>
-    </x:row>
-    <x:row r="8" spans="1:13">
+    </x:row>
+    <x:row r="8" spans="1:12">
       <x:c r="A8" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45447</x:v>
       </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="B8" s="6"/>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
-      <x:c r="G8" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="G8" s="6"/>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
-      <x:c r="J8" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="J8" s="6"/>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
-      <x:c r="M8" s="2"/>
-    </x:row>
-    <x:row r="9" spans="1:13">
+    </x:row>
+    <x:row r="9" spans="1:12">
       <x:c r="A9" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45448</x:v>
@@ -1184,39 +1310,25 @@
       <x:c r="J9" s="6"/>
       <x:c r="K9" s="6"/>
       <x:c r="L9" s="6"/>
-      <x:c r="M9" s="2"/>
-    </x:row>
-    <x:row r="10" spans="1:13">
+    </x:row>
+    <x:row r="10" spans="1:12">
       <x:c r="A10" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45449</x:v>
       </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="B10" s="6"/>
       <x:c r="C10" s="6"/>
-      <x:c r="D10" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="D10" s="6"/>
+      <x:c r="E10" s="6"/>
       <x:c r="F10" s="6"/>
-      <x:c r="G10" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="G10" s="6"/>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
-      <x:c r="K10" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L10" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="M10" s="2"/>
-    </x:row>
-    <x:row r="11" spans="1:13">
+      <x:c r="K10" s="6"/>
+      <x:c r="L10" s="6"/>
+    </x:row>
+    <x:row r="11" spans="1:12">
       <x:c r="A11" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45450</x:v>
@@ -1232,9 +1344,8 @@
       <x:c r="J11" s="6"/>
       <x:c r="K11" s="6"/>
       <x:c r="L11" s="6"/>
-      <x:c r="M11" s="2"/>
-    </x:row>
-    <x:row r="12" spans="1:13">
+    </x:row>
+    <x:row r="12" spans="1:12">
       <x:c r="A12" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45451</x:v>
@@ -1250,9 +1361,8 @@
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="6"/>
       <x:c r="L12" s="6"/>
-      <x:c r="M12" s="2"/>
-    </x:row>
-    <x:row r="13" spans="1:13">
+    </x:row>
+    <x:row r="13" spans="1:12">
       <x:c r="A13" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45452</x:v>
@@ -1268,9 +1378,8 @@
       <x:c r="J13" s="6"/>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="6"/>
-      <x:c r="M13" s="2"/>
-    </x:row>
-    <x:row r="14" spans="1:13">
+    </x:row>
+    <x:row r="14" spans="1:12">
       <x:c r="A14" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45453</x:v>
@@ -1286,9 +1395,8 @@
       <x:c r="J14" s="6"/>
       <x:c r="K14" s="6"/>
       <x:c r="L14" s="6"/>
-      <x:c r="M14" s="2"/>
-    </x:row>
-    <x:row r="15" spans="1:13">
+    </x:row>
+    <x:row r="15" spans="1:12">
       <x:c r="A15" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45454</x:v>
@@ -1304,9 +1412,8 @@
       <x:c r="J15" s="6"/>
       <x:c r="K15" s="6"/>
       <x:c r="L15" s="6"/>
-      <x:c r="M15" s="2"/>
-    </x:row>
-    <x:row r="16" spans="1:13">
+    </x:row>
+    <x:row r="16" spans="1:12">
       <x:c r="A16" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45455</x:v>
@@ -1322,9 +1429,8 @@
       <x:c r="J16" s="6"/>
       <x:c r="K16" s="6"/>
       <x:c r="L16" s="6"/>
-      <x:c r="M16" s="2"/>
-    </x:row>
-    <x:row r="17" spans="1:13">
+    </x:row>
+    <x:row r="17" spans="1:12">
       <x:c r="A17" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45456</x:v>
@@ -1340,9 +1446,8 @@
       <x:c r="J17" s="6"/>
       <x:c r="K17" s="6"/>
       <x:c r="L17" s="6"/>
-      <x:c r="M17" s="2"/>
-    </x:row>
-    <x:row r="18" spans="1:13">
+    </x:row>
+    <x:row r="18" spans="1:12">
       <x:c r="A18" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45457</x:v>
@@ -1358,9 +1463,8 @@
       <x:c r="J18" s="6"/>
       <x:c r="K18" s="6"/>
       <x:c r="L18" s="6"/>
-      <x:c r="M18" s="2"/>
-    </x:row>
-    <x:row r="19" spans="1:13">
+    </x:row>
+    <x:row r="19" spans="1:12">
       <x:c r="A19" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45458</x:v>
@@ -1376,9 +1480,8 @@
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="6"/>
-      <x:c r="M19" s="2"/>
-    </x:row>
-    <x:row r="20" spans="1:13">
+    </x:row>
+    <x:row r="20" spans="1:12">
       <x:c r="A20" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45459</x:v>
@@ -1394,9 +1497,8 @@
       <x:c r="J20" s="6"/>
       <x:c r="K20" s="6"/>
       <x:c r="L20" s="6"/>
-      <x:c r="M20" s="2"/>
-    </x:row>
-    <x:row r="21" spans="1:13">
+    </x:row>
+    <x:row r="21" spans="1:12">
       <x:c r="A21" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45460</x:v>
@@ -1412,9 +1514,8 @@
       <x:c r="J21" s="6"/>
       <x:c r="K21" s="6"/>
       <x:c r="L21" s="6"/>
-      <x:c r="M21" s="2"/>
-    </x:row>
-    <x:row r="22" spans="1:13">
+    </x:row>
+    <x:row r="22" spans="1:12">
       <x:c r="A22" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45461</x:v>
@@ -1430,9 +1531,8 @@
       <x:c r="J22" s="6"/>
       <x:c r="K22" s="6"/>
       <x:c r="L22" s="6"/>
-      <x:c r="M22" s="2"/>
-    </x:row>
-    <x:row r="23" spans="1:13">
+    </x:row>
+    <x:row r="23" spans="1:12">
       <x:c r="A23" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45462</x:v>
@@ -1448,9 +1548,8 @@
       <x:c r="J23" s="6"/>
       <x:c r="K23" s="6"/>
       <x:c r="L23" s="6"/>
-      <x:c r="M23" s="2"/>
-    </x:row>
-    <x:row r="24" spans="1:13">
+    </x:row>
+    <x:row r="24" spans="1:12">
       <x:c r="A24" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45463</x:v>
@@ -1466,9 +1565,8 @@
       <x:c r="J24" s="6"/>
       <x:c r="K24" s="6"/>
       <x:c r="L24" s="6"/>
-      <x:c r="M24" s="2"/>
-    </x:row>
-    <x:row r="25" spans="1:13">
+    </x:row>
+    <x:row r="25" spans="1:12">
       <x:c r="A25" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45464</x:v>
@@ -1484,9 +1582,8 @@
       <x:c r="J25" s="6"/>
       <x:c r="K25" s="6"/>
       <x:c r="L25" s="6"/>
-      <x:c r="M25" s="2"/>
-    </x:row>
-    <x:row r="26" spans="1:13">
+    </x:row>
+    <x:row r="26" spans="1:12">
       <x:c r="A26" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45465</x:v>
@@ -1502,9 +1599,8 @@
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
       <x:c r="L26" s="6"/>
-      <x:c r="M26" s="2"/>
-    </x:row>
-    <x:row r="27" spans="1:13">
+    </x:row>
+    <x:row r="27" spans="1:12">
       <x:c r="A27" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45466</x:v>
@@ -1520,9 +1616,8 @@
       <x:c r="J27" s="6"/>
       <x:c r="K27" s="6"/>
       <x:c r="L27" s="6"/>
-      <x:c r="M27" s="2"/>
-    </x:row>
-    <x:row r="28" spans="1:13">
+    </x:row>
+    <x:row r="28" spans="1:12">
       <x:c r="A28" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45467</x:v>
@@ -1538,9 +1633,8 @@
       <x:c r="J28" s="6"/>
       <x:c r="K28" s="6"/>
       <x:c r="L28" s="6"/>
-      <x:c r="M28" s="2"/>
-    </x:row>
-    <x:row r="29" spans="1:13">
+    </x:row>
+    <x:row r="29" spans="1:12">
       <x:c r="A29" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45468</x:v>
@@ -1556,9 +1650,8 @@
       <x:c r="J29" s="6"/>
       <x:c r="K29" s="6"/>
       <x:c r="L29" s="6"/>
-      <x:c r="M29" s="2"/>
-    </x:row>
-    <x:row r="30" spans="1:13">
+    </x:row>
+    <x:row r="30" spans="1:12">
       <x:c r="A30" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45469</x:v>
@@ -1574,9 +1667,8 @@
       <x:c r="J30" s="6"/>
       <x:c r="K30" s="6"/>
       <x:c r="L30" s="6"/>
-      <x:c r="M30" s="2"/>
-    </x:row>
-    <x:row r="31" spans="1:13">
+    </x:row>
+    <x:row r="31" spans="1:12">
       <x:c r="A31" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45470</x:v>
@@ -1592,9 +1684,8 @@
       <x:c r="J31" s="6"/>
       <x:c r="K31" s="6"/>
       <x:c r="L31" s="6"/>
-      <x:c r="M31" s="2"/>
-    </x:row>
-    <x:row r="32" spans="1:13">
+    </x:row>
+    <x:row r="32" spans="1:12">
       <x:c r="A32" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45471</x:v>
@@ -1610,9 +1701,8 @@
       <x:c r="J32" s="6"/>
       <x:c r="K32" s="6"/>
       <x:c r="L32" s="6"/>
-      <x:c r="M32" s="2"/>
-    </x:row>
-    <x:row r="33" spans="1:13">
+    </x:row>
+    <x:row r="33" spans="1:12">
       <x:c r="A33" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45472</x:v>
@@ -1628,9 +1718,8 @@
       <x:c r="J33" s="6"/>
       <x:c r="K33" s="6"/>
       <x:c r="L33" s="6"/>
-      <x:c r="M33" s="2"/>
-    </x:row>
-    <x:row r="34" spans="1:13">
+    </x:row>
+    <x:row r="34" spans="1:12">
       <x:c r="A34" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45473</x:v>
@@ -1646,27 +1735,26 @@
       <x:c r="J34" s="6"/>
       <x:c r="K34" s="6"/>
       <x:c r="L34" s="6"/>
-      <x:c r="M34" s="2"/>
-    </x:row>
-    <x:row r="35" spans="1:13">
+    </x:row>
+    <x:row r="35" spans="1:12">
       <x:c r="A35" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C35" s="2">
-        <x:f t="shared" ref="C35:M35" si="1">COUNTA(C4:C34)</x:f>
+        <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
@@ -1674,7 +1762,7 @@
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
@@ -1686,24 +1774,20 @@
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M35" s="2">
-        <x:f t="shared" si="1"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B1:M2"/>
+    <x:mergeCell ref="B1:L2"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -18,54 +18,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <x:si>
-    <x:t>총 참여 횟수</x:t>
+    <x:t>이제섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김소연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
   </x:si>
   <x:si>
     <x:t>김아영</x:t>
   </x:si>
   <x:si>
-    <x:t>날짜</x:t>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현준수</x:t>
   </x:si>
   <x:si>
     <x:t>이름</x:t>
   </x:si>
   <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김소연</x:t>
-  </x:si>
-  <x:si>
     <x:t>정근승</x:t>
   </x:si>
   <x:si>
-    <x:t>이제섭</x:t>
+    <x:t>이정은</x:t>
   </x:si>
   <x:si>
     <x:t>남현우</x:t>
   </x:si>
   <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박규태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총인원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
+    <x:t>총 참여 횟수</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1118,7 +1118,7 @@
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H8" activeCellId="0" sqref="H8:H8"/>
+      <x:selection activeCell="K14" activeCellId="0" sqref="K14:K14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1133,10 +1133,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1" s="8"/>
       <x:c r="D1" s="8"/>
@@ -1168,40 +1168,40 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
+      <x:c r="L3" s="2" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
@@ -1209,11 +1209,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1229,13 +1229,15 @@
         <x:f>A4+1</x:f>
         <x:v>45444</x:v>
       </x:c>
-      <x:c r="B5" s="6"/>
+      <x:c r="B5" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
@@ -1250,7 +1252,9 @@
       </x:c>
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
-      <x:c r="D6" s="6"/>
+      <x:c r="D6" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6"/>
@@ -1282,15 +1286,21 @@
         <x:f t="shared" si="0"/>
         <x:v>45447</x:v>
       </x:c>
-      <x:c r="B8" s="6"/>
+      <x:c r="B8" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
-      <x:c r="G8" s="6"/>
+      <x:c r="G8" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
-      <x:c r="J8" s="6"/>
+      <x:c r="J8" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
     </x:row>
@@ -1316,29 +1326,45 @@
         <x:f t="shared" si="0"/>
         <x:v>45449</x:v>
       </x:c>
-      <x:c r="B10" s="6"/>
+      <x:c r="B10" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="C10" s="6"/>
-      <x:c r="D10" s="6"/>
-      <x:c r="E10" s="6"/>
+      <x:c r="D10" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="F10" s="6"/>
-      <x:c r="G10" s="6"/>
+      <x:c r="G10" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
-      <x:c r="K10" s="6"/>
-      <x:c r="L10" s="6"/>
+      <x:c r="K10" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L10" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
       <x:c r="A11" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45450</x:v>
       </x:c>
-      <x:c r="B11" s="6"/>
+      <x:c r="B11" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
-      <x:c r="G11" s="6"/>
+      <x:c r="G11" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
       <x:c r="J11" s="6"/>
@@ -1738,11 +1764,11 @@
     </x:row>
     <x:row r="35" spans="1:12">
       <x:c r="A35" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
@@ -1750,11 +1776,11 @@
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
@@ -1762,7 +1788,7 @@
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
@@ -1774,15 +1800,15 @@
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.10187"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="6월" sheetId="1" r:id="rId4"/>
@@ -18,24 +18,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <x:si>
-    <x:t>이제섭</x:t>
+    <x:t>총인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현준수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
   </x:si>
   <x:si>
     <x:t>박규태</x:t>
   </x:si>
   <x:si>
-    <x:t>조민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총인원</x:t>
+    <x:t>박경민</x:t>
   </x:si>
   <x:si>
     <x:t>김소연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
   </x:si>
   <x:si>
     <x:t>김승환</x:t>
@@ -44,25 +47,22 @@
     <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>김아영</x:t>
+    <x:t>이정은</x:t>
   </x:si>
   <x:si>
     <x:t>o</x:t>
   </x:si>
   <x:si>
-    <x:t>현준수</x:t>
+    <x:t>남현우</x:t>
   </x:si>
   <x:si>
-    <x:t>이름</x:t>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
   </x:si>
   <x:si>
     <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남현우</x:t>
   </x:si>
   <x:si>
     <x:t>총 참여 횟수</x:t>
@@ -1118,7 +1118,7 @@
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K14" activeCellId="0" sqref="K14:K14"/>
+      <x:selection activeCell="F12" activeCellId="0" sqref="F12:F12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1133,10 +1133,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="7" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="B1" s="7" t="s">
-        <x:v>11</x:v>
       </x:c>
       <x:c r="C1" s="8"/>
       <x:c r="D1" s="8"/>
@@ -1168,40 +1168,40 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
@@ -1209,11 +1209,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1230,14 +1230,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
@@ -1253,7 +1253,7 @@
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
@@ -1287,19 +1287,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
@@ -1327,27 +1327,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
@@ -1356,14 +1356,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
@@ -1380,12 +1380,20 @@
       <x:c r="C12" s="6"/>
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="6"/>
-      <x:c r="F12" s="6"/>
-      <x:c r="G12" s="6"/>
+      <x:c r="F12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H12" s="6"/>
-      <x:c r="I12" s="6"/>
+      <x:c r="I12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="J12" s="6"/>
-      <x:c r="K12" s="6"/>
+      <x:c r="K12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="L12" s="6"/>
     </x:row>
     <x:row r="13" spans="1:12">
@@ -1394,16 +1402,30 @@
         <x:v>45452</x:v>
       </x:c>
       <x:c r="B13" s="6"/>
-      <x:c r="C13" s="6"/>
-      <x:c r="D13" s="6"/>
-      <x:c r="E13" s="6"/>
+      <x:c r="C13" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D13" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="F13" s="6"/>
-      <x:c r="G13" s="6"/>
-      <x:c r="H13" s="6"/>
+      <x:c r="G13" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H13" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="I13" s="6"/>
-      <x:c r="J13" s="6"/>
+      <x:c r="J13" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="K13" s="6"/>
-      <x:c r="L13" s="6"/>
+      <x:c r="L13" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
       <x:c r="A14" s="3">
@@ -1772,43 +1794,43 @@
       </x:c>
       <x:c r="C35" s="2">
         <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -32,37 +32,37 @@
     <x:t>이름</x:t>
   </x:si>
   <x:si>
-    <x:t>박규태</x:t>
+    <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
   </x:si>
   <x:si>
     <x:t>박경민</x:t>
   </x:si>
   <x:si>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
     <x:t>김소연</x:t>
   </x:si>
   <x:si>
-    <x:t>김승환</x:t>
+    <x:t>o</x:t>
   </x:si>
   <x:si>
     <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
     <x:t>남현우</x:t>
   </x:si>
   <x:si>
-    <x:t>조민정</x:t>
-  </x:si>
-  <x:si>
     <x:t>이제섭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
   </x:si>
   <x:si>
     <x:t>총 참여 횟수</x:t>
@@ -1118,17 +1118,19 @@
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F12" activeCellId="0" sqref="F12:F12"/>
+      <x:selection activeCell="N14" activeCellId="0" sqref="N14:N14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
   <x:cols>
-    <x:col min="1" max="2" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.88671875" style="1"/>
-    <x:col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <x:col min="5" max="6" width="8.88671875" style="1"/>
-    <x:col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <x:col min="8" max="16384" width="8.88671875" style="1"/>
+    <x:col min="1" max="1" width="9.5625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="3" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="7" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="12" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="16384" width="8.88671875" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
@@ -1168,37 +1170,37 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
         <x:v>1</x:v>
@@ -1209,11 +1211,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1230,14 +1232,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
@@ -1253,7 +1255,7 @@
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
@@ -1287,19 +1289,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
@@ -1327,27 +1329,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
@@ -1356,14 +1358,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
@@ -1381,18 +1383,18 @@
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H12" s="6"/>
       <x:c r="I12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L12" s="6"/>
     </x:row>
@@ -1403,28 +1405,28 @@
       </x:c>
       <x:c r="B13" s="6"/>
       <x:c r="C13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I13" s="6"/>
       <x:c r="J13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
@@ -1529,7 +1531,7 @@
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="6"/>
     </x:row>
-    <x:row r="20" spans="1:12">
+    <x:row r="20" spans="1:12" hidden="1">
       <x:c r="A20" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45459</x:v>
@@ -1546,7 +1548,7 @@
       <x:c r="K20" s="6"/>
       <x:c r="L20" s="6"/>
     </x:row>
-    <x:row r="21" spans="1:12">
+    <x:row r="21" spans="1:12" hidden="1">
       <x:c r="A21" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45460</x:v>
@@ -1563,7 +1565,7 @@
       <x:c r="K21" s="6"/>
       <x:c r="L21" s="6"/>
     </x:row>
-    <x:row r="22" spans="1:12">
+    <x:row r="22" spans="1:12" hidden="1">
       <x:c r="A22" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45461</x:v>
@@ -1580,7 +1582,7 @@
       <x:c r="K22" s="6"/>
       <x:c r="L22" s="6"/>
     </x:row>
-    <x:row r="23" spans="1:12">
+    <x:row r="23" spans="1:12" hidden="1">
       <x:c r="A23" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45462</x:v>
@@ -1597,7 +1599,7 @@
       <x:c r="K23" s="6"/>
       <x:c r="L23" s="6"/>
     </x:row>
-    <x:row r="24" spans="1:12">
+    <x:row r="24" spans="1:12" hidden="1">
       <x:c r="A24" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45463</x:v>
@@ -1614,7 +1616,7 @@
       <x:c r="K24" s="6"/>
       <x:c r="L24" s="6"/>
     </x:row>
-    <x:row r="25" spans="1:12">
+    <x:row r="25" spans="1:12" hidden="1">
       <x:c r="A25" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45464</x:v>
@@ -1631,7 +1633,7 @@
       <x:c r="K25" s="6"/>
       <x:c r="L25" s="6"/>
     </x:row>
-    <x:row r="26" spans="1:12">
+    <x:row r="26" spans="1:12" hidden="1">
       <x:c r="A26" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45465</x:v>
@@ -1648,7 +1650,7 @@
       <x:c r="K26" s="6"/>
       <x:c r="L26" s="6"/>
     </x:row>
-    <x:row r="27" spans="1:12">
+    <x:row r="27" spans="1:12" hidden="1">
       <x:c r="A27" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45466</x:v>
@@ -1665,7 +1667,7 @@
       <x:c r="K27" s="6"/>
       <x:c r="L27" s="6"/>
     </x:row>
-    <x:row r="28" spans="1:12">
+    <x:row r="28" spans="1:12" hidden="1">
       <x:c r="A28" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45467</x:v>
@@ -1682,7 +1684,7 @@
       <x:c r="K28" s="6"/>
       <x:c r="L28" s="6"/>
     </x:row>
-    <x:row r="29" spans="1:12">
+    <x:row r="29" spans="1:12" hidden="1">
       <x:c r="A29" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45468</x:v>
@@ -1699,7 +1701,7 @@
       <x:c r="K29" s="6"/>
       <x:c r="L29" s="6"/>
     </x:row>
-    <x:row r="30" spans="1:12">
+    <x:row r="30" spans="1:12" hidden="1">
       <x:c r="A30" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45469</x:v>
@@ -1716,7 +1718,7 @@
       <x:c r="K30" s="6"/>
       <x:c r="L30" s="6"/>
     </x:row>
-    <x:row r="31" spans="1:12">
+    <x:row r="31" spans="1:12" hidden="1">
       <x:c r="A31" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45470</x:v>
@@ -1733,7 +1735,7 @@
       <x:c r="K31" s="6"/>
       <x:c r="L31" s="6"/>
     </x:row>
-    <x:row r="32" spans="1:12">
+    <x:row r="32" spans="1:12" hidden="1">
       <x:c r="A32" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45471</x:v>
@@ -1750,7 +1752,7 @@
       <x:c r="K32" s="6"/>
       <x:c r="L32" s="6"/>
     </x:row>
-    <x:row r="33" spans="1:12">
+    <x:row r="33" spans="1:12" hidden="1">
       <x:c r="A33" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45472</x:v>
@@ -1767,7 +1769,7 @@
       <x:c r="K33" s="6"/>
       <x:c r="L33" s="6"/>
     </x:row>
-    <x:row r="34" spans="1:12">
+    <x:row r="34" spans="1:12" hidden="1">
       <x:c r="A34" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45473</x:v>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -18,21 +18,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <x:si>
-    <x:t>총인원</x:t>
+    <x:t>김소연</x:t>
   </x:si>
   <x:si>
-    <x:t>현준수</x:t>
+    <x:t>남현우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
   </x:si>
   <x:si>
     <x:t>김아영</x:t>
   </x:si>
   <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
+    <x:t>이정은</x:t>
   </x:si>
   <x:si>
     <x:t>김승환</x:t>
@@ -41,28 +47,22 @@
     <x:t>박경민</x:t>
   </x:si>
   <x:si>
-    <x:t>박규태</x:t>
+    <x:t>o</x:t>
   </x:si>
   <x:si>
-    <x:t>이정은</x:t>
+    <x:t>이름</x:t>
   </x:si>
   <x:si>
-    <x:t>조민정</x:t>
+    <x:t>현준수</x:t>
   </x:si>
   <x:si>
-    <x:t>김소연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
+    <x:t>정근승</x:t>
   </x:si>
   <x:si>
     <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>남현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이제섭</x:t>
+    <x:t>총인원</x:t>
   </x:si>
   <x:si>
     <x:t>총 참여 횟수</x:t>
@@ -1118,7 +1118,7 @@
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N14" activeCellId="0" sqref="N14:N14"/>
+      <x:selection activeCell="C15" activeCellId="0" sqref="C15:C15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1135,10 +1135,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1" s="8"/>
       <x:c r="D1" s="8"/>
@@ -1170,40 +1170,40 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="C3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
@@ -1211,11 +1211,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1232,14 +1232,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
@@ -1255,7 +1255,7 @@
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
@@ -1289,19 +1289,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
@@ -1329,27 +1329,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
@@ -1358,14 +1358,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
@@ -1383,18 +1383,18 @@
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H12" s="6"/>
       <x:c r="I12" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L12" s="6"/>
     </x:row>
@@ -1405,28 +1405,28 @@
       </x:c>
       <x:c r="B13" s="6"/>
       <x:c r="C13" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="6"/>
       <x:c r="J13" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
@@ -1437,7 +1437,9 @@
       <x:c r="B14" s="6"/>
       <x:c r="C14" s="6"/>
       <x:c r="D14" s="6"/>
-      <x:c r="E14" s="6"/>
+      <x:c r="E14" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="F14" s="6"/>
       <x:c r="G14" s="6"/>
       <x:c r="H14" s="6"/>
@@ -1451,17 +1453,33 @@
         <x:f t="shared" si="0"/>
         <x:v>45454</x:v>
       </x:c>
-      <x:c r="B15" s="6"/>
+      <x:c r="B15" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="C15" s="6"/>
-      <x:c r="D15" s="6"/>
-      <x:c r="E15" s="6"/>
+      <x:c r="D15" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E15" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="F15" s="6"/>
-      <x:c r="G15" s="6"/>
-      <x:c r="H15" s="6"/>
+      <x:c r="G15" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H15" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="I15" s="6"/>
-      <x:c r="J15" s="6"/>
-      <x:c r="K15" s="6"/>
-      <x:c r="L15" s="6"/>
+      <x:c r="J15" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K15" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L15" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
       <x:c r="A16" s="3">
@@ -1792,7 +1810,7 @@
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
@@ -1800,11 +1818,11 @@
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
@@ -1812,11 +1830,11 @@
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I35" s="2">
         <x:f t="shared" si="1"/>
@@ -1824,15 +1842,15 @@
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <x:si>
     <x:t>김소연</x:t>
   </x:si>
@@ -1118,7 +1118,7 @@
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C15" activeCellId="0" sqref="C15:C15"/>
+      <x:selection activeCell="D16" activeCellId="0" sqref="D16:D16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1486,7 +1486,9 @@
         <x:f t="shared" si="0"/>
         <x:v>45455</x:v>
       </x:c>
-      <x:c r="B16" s="6"/>
+      <x:c r="B16" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="C16" s="6"/>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="6"/>
@@ -1810,7 +1812,7 @@
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.10187"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="6월" sheetId="1" r:id="rId4"/>
@@ -18,51 +18,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+  <x:si>
+    <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
   <x:si>
     <x:t>김소연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
   </x:si>
   <x:si>
     <x:t>남현우</x:t>
   </x:si>
   <x:si>
-    <x:t>박규태</x:t>
+    <x:t>김아영</x:t>
   </x:si>
   <x:si>
-    <x:t>조민정</x:t>
+    <x:t>o</x:t>
   </x:si>
   <x:si>
     <x:t>이제섭</x:t>
   </x:si>
   <x:si>
-    <x:t>김아영</x:t>
+    <x:t>현준수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총인원</x:t>
   </x:si>
   <x:si>
     <x:t>이정은</x:t>
   </x:si>
   <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
     <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총인원</x:t>
   </x:si>
   <x:si>
     <x:t>총 참여 횟수</x:t>
@@ -1135,10 +1135,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="8"/>
       <x:c r="D1" s="8"/>
@@ -1170,40 +1170,40 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
+      <x:c r="J3" s="2" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
@@ -1211,11 +1211,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1232,14 +1232,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
@@ -1255,7 +1255,7 @@
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
@@ -1289,19 +1289,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
@@ -1329,27 +1329,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
@@ -1358,14 +1358,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
@@ -1383,18 +1383,18 @@
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H12" s="6"/>
       <x:c r="I12" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L12" s="6"/>
     </x:row>
@@ -1405,28 +1405,28 @@
       </x:c>
       <x:c r="B13" s="6"/>
       <x:c r="C13" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I13" s="6"/>
       <x:c r="J13" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
@@ -1438,7 +1438,7 @@
       <x:c r="C14" s="6"/>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F14" s="6"/>
       <x:c r="G14" s="6"/>
@@ -1454,31 +1454,31 @@
         <x:v>45454</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C15" s="6"/>
       <x:c r="D15" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H15" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I15" s="6"/>
       <x:c r="J15" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K15" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L15" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
@@ -1487,17 +1487,27 @@
         <x:v>45455</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="6"/>
       <x:c r="D16" s="6"/>
-      <x:c r="E16" s="6"/>
+      <x:c r="E16" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="F16" s="6"/>
       <x:c r="G16" s="6"/>
-      <x:c r="H16" s="6"/>
-      <x:c r="I16" s="6"/>
-      <x:c r="J16" s="6"/>
-      <x:c r="K16" s="6"/>
+      <x:c r="H16" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I16" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J16" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K16" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="L16" s="6"/>
     </x:row>
     <x:row r="17" spans="1:12">
@@ -1824,7 +1834,7 @@
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
@@ -1836,19 +1846,19 @@
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -18,51 +18,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
   <x:si>
-    <x:t>정근승</x:t>
+    <x:t>김소원</x:t>
   </x:si>
   <x:si>
     <x:t>이름</x:t>
   </x:si>
   <x:si>
-    <x:t>김소연</x:t>
+    <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>조민정</x:t>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현준수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정근승</x:t>
   </x:si>
   <x:si>
     <x:t>박경민</x:t>
   </x:si>
   <x:si>
-    <x:t>남현우</x:t>
+    <x:t>o</x:t>
   </x:si>
   <x:si>
     <x:t>김아영</x:t>
   </x:si>
   <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이제섭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박규태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총인원</x:t>
+    <x:t>남현우</x:t>
   </x:si>
   <x:si>
     <x:t>이정은</x:t>
   </x:si>
   <x:si>
-    <x:t>날짜</x:t>
+    <x:t>조민정</x:t>
   </x:si>
   <x:si>
     <x:t>총 참여 횟수</x:t>
@@ -1118,7 +1118,7 @@
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D16" activeCellId="0" sqref="D16:D16"/>
+      <x:selection activeCell="N16" activeCellId="0" sqref="N16:N16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1135,7 +1135,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
         <x:v>1</x:v>
@@ -1170,40 +1170,40 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="D3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
@@ -1211,11 +1211,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1232,14 +1232,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
@@ -1255,7 +1255,7 @@
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
@@ -1289,19 +1289,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
@@ -1329,27 +1329,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
@@ -1358,14 +1358,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
@@ -1383,18 +1383,18 @@
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H12" s="6"/>
       <x:c r="I12" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L12" s="6"/>
     </x:row>
@@ -1405,28 +1405,28 @@
       </x:c>
       <x:c r="B13" s="6"/>
       <x:c r="C13" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I13" s="6"/>
       <x:c r="J13" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
@@ -1438,7 +1438,7 @@
       <x:c r="C14" s="6"/>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F14" s="6"/>
       <x:c r="G14" s="6"/>
@@ -1454,31 +1454,31 @@
         <x:v>45454</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="6"/>
       <x:c r="D15" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H15" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I15" s="6"/>
       <x:c r="J15" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K15" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L15" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
@@ -1487,26 +1487,26 @@
         <x:v>45455</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="6"/>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F16" s="6"/>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L16" s="6"/>
     </x:row>
@@ -1549,61 +1549,87 @@
         <x:f t="shared" si="0"/>
         <x:v>45458</x:v>
       </x:c>
-      <x:c r="B19" s="6"/>
+      <x:c r="B19" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="C19" s="6"/>
       <x:c r="D19" s="6"/>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="6"/>
-      <x:c r="G19" s="6"/>
+      <x:c r="G19" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H19" s="6"/>
       <x:c r="I19" s="6"/>
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
-      <x:c r="L19" s="6"/>
-    </x:row>
-    <x:row r="20" spans="1:12" hidden="1">
+      <x:c r="L19" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:12">
       <x:c r="A20" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45459</x:v>
       </x:c>
-      <x:c r="B20" s="6"/>
+      <x:c r="B20" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="C20" s="6"/>
       <x:c r="D20" s="6"/>
-      <x:c r="E20" s="6"/>
+      <x:c r="E20" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="F20" s="6"/>
-      <x:c r="G20" s="6"/>
+      <x:c r="G20" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H20" s="6"/>
       <x:c r="I20" s="6"/>
-      <x:c r="J20" s="6"/>
+      <x:c r="J20" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="K20" s="6"/>
-      <x:c r="L20" s="6"/>
-    </x:row>
-    <x:row r="21" spans="1:12" hidden="1">
+      <x:c r="L20" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:12">
       <x:c r="A21" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45460</x:v>
       </x:c>
-      <x:c r="B21" s="6"/>
+      <x:c r="B21" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="C21" s="6"/>
       <x:c r="D21" s="6"/>
       <x:c r="E21" s="6"/>
       <x:c r="F21" s="6"/>
       <x:c r="G21" s="6"/>
       <x:c r="H21" s="6"/>
-      <x:c r="I21" s="6"/>
+      <x:c r="I21" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="J21" s="6"/>
       <x:c r="K21" s="6"/>
       <x:c r="L21" s="6"/>
     </x:row>
-    <x:row r="22" spans="1:12" hidden="1">
+    <x:row r="22" spans="1:12">
       <x:c r="A22" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45461</x:v>
       </x:c>
       <x:c r="B22" s="6"/>
-      <x:c r="C22" s="6"/>
-      <x:c r="D22" s="6"/>
-      <x:c r="E22" s="6"/>
+      <x:c r="C22" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D22" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E22" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="F22" s="6"/>
       <x:c r="G22" s="6"/>
       <x:c r="H22" s="6"/>
@@ -1612,7 +1638,7 @@
       <x:c r="K22" s="6"/>
       <x:c r="L22" s="6"/>
     </x:row>
-    <x:row r="23" spans="1:12" hidden="1">
+    <x:row r="23" spans="1:12">
       <x:c r="A23" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45462</x:v>
@@ -1620,22 +1646,30 @@
       <x:c r="B23" s="6"/>
       <x:c r="C23" s="6"/>
       <x:c r="D23" s="6"/>
-      <x:c r="E23" s="6"/>
+      <x:c r="E23" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="F23" s="6"/>
-      <x:c r="G23" s="6"/>
-      <x:c r="H23" s="6"/>
+      <x:c r="G23" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H23" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="I23" s="6"/>
       <x:c r="J23" s="6"/>
       <x:c r="K23" s="6"/>
       <x:c r="L23" s="6"/>
     </x:row>
-    <x:row r="24" spans="1:12" hidden="1">
+    <x:row r="24" spans="1:12">
       <x:c r="A24" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45463</x:v>
       </x:c>
       <x:c r="B24" s="6"/>
-      <x:c r="C24" s="6"/>
+      <x:c r="C24" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="D24" s="6"/>
       <x:c r="E24" s="6"/>
       <x:c r="F24" s="6"/>
@@ -1643,10 +1677,12 @@
       <x:c r="H24" s="6"/>
       <x:c r="I24" s="6"/>
       <x:c r="J24" s="6"/>
-      <x:c r="K24" s="6"/>
+      <x:c r="K24" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="L24" s="6"/>
     </x:row>
-    <x:row r="25" spans="1:12" hidden="1">
+    <x:row r="25" spans="1:12">
       <x:c r="A25" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45464</x:v>
@@ -1654,7 +1690,9 @@
       <x:c r="B25" s="6"/>
       <x:c r="C25" s="6"/>
       <x:c r="D25" s="6"/>
-      <x:c r="E25" s="6"/>
+      <x:c r="E25" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="F25" s="6"/>
       <x:c r="G25" s="6"/>
       <x:c r="H25" s="6"/>
@@ -1663,7 +1701,7 @@
       <x:c r="K25" s="6"/>
       <x:c r="L25" s="6"/>
     </x:row>
-    <x:row r="26" spans="1:12" hidden="1">
+    <x:row r="26" spans="1:12">
       <x:c r="A26" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45465</x:v>
@@ -1673,14 +1711,18 @@
       <x:c r="D26" s="6"/>
       <x:c r="E26" s="6"/>
       <x:c r="F26" s="6"/>
-      <x:c r="G26" s="6"/>
+      <x:c r="G26" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H26" s="6"/>
       <x:c r="I26" s="6"/>
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
-      <x:c r="L26" s="6"/>
-    </x:row>
-    <x:row r="27" spans="1:12" hidden="1">
+      <x:c r="L26" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:12">
       <x:c r="A27" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45466</x:v>
@@ -1697,7 +1739,7 @@
       <x:c r="K27" s="6"/>
       <x:c r="L27" s="6"/>
     </x:row>
-    <x:row r="28" spans="1:12" hidden="1">
+    <x:row r="28" spans="1:12">
       <x:c r="A28" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45467</x:v>
@@ -1714,7 +1756,7 @@
       <x:c r="K28" s="6"/>
       <x:c r="L28" s="6"/>
     </x:row>
-    <x:row r="29" spans="1:12" hidden="1">
+    <x:row r="29" spans="1:12">
       <x:c r="A29" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45468</x:v>
@@ -1731,7 +1773,7 @@
       <x:c r="K29" s="6"/>
       <x:c r="L29" s="6"/>
     </x:row>
-    <x:row r="30" spans="1:12" hidden="1">
+    <x:row r="30" spans="1:12">
       <x:c r="A30" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45469</x:v>
@@ -1748,7 +1790,7 @@
       <x:c r="K30" s="6"/>
       <x:c r="L30" s="6"/>
     </x:row>
-    <x:row r="31" spans="1:12" hidden="1">
+    <x:row r="31" spans="1:12">
       <x:c r="A31" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45470</x:v>
@@ -1765,7 +1807,7 @@
       <x:c r="K31" s="6"/>
       <x:c r="L31" s="6"/>
     </x:row>
-    <x:row r="32" spans="1:12" hidden="1">
+    <x:row r="32" spans="1:12">
       <x:c r="A32" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45471</x:v>
@@ -1782,7 +1824,7 @@
       <x:c r="K32" s="6"/>
       <x:c r="L32" s="6"/>
     </x:row>
-    <x:row r="33" spans="1:12" hidden="1">
+    <x:row r="33" spans="1:12">
       <x:c r="A33" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45472</x:v>
@@ -1799,7 +1841,7 @@
       <x:c r="K33" s="6"/>
       <x:c r="L33" s="6"/>
     </x:row>
-    <x:row r="34" spans="1:12" hidden="1">
+    <x:row r="34" spans="1:12">
       <x:c r="A34" s="3">
         <x:f t="shared" si="0"/>
         <x:v>45473</x:v>
@@ -1822,19 +1864,19 @@
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
@@ -1842,27 +1884,27 @@
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.10187"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="6월" sheetId="1" r:id="rId4"/>
@@ -18,60 +18,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+  <x:si>
+    <x:t>총 인원 10명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현준수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이정은</x:t>
+  </x:si>
   <x:si>
     <x:t>김소원</x:t>
   </x:si>
   <x:si>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남현우</x:t>
+  </x:si>
+  <x:si>
     <x:t>이름</x:t>
   </x:si>
   <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
     <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>박규태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이제섭</x:t>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아영</x:t>
   </x:si>
   <x:si>
     <x:t>총인원</x:t>
   </x:si>
   <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조민정</x:t>
+    <x:t>감자탕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뼈추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볶음밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료수</x:t>
   </x:si>
   <x:si>
     <x:t>총 참여 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은 사람</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은사람 2명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은 사람</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은사람(기본+음료수)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은사람 8명</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="164" formatCode="#,##0_);[Red]\(#,##0\)"/>
+  </x:numFmts>
   <x:fonts count="10">
     <x:font>
       <x:name val="돋움"/>
@@ -144,7 +189,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="8">
+  <x:borders count="22">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -254,6 +299,202 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -320,32 +561,32 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+  <x:cellXfs count="36">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -365,39 +606,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -480,6 +721,215 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -1117,7 +1567,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="N16" activeCellId="0" sqref="N16:N16"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1135,10 +1585,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C1" s="8"/>
       <x:c r="D1" s="8"/>
@@ -1170,40 +1620,40 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
+      <x:c r="H3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
@@ -1211,11 +1661,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1232,14 +1682,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
@@ -1255,7 +1705,7 @@
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
@@ -1289,19 +1739,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
@@ -1329,27 +1779,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
@@ -1358,14 +1808,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
@@ -1383,18 +1833,18 @@
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="6"/>
       <x:c r="I12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L12" s="6"/>
     </x:row>
@@ -1405,28 +1855,28 @@
       </x:c>
       <x:c r="B13" s="6"/>
       <x:c r="C13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I13" s="6"/>
       <x:c r="J13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
@@ -1438,7 +1888,7 @@
       <x:c r="C14" s="6"/>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F14" s="6"/>
       <x:c r="G14" s="6"/>
@@ -1454,31 +1904,31 @@
         <x:v>45454</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C15" s="6"/>
       <x:c r="D15" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I15" s="6"/>
       <x:c r="J15" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K15" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L15" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
@@ -1487,26 +1937,26 @@
         <x:v>45455</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C16" s="6"/>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F16" s="6"/>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L16" s="6"/>
     </x:row>
@@ -1550,21 +2000,21 @@
         <x:v>45458</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C19" s="6"/>
       <x:c r="D19" s="6"/>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="6"/>
       <x:c r="G19" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H19" s="6"/>
       <x:c r="I19" s="6"/>
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:12">
@@ -1573,25 +2023,25 @@
         <x:v>45459</x:v>
       </x:c>
       <x:c r="B20" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C20" s="6"/>
       <x:c r="D20" s="6"/>
       <x:c r="E20" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F20" s="6"/>
       <x:c r="G20" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="6"/>
       <x:c r="I20" s="6"/>
       <x:c r="J20" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K20" s="6"/>
       <x:c r="L20" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:12">
@@ -1600,7 +2050,7 @@
         <x:v>45460</x:v>
       </x:c>
       <x:c r="B21" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="6"/>
       <x:c r="D21" s="6"/>
@@ -1609,7 +2059,7 @@
       <x:c r="G21" s="6"/>
       <x:c r="H21" s="6"/>
       <x:c r="I21" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J21" s="6"/>
       <x:c r="K21" s="6"/>
@@ -1622,13 +2072,13 @@
       </x:c>
       <x:c r="B22" s="6"/>
       <x:c r="C22" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D22" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F22" s="6"/>
       <x:c r="G22" s="6"/>
@@ -1647,14 +2097,14 @@
       <x:c r="C23" s="6"/>
       <x:c r="D23" s="6"/>
       <x:c r="E23" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F23" s="6"/>
       <x:c r="G23" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H23" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I23" s="6"/>
       <x:c r="J23" s="6"/>
@@ -1668,7 +2118,7 @@
       </x:c>
       <x:c r="B24" s="6"/>
       <x:c r="C24" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D24" s="6"/>
       <x:c r="E24" s="6"/>
@@ -1678,7 +2128,7 @@
       <x:c r="I24" s="6"/>
       <x:c r="J24" s="6"/>
       <x:c r="K24" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L24" s="6"/>
     </x:row>
@@ -1691,7 +2141,7 @@
       <x:c r="C25" s="6"/>
       <x:c r="D25" s="6"/>
       <x:c r="E25" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F25" s="6"/>
       <x:c r="G25" s="6"/>
@@ -1712,14 +2162,14 @@
       <x:c r="E26" s="6"/>
       <x:c r="F26" s="6"/>
       <x:c r="G26" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H26" s="6"/>
       <x:c r="I26" s="6"/>
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
       <x:c r="L26" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:12">
@@ -1860,7 +2310,7 @@
     </x:row>
     <x:row r="35" spans="1:12">
       <x:c r="A35" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
@@ -1919,14 +2369,219 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="B7:J17"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F19" activeCellId="0" sqref="F19:F19"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
-  <x:sheetData/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:cols>
+    <x:col min="1" max="1" width="8.88671875" style="13"/>
+    <x:col min="2" max="3" width="11.890625" style="13" customWidth="1"/>
+    <x:col min="4" max="4" width="8.88671875" style="14" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="8.88671875" style="13"/>
+    <x:col min="6" max="7" width="8.88671875" style="13" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="8.88671875" style="13"/>
+    <x:col min="9" max="10" width="8.88671875" style="13" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="16384" width="8.88671875" style="13"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="15" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="16"/>
+      <x:c r="D7" s="16"/>
+      <x:c r="E7" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F7" s="18"/>
+      <x:c r="G7" s="19"/>
+      <x:c r="H7" s="18" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I7" s="18"/>
+      <x:c r="J7" s="19"/>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="27"/>
+      <x:c r="C8" s="28"/>
+      <x:c r="D8" s="28"/>
+      <x:c r="E8" s="23"/>
+      <x:c r="F8" s="24"/>
+      <x:c r="G8" s="29"/>
+      <x:c r="H8" s="24"/>
+      <x:c r="I8" s="24"/>
+      <x:c r="J8" s="29"/>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C9" s="13">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D9" s="14">
+        <x:v>126000</x:v>
+      </x:c>
+      <x:c r="E9" s="20" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F9" s="13">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G9" s="21">
+        <x:f>F9*2000</x:f>
+        <x:v>4000</x:v>
+      </x:c>
+      <x:c r="H9" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I9" s="13">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J9" s="21">
+        <x:v>35000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="20" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C10" s="13">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D10" s="14">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="E10" s="20"/>
+      <x:c r="G10" s="21"/>
+      <x:c r="H10" s="13" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I10" s="13">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J10" s="21">
+        <x:v>52000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="20" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C11" s="13">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D11" s="14">
+        <x:v>12000</x:v>
+      </x:c>
+      <x:c r="E11" s="20"/>
+      <x:c r="G11" s="22"/>
+      <x:c r="H11" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I11" s="13">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J11" s="22">
+        <x:f>I11*2000</x:f>
+        <x:v>8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="20"/>
+      <x:c r="D12" s="14">
+        <x:f>SUM(D9:D11)</x:f>
+        <x:v>148000</x:v>
+      </x:c>
+      <x:c r="E12" s="20"/>
+      <x:c r="G12" s="21">
+        <x:f>SUM(G9:G11)</x:f>
+        <x:v>4000</x:v>
+      </x:c>
+      <x:c r="J12" s="21">
+        <x:f>SUM(J9:J11)</x:f>
+        <x:v>95000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:10">
+      <x:c r="B13" s="20"/>
+      <x:c r="C13" s="13" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E13" s="20"/>
+      <x:c r="F13" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G13" s="22"/>
+      <x:c r="I13" s="13" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J13" s="22"/>
+    </x:row>
+    <x:row r="14" spans="2:10">
+      <x:c r="B14" s="20"/>
+      <x:c r="C14" s="13">
+        <x:f>D12/10</x:f>
+        <x:v>14800</x:v>
+      </x:c>
+      <x:c r="E14" s="20"/>
+      <x:c r="F14" s="13">
+        <x:f>G12/2</x:f>
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="G14" s="22"/>
+      <x:c r="I14" s="13">
+        <x:f>J12/8</x:f>
+        <x:v>11875</x:v>
+      </x:c>
+      <x:c r="J14" s="22"/>
+    </x:row>
+    <x:row r="15" spans="2:10">
+      <x:c r="B15" s="20"/>
+      <x:c r="E15" s="20"/>
+      <x:c r="G15" s="22"/>
+      <x:c r="J15" s="22"/>
+    </x:row>
+    <x:row r="16" spans="2:10" ht="13.949999999999999">
+      <x:c r="B16" s="30" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C16" s="31"/>
+      <x:c r="D16" s="31"/>
+      <x:c r="E16" s="32">
+        <x:f>C14+F14</x:f>
+        <x:v>16800</x:v>
+      </x:c>
+      <x:c r="G16" s="22"/>
+      <x:c r="J16" s="22"/>
+    </x:row>
+    <x:row r="17" spans="2:10" ht="13.949999999999999" customHeight="1">
+      <x:c r="B17" s="33" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C17" s="34"/>
+      <x:c r="D17" s="34"/>
+      <x:c r="E17" s="35">
+        <x:f>C14+I14</x:f>
+        <x:v>26675</x:v>
+      </x:c>
+      <x:c r="F17" s="25"/>
+      <x:c r="G17" s="26"/>
+      <x:c r="H17" s="25"/>
+      <x:c r="I17" s="25"/>
+      <x:c r="J17" s="26"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="5">
+    <x:mergeCell ref="B7:D8"/>
+    <x:mergeCell ref="E7:G8"/>
+    <x:mergeCell ref="H7:J8"/>
+    <x:mergeCell ref="B16:D16"/>
+    <x:mergeCell ref="B17:D17"/>
+  </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.10187"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="6월" sheetId="1" r:id="rId4"/>
@@ -18,96 +18,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
+  <x:si>
+    <x:t>남현우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김소원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뼈추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현준수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감자탕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볶음밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은사람(기본+음료수)</x:t>
+  </x:si>
   <x:si>
     <x:t>총 인원 10명</x:t>
   </x:si>
   <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김소원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박규태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이제섭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총인원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감자탕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뼈추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볶음밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맥주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료수</x:t>
+    <x:t>술 안먹은사람 2명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은 사람</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은사람 8명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은 사람</x:t>
   </x:si>
   <x:si>
     <x:t>총 참여 횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 먹은 사람</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 안먹은사람 2명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 안먹은 사람</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 안먹은사람(기본+음료수)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 먹은사람 8명</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -219,13 +219,13 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
       <x:right>
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
@@ -236,10 +236,10 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
@@ -250,13 +250,27 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -264,13 +278,41 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -281,10 +323,10 @@
       <x:right>
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -295,6 +337,48 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
@@ -331,6 +415,20 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left>
         <x:color indexed="64"/>
       </x:left>
@@ -348,27 +446,27 @@
       <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left>
+      <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -376,55 +474,13 @@
       <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -433,62 +489,6 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
@@ -561,7 +561,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="36">
+  <x:cellXfs count="32">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -643,293 +643,241 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
+        <x:xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -1567,8 +1515,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N16" activeCellId="0" sqref="N16:N16"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J29" activeCellId="0" sqref="J29:J29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1585,75 +1533,75 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B1" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B1" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C1" s="8"/>
-      <x:c r="D1" s="8"/>
-      <x:c r="E1" s="8"/>
-      <x:c r="F1" s="8"/>
-      <x:c r="G1" s="8"/>
-      <x:c r="H1" s="8"/>
-      <x:c r="I1" s="8"/>
-      <x:c r="J1" s="8"/>
-      <x:c r="K1" s="8"/>
-      <x:c r="L1" s="9"/>
+      <x:c r="C1" s="17"/>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
+      <x:c r="K1" s="17"/>
+      <x:c r="L1" s="18"/>
     </x:row>
     <x:row r="2" spans="1:12" customHeight="1">
       <x:c r="A2" s="2">
         <x:f>COUNTA(B3:L3)</x:f>
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B2" s="10"/>
-      <x:c r="C2" s="11"/>
-      <x:c r="D2" s="11"/>
-      <x:c r="E2" s="11"/>
-      <x:c r="F2" s="11"/>
-      <x:c r="G2" s="11"/>
-      <x:c r="H2" s="11"/>
-      <x:c r="I2" s="11"/>
-      <x:c r="J2" s="11"/>
-      <x:c r="K2" s="11"/>
-      <x:c r="L2" s="12"/>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20"/>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="20"/>
+      <x:c r="G2" s="20"/>
+      <x:c r="H2" s="20"/>
+      <x:c r="I2" s="20"/>
+      <x:c r="J2" s="20"/>
+      <x:c r="K2" s="20"/>
+      <x:c r="L2" s="21"/>
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
+      <x:c r="H3" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
@@ -1661,11 +1609,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1682,14 +1630,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
@@ -1705,7 +1653,7 @@
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
@@ -1739,19 +1687,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
@@ -1779,27 +1727,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
@@ -1808,14 +1756,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
@@ -1833,18 +1781,18 @@
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H12" s="6"/>
       <x:c r="I12" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L12" s="6"/>
     </x:row>
@@ -1855,28 +1803,28 @@
       </x:c>
       <x:c r="B13" s="6"/>
       <x:c r="C13" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I13" s="6"/>
       <x:c r="J13" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
@@ -1888,7 +1836,7 @@
       <x:c r="C14" s="6"/>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F14" s="6"/>
       <x:c r="G14" s="6"/>
@@ -1904,31 +1852,31 @@
         <x:v>45454</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C15" s="6"/>
       <x:c r="D15" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H15" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I15" s="6"/>
       <x:c r="J15" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K15" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L15" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
@@ -1937,26 +1885,26 @@
         <x:v>45455</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C16" s="6"/>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F16" s="6"/>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L16" s="6"/>
     </x:row>
@@ -2000,21 +1948,21 @@
         <x:v>45458</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C19" s="6"/>
       <x:c r="D19" s="6"/>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="6"/>
       <x:c r="G19" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H19" s="6"/>
       <x:c r="I19" s="6"/>
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:12">
@@ -2023,25 +1971,25 @@
         <x:v>45459</x:v>
       </x:c>
       <x:c r="B20" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C20" s="6"/>
       <x:c r="D20" s="6"/>
       <x:c r="E20" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F20" s="6"/>
       <x:c r="G20" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="6"/>
       <x:c r="I20" s="6"/>
       <x:c r="J20" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K20" s="6"/>
       <x:c r="L20" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:12">
@@ -2050,7 +1998,7 @@
         <x:v>45460</x:v>
       </x:c>
       <x:c r="B21" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C21" s="6"/>
       <x:c r="D21" s="6"/>
@@ -2059,7 +2007,7 @@
       <x:c r="G21" s="6"/>
       <x:c r="H21" s="6"/>
       <x:c r="I21" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J21" s="6"/>
       <x:c r="K21" s="6"/>
@@ -2072,13 +2020,13 @@
       </x:c>
       <x:c r="B22" s="6"/>
       <x:c r="C22" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D22" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F22" s="6"/>
       <x:c r="G22" s="6"/>
@@ -2097,14 +2045,14 @@
       <x:c r="C23" s="6"/>
       <x:c r="D23" s="6"/>
       <x:c r="E23" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F23" s="6"/>
       <x:c r="G23" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H23" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I23" s="6"/>
       <x:c r="J23" s="6"/>
@@ -2118,7 +2066,7 @@
       </x:c>
       <x:c r="B24" s="6"/>
       <x:c r="C24" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D24" s="6"/>
       <x:c r="E24" s="6"/>
@@ -2128,7 +2076,7 @@
       <x:c r="I24" s="6"/>
       <x:c r="J24" s="6"/>
       <x:c r="K24" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L24" s="6"/>
     </x:row>
@@ -2141,7 +2089,7 @@
       <x:c r="C25" s="6"/>
       <x:c r="D25" s="6"/>
       <x:c r="E25" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F25" s="6"/>
       <x:c r="G25" s="6"/>
@@ -2162,14 +2110,14 @@
       <x:c r="E26" s="6"/>
       <x:c r="F26" s="6"/>
       <x:c r="G26" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="6"/>
       <x:c r="I26" s="6"/>
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
       <x:c r="L26" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:12">
@@ -2179,15 +2127,21 @@
       </x:c>
       <x:c r="B27" s="6"/>
       <x:c r="C27" s="6"/>
-      <x:c r="D27" s="6"/>
+      <x:c r="D27" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="E27" s="6"/>
       <x:c r="F27" s="6"/>
       <x:c r="G27" s="6"/>
       <x:c r="H27" s="6"/>
       <x:c r="I27" s="6"/>
-      <x:c r="J27" s="6"/>
+      <x:c r="J27" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="K27" s="6"/>
-      <x:c r="L27" s="6"/>
+      <x:c r="L27" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:12">
       <x:c r="A28" s="3">
@@ -2197,9 +2151,13 @@
       <x:c r="B28" s="6"/>
       <x:c r="C28" s="6"/>
       <x:c r="D28" s="6"/>
-      <x:c r="E28" s="6"/>
+      <x:c r="E28" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="F28" s="6"/>
-      <x:c r="G28" s="6"/>
+      <x:c r="G28" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="H28" s="6"/>
       <x:c r="I28" s="6"/>
       <x:c r="J28" s="6"/>
@@ -2211,15 +2169,23 @@
         <x:f t="shared" si="0"/>
         <x:v>45468</x:v>
       </x:c>
-      <x:c r="B29" s="6"/>
+      <x:c r="B29" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="C29" s="6"/>
       <x:c r="D29" s="6"/>
       <x:c r="E29" s="6"/>
       <x:c r="F29" s="6"/>
-      <x:c r="G29" s="6"/>
-      <x:c r="H29" s="6"/>
+      <x:c r="G29" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H29" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="I29" s="6"/>
-      <x:c r="J29" s="6"/>
+      <x:c r="J29" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="K29" s="6"/>
       <x:c r="L29" s="6"/>
     </x:row>
@@ -2310,11 +2276,11 @@
     </x:row>
     <x:row r="35" spans="1:12">
       <x:c r="A35" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
@@ -2322,11 +2288,11 @@
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
@@ -2334,11 +2300,11 @@
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I35" s="2">
         <x:f t="shared" si="1"/>
@@ -2346,7 +2312,7 @@
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
@@ -2354,7 +2320,7 @@
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2371,208 +2337,208 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B7:J17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="F19" activeCellId="0" sqref="F19:F19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.88671875" style="13"/>
-    <x:col min="2" max="3" width="11.890625" style="13" customWidth="1"/>
-    <x:col min="4" max="4" width="8.88671875" style="14" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="8.88671875" style="13"/>
-    <x:col min="6" max="7" width="8.88671875" style="13" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="8.88671875" style="13"/>
-    <x:col min="9" max="10" width="8.88671875" style="13" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="16384" width="8.88671875" style="13"/>
+    <x:col min="1" max="1" width="8.88671875" style="7"/>
+    <x:col min="2" max="3" width="11.890625" style="7" customWidth="1"/>
+    <x:col min="4" max="4" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="8.88671875" style="7"/>
+    <x:col min="6" max="7" width="8.88671875" style="7" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="8.88671875" style="7"/>
+    <x:col min="9" max="10" width="8.88671875" style="7" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="16384" width="8.88671875" style="7"/>
   </x:cols>
   <x:sheetData>
     <x:row r="7" spans="2:10">
-      <x:c r="B7" s="15" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C7" s="16"/>
-      <x:c r="D7" s="16"/>
-      <x:c r="E7" s="17" t="s">
+      <x:c r="B7" s="22" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="23"/>
+      <x:c r="D7" s="23"/>
+      <x:c r="E7" s="22" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F7" s="18"/>
-      <x:c r="G7" s="19"/>
-      <x:c r="H7" s="18" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I7" s="18"/>
-      <x:c r="J7" s="19"/>
+      <x:c r="F7" s="23"/>
+      <x:c r="G7" s="26"/>
+      <x:c r="H7" s="23" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I7" s="23"/>
+      <x:c r="J7" s="26"/>
     </x:row>
     <x:row r="8" spans="2:10">
-      <x:c r="B8" s="27"/>
-      <x:c r="C8" s="28"/>
-      <x:c r="D8" s="28"/>
-      <x:c r="E8" s="23"/>
-      <x:c r="F8" s="24"/>
-      <x:c r="G8" s="29"/>
-      <x:c r="H8" s="24"/>
-      <x:c r="I8" s="24"/>
-      <x:c r="J8" s="29"/>
+      <x:c r="B8" s="24"/>
+      <x:c r="C8" s="25"/>
+      <x:c r="D8" s="25"/>
+      <x:c r="E8" s="24"/>
+      <x:c r="F8" s="25"/>
+      <x:c r="G8" s="27"/>
+      <x:c r="H8" s="25"/>
+      <x:c r="I8" s="25"/>
+      <x:c r="J8" s="27"/>
     </x:row>
     <x:row r="9" spans="2:10">
-      <x:c r="B9" s="20" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C9" s="13">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D9" s="14">
+      <x:c r="B9" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C9" s="7">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D9" s="8">
         <x:v>126000</x:v>
       </x:c>
-      <x:c r="E9" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F9" s="13">
+      <x:c r="E9" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F9" s="7">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G9" s="21">
+      <x:c r="G9" s="10">
         <x:f>F9*2000</x:f>
         <x:v>4000</x:v>
       </x:c>
-      <x:c r="H9" s="13" t="s">
+      <x:c r="H9" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I9" s="7">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J9" s="10">
+        <x:v>35000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="7">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D10" s="8">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="E10" s="9"/>
+      <x:c r="G10" s="10"/>
+      <x:c r="H10" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I10" s="7">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J10" s="10">
+        <x:v>52000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="9" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="I9" s="13">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J9" s="21">
-        <x:v>35000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:10">
-      <x:c r="B10" s="20" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C10" s="13">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D10" s="14">
-        <x:v>10000</x:v>
-      </x:c>
-      <x:c r="E10" s="20"/>
-      <x:c r="G10" s="21"/>
-      <x:c r="H10" s="13" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I10" s="13">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J10" s="21">
-        <x:v>52000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:10">
-      <x:c r="B11" s="20" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C11" s="13">
+      <x:c r="C11" s="7">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D11" s="14">
+      <x:c r="D11" s="8">
         <x:v>12000</x:v>
       </x:c>
-      <x:c r="E11" s="20"/>
-      <x:c r="G11" s="22"/>
-      <x:c r="H11" s="13" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I11" s="13">
+      <x:c r="E11" s="9"/>
+      <x:c r="G11" s="11"/>
+      <x:c r="H11" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I11" s="7">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="J11" s="22">
+      <x:c r="J11" s="11">
         <x:f>I11*2000</x:f>
         <x:v>8000</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:10">
-      <x:c r="B12" s="20"/>
-      <x:c r="D12" s="14">
+      <x:c r="B12" s="9"/>
+      <x:c r="D12" s="8">
         <x:f>SUM(D9:D11)</x:f>
         <x:v>148000</x:v>
       </x:c>
-      <x:c r="E12" s="20"/>
-      <x:c r="G12" s="21">
+      <x:c r="E12" s="9"/>
+      <x:c r="G12" s="10">
         <x:f>SUM(G9:G11)</x:f>
         <x:v>4000</x:v>
       </x:c>
-      <x:c r="J12" s="21">
+      <x:c r="J12" s="10">
         <x:f>SUM(J9:J11)</x:f>
         <x:v>95000</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:10">
-      <x:c r="B13" s="20"/>
-      <x:c r="C13" s="13" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E13" s="20"/>
-      <x:c r="F13" s="13" t="s">
+      <x:c r="B13" s="9"/>
+      <x:c r="C13" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E13" s="9"/>
+      <x:c r="F13" s="7" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G13" s="22"/>
-      <x:c r="I13" s="13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="J13" s="22"/>
+      <x:c r="G13" s="11"/>
+      <x:c r="I13" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J13" s="11"/>
     </x:row>
     <x:row r="14" spans="2:10">
-      <x:c r="B14" s="20"/>
-      <x:c r="C14" s="13">
+      <x:c r="B14" s="9"/>
+      <x:c r="C14" s="7">
         <x:f>D12/10</x:f>
         <x:v>14800</x:v>
       </x:c>
-      <x:c r="E14" s="20"/>
-      <x:c r="F14" s="13">
+      <x:c r="E14" s="9"/>
+      <x:c r="F14" s="7">
         <x:f>G12/2</x:f>
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="G14" s="22"/>
-      <x:c r="I14" s="13">
+      <x:c r="G14" s="11"/>
+      <x:c r="I14" s="7">
         <x:f>J12/8</x:f>
         <x:v>11875</x:v>
       </x:c>
-      <x:c r="J14" s="22"/>
+      <x:c r="J14" s="11"/>
     </x:row>
     <x:row r="15" spans="2:10">
-      <x:c r="B15" s="20"/>
-      <x:c r="E15" s="20"/>
-      <x:c r="G15" s="22"/>
-      <x:c r="J15" s="22"/>
+      <x:c r="B15" s="9"/>
+      <x:c r="E15" s="9"/>
+      <x:c r="G15" s="11"/>
+      <x:c r="J15" s="11"/>
     </x:row>
     <x:row r="16" spans="2:10" ht="13.949999999999999">
-      <x:c r="B16" s="30" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C16" s="31"/>
-      <x:c r="D16" s="31"/>
-      <x:c r="E16" s="32">
+      <x:c r="B16" s="28" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C16" s="29"/>
+      <x:c r="D16" s="29"/>
+      <x:c r="E16" s="14">
         <x:f>C14+F14</x:f>
         <x:v>16800</x:v>
       </x:c>
-      <x:c r="G16" s="22"/>
-      <x:c r="J16" s="22"/>
+      <x:c r="G16" s="11"/>
+      <x:c r="J16" s="11"/>
     </x:row>
     <x:row r="17" spans="2:10" ht="13.949999999999999" customHeight="1">
-      <x:c r="B17" s="33" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C17" s="34"/>
-      <x:c r="D17" s="34"/>
-      <x:c r="E17" s="35">
+      <x:c r="B17" s="30" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C17" s="31"/>
+      <x:c r="D17" s="31"/>
+      <x:c r="E17" s="15">
         <x:f>C14+I14</x:f>
         <x:v>26675</x:v>
       </x:c>
-      <x:c r="F17" s="25"/>
-      <x:c r="G17" s="26"/>
-      <x:c r="H17" s="25"/>
-      <x:c r="I17" s="25"/>
-      <x:c r="J17" s="26"/>
+      <x:c r="F17" s="12"/>
+      <x:c r="G17" s="13"/>
+      <x:c r="H17" s="12"/>
+      <x:c r="I17" s="12"/>
+      <x:c r="J17" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.10187"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="6월" sheetId="1" r:id="rId4"/>
@@ -18,96 +18,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
   <x:si>
     <x:t>남현우</x:t>
   </x:si>
   <x:si>
+    <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뼈추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김소원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현준수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
     <x:t>박규태</x:t>
   </x:si>
   <x:si>
-    <x:t>이제섭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김소원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뼈추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
     <x:t>감자탕</x:t>
   </x:si>
   <x:si>
+    <x:t>볶음밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥주</x:t>
+  </x:si>
+  <x:si>
     <x:t>총인원</x:t>
   </x:si>
   <x:si>
-    <x:t>맥주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볶음밥</x:t>
-  </x:si>
-  <x:si>
     <x:t>기본</x:t>
   </x:si>
   <x:si>
+    <x:t>술 안먹은사람(기본+음료수)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은 사람</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은사람 2명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은사람 8명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 인원 10명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 참여 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은 사람</x:t>
+  </x:si>
+  <x:si>
     <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 안먹은사람(기본+음료수)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 인원 10명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 안먹은사람 2명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 안먹은 사람</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 먹은사람 8명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 먹은 사람</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 참여 횟수</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1516,7 +1516,7 @@
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J29" activeCellId="0" sqref="J29:J29"/>
+      <x:selection activeCell="D31" activeCellId="0" sqref="D31:D31"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1533,7 +1533,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B1" s="16" t="s">
         <x:v>8</x:v>
@@ -1568,40 +1568,40 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
@@ -1609,11 +1609,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
@@ -1630,14 +1630,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
@@ -1653,7 +1653,7 @@
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
@@ -1687,19 +1687,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
@@ -1727,27 +1727,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
@@ -1756,14 +1756,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
@@ -1781,18 +1781,18 @@
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="6"/>
       <x:c r="I12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L12" s="6"/>
     </x:row>
@@ -1803,28 +1803,28 @@
       </x:c>
       <x:c r="B13" s="6"/>
       <x:c r="C13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I13" s="6"/>
       <x:c r="J13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
@@ -1836,7 +1836,7 @@
       <x:c r="C14" s="6"/>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F14" s="6"/>
       <x:c r="G14" s="6"/>
@@ -1852,31 +1852,31 @@
         <x:v>45454</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="6"/>
       <x:c r="D15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I15" s="6"/>
       <x:c r="J15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
@@ -1885,26 +1885,26 @@
         <x:v>45455</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="6"/>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="6"/>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L16" s="6"/>
     </x:row>
@@ -1948,21 +1948,21 @@
         <x:v>45458</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C19" s="6"/>
       <x:c r="D19" s="6"/>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="6"/>
       <x:c r="G19" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="6"/>
       <x:c r="I19" s="6"/>
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:12">
@@ -1971,25 +1971,25 @@
         <x:v>45459</x:v>
       </x:c>
       <x:c r="B20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C20" s="6"/>
       <x:c r="D20" s="6"/>
       <x:c r="E20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F20" s="6"/>
       <x:c r="G20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="6"/>
       <x:c r="I20" s="6"/>
       <x:c r="J20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K20" s="6"/>
       <x:c r="L20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:12">
@@ -1998,7 +1998,7 @@
         <x:v>45460</x:v>
       </x:c>
       <x:c r="B21" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="6"/>
       <x:c r="D21" s="6"/>
@@ -2007,7 +2007,7 @@
       <x:c r="G21" s="6"/>
       <x:c r="H21" s="6"/>
       <x:c r="I21" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="6"/>
       <x:c r="K21" s="6"/>
@@ -2020,13 +2020,13 @@
       </x:c>
       <x:c r="B22" s="6"/>
       <x:c r="C22" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="6"/>
       <x:c r="G22" s="6"/>
@@ -2045,14 +2045,14 @@
       <x:c r="C23" s="6"/>
       <x:c r="D23" s="6"/>
       <x:c r="E23" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="6"/>
       <x:c r="G23" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I23" s="6"/>
       <x:c r="J23" s="6"/>
@@ -2066,7 +2066,7 @@
       </x:c>
       <x:c r="B24" s="6"/>
       <x:c r="C24" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="6"/>
       <x:c r="E24" s="6"/>
@@ -2076,7 +2076,7 @@
       <x:c r="I24" s="6"/>
       <x:c r="J24" s="6"/>
       <x:c r="K24" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L24" s="6"/>
     </x:row>
@@ -2089,7 +2089,7 @@
       <x:c r="C25" s="6"/>
       <x:c r="D25" s="6"/>
       <x:c r="E25" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F25" s="6"/>
       <x:c r="G25" s="6"/>
@@ -2110,14 +2110,14 @@
       <x:c r="E26" s="6"/>
       <x:c r="F26" s="6"/>
       <x:c r="G26" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="6"/>
       <x:c r="I26" s="6"/>
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
       <x:c r="L26" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:12">
@@ -2128,7 +2128,7 @@
       <x:c r="B27" s="6"/>
       <x:c r="C27" s="6"/>
       <x:c r="D27" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E27" s="6"/>
       <x:c r="F27" s="6"/>
@@ -2136,11 +2136,11 @@
       <x:c r="H27" s="6"/>
       <x:c r="I27" s="6"/>
       <x:c r="J27" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K27" s="6"/>
       <x:c r="L27" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:12">
@@ -2152,11 +2152,11 @@
       <x:c r="C28" s="6"/>
       <x:c r="D28" s="6"/>
       <x:c r="E28" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F28" s="6"/>
       <x:c r="G28" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="6"/>
       <x:c r="I28" s="6"/>
@@ -2170,21 +2170,21 @@
         <x:v>45468</x:v>
       </x:c>
       <x:c r="B29" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C29" s="6"/>
       <x:c r="D29" s="6"/>
       <x:c r="E29" s="6"/>
       <x:c r="F29" s="6"/>
       <x:c r="G29" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I29" s="6"/>
       <x:c r="J29" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K29" s="6"/>
       <x:c r="L29" s="6"/>
@@ -2195,16 +2195,22 @@
         <x:v>45469</x:v>
       </x:c>
       <x:c r="B30" s="6"/>
-      <x:c r="C30" s="6"/>
+      <x:c r="C30" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="D30" s="6"/>
       <x:c r="E30" s="6"/>
       <x:c r="F30" s="6"/>
       <x:c r="G30" s="6"/>
       <x:c r="H30" s="6"/>
       <x:c r="I30" s="6"/>
-      <x:c r="J30" s="6"/>
+      <x:c r="J30" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="K30" s="6"/>
-      <x:c r="L30" s="6"/>
+      <x:c r="L30" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="31" spans="1:12">
       <x:c r="A31" s="3">
@@ -2212,11 +2218,17 @@
         <x:v>45470</x:v>
       </x:c>
       <x:c r="B31" s="6"/>
-      <x:c r="C31" s="6"/>
+      <x:c r="C31" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="D31" s="6"/>
       <x:c r="E31" s="6"/>
-      <x:c r="F31" s="6"/>
-      <x:c r="G31" s="6"/>
+      <x:c r="F31" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G31" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="H31" s="6"/>
       <x:c r="I31" s="6"/>
       <x:c r="J31" s="6"/>
@@ -2276,7 +2288,7 @@
     </x:row>
     <x:row r="35" spans="1:12">
       <x:c r="A35" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
@@ -2284,7 +2296,7 @@
       </x:c>
       <x:c r="C35" s="2">
         <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" si="1"/>
@@ -2296,11 +2308,11 @@
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
@@ -2312,7 +2324,7 @@
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
@@ -2320,7 +2332,7 @@
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2360,7 +2372,7 @@
       <x:c r="C7" s="23"/>
       <x:c r="D7" s="23"/>
       <x:c r="E7" s="22" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="23"/>
       <x:c r="G7" s="26"/>
@@ -2392,7 +2404,7 @@
         <x:v>126000</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F9" s="7">
         <x:v>2</x:v>
@@ -2413,7 +2425,7 @@
     </x:row>
     <x:row r="10" spans="2:10">
       <x:c r="B10" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>1</x:v>
@@ -2424,7 +2436,7 @@
       <x:c r="E10" s="9"/>
       <x:c r="G10" s="10"/>
       <x:c r="H10" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I10" s="7">
         <x:v>13</x:v>
@@ -2435,7 +2447,7 @@
     </x:row>
     <x:row r="11" spans="2:10">
       <x:c r="B11" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="7">
         <x:v>6</x:v>
@@ -2446,7 +2458,7 @@
       <x:c r="E11" s="9"/>
       <x:c r="G11" s="11"/>
       <x:c r="H11" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I11" s="7">
         <x:v>4</x:v>
@@ -2475,15 +2487,15 @@
     <x:row r="13" spans="2:10">
       <x:c r="B13" s="9"/>
       <x:c r="C13" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
       <x:c r="I13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J13" s="11"/>
     </x:row>
@@ -2513,7 +2525,7 @@
     </x:row>
     <x:row r="16" spans="2:10" ht="13.949999999999999">
       <x:c r="B16" s="28" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C16" s="29"/>
       <x:c r="D16" s="29"/>
@@ -2526,7 +2538,7 @@
     </x:row>
     <x:row r="17" spans="2:10" ht="13.949999999999999" customHeight="1">
       <x:c r="B17" s="30" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C17" s="31"/>
       <x:c r="D17" s="31"/>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.10187"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="6월" sheetId="1" r:id="rId4"/>
@@ -18,87 +18,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <x:si>
     <x:t>o</x:t>
   </x:si>
   <x:si>
+    <x:t>소주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뼈추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김소원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현준수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
     <x:t>남현우</x:t>
   </x:si>
   <x:si>
-    <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이제섭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뼈추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김소원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박규태</x:t>
+    <x:t>맥주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볶음밥</x:t>
   </x:si>
   <x:si>
     <x:t>감자탕</x:t>
   </x:si>
   <x:si>
-    <x:t>볶음밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맥주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총인원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본</x:t>
-  </x:si>
-  <x:si>
     <x:t>술 안먹은사람(기본+음료수)</x:t>
   </x:si>
   <x:si>
+    <x:t>술 먹은사람 8명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 인원 10명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은사람 2명</x:t>
+  </x:si>
+  <x:si>
     <x:t>술 안먹은 사람</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 안먹은사람 2명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>술 먹은사람 8명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 인원 10명</x:t>
   </x:si>
   <x:si>
     <x:t>총 참여 횟수</x:t>
@@ -1515,8 +1515,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:L35"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D31" activeCellId="0" sqref="D31:D31"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E31" activeCellId="0" sqref="E31:E31"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1533,10 +1533,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B1" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C1" s="17"/>
       <x:c r="D1" s="17"/>
@@ -1568,40 +1568,40 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="I3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
@@ -2221,7 +2221,9 @@
       <x:c r="C31" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D31" s="6"/>
+      <x:c r="D31" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E31" s="6"/>
       <x:c r="F31" s="5" t="s">
         <x:v>0</x:v>
@@ -2233,7 +2235,9 @@
       <x:c r="I31" s="6"/>
       <x:c r="J31" s="6"/>
       <x:c r="K31" s="6"/>
-      <x:c r="L31" s="6"/>
+      <x:c r="L31" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="32" spans="1:12">
       <x:c r="A32" s="3">
@@ -2274,17 +2278,27 @@
         <x:f t="shared" si="0"/>
         <x:v>45473</x:v>
       </x:c>
-      <x:c r="B34" s="6"/>
+      <x:c r="B34" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="C34" s="6"/>
       <x:c r="D34" s="6"/>
-      <x:c r="E34" s="6"/>
+      <x:c r="E34" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="F34" s="6"/>
       <x:c r="G34" s="6"/>
-      <x:c r="H34" s="6"/>
+      <x:c r="H34" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I34" s="6"/>
-      <x:c r="J34" s="6"/>
+      <x:c r="J34" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="K34" s="6"/>
-      <x:c r="L34" s="6"/>
+      <x:c r="L34" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="35" spans="1:12">
       <x:c r="A35" s="4" t="s">
@@ -2292,7 +2306,7 @@
       </x:c>
       <x:c r="B35" s="2">
         <x:f>COUNTA(B4:B34)</x:f>
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
@@ -2300,11 +2314,11 @@
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="1"/>
@@ -2316,7 +2330,7 @@
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I35" s="2">
         <x:f t="shared" si="1"/>
@@ -2324,7 +2338,7 @@
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="1"/>
@@ -2332,7 +2346,7 @@
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="1"/>
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2367,12 +2381,12 @@
   <x:sheetData>
     <x:row r="7" spans="2:10">
       <x:c r="B7" s="22" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="23"/>
       <x:c r="D7" s="23"/>
       <x:c r="E7" s="22" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F7" s="23"/>
       <x:c r="G7" s="26"/>
@@ -2395,7 +2409,7 @@
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:v>3</x:v>
@@ -2404,7 +2418,7 @@
         <x:v>126000</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F9" s="7">
         <x:v>2</x:v>
@@ -2414,7 +2428,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I9" s="7">
         <x:v>7</x:v>
@@ -2425,7 +2439,7 @@
     </x:row>
     <x:row r="10" spans="2:10">
       <x:c r="B10" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>1</x:v>
@@ -2436,7 +2450,7 @@
       <x:c r="E10" s="9"/>
       <x:c r="G10" s="10"/>
       <x:c r="H10" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I10" s="7">
         <x:v>13</x:v>
@@ -2447,7 +2461,7 @@
     </x:row>
     <x:row r="11" spans="2:10">
       <x:c r="B11" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C11" s="7">
         <x:v>6</x:v>
@@ -2458,7 +2472,7 @@
       <x:c r="E11" s="9"/>
       <x:c r="G11" s="11"/>
       <x:c r="H11" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I11" s="7">
         <x:v>4</x:v>
@@ -2487,15 +2501,15 @@
     <x:row r="13" spans="2:10">
       <x:c r="B13" s="9"/>
       <x:c r="C13" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
       <x:c r="I13" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J13" s="11"/>
     </x:row>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -7,8 +7,9 @@
     <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="6월" sheetId="1" r:id="rId4"/>
-    <x:sheet name="Sheet3" sheetId="2" r:id="rId5"/>
+    <x:sheet name="7월" sheetId="1" r:id="rId4"/>
+    <x:sheet name="6월" sheetId="2" r:id="rId5"/>
+    <x:sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" hidden="1">#REF!</x:definedName>
@@ -18,63 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
   <x:si>
-    <x:t>o</x:t>
+    <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 참여 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은 사람</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은사람(기본+음료수)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은 사람</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 인원 10명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 먹은사람 8명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>술 안먹은사람 2명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
   </x:si>
   <x:si>
     <x:t>소주</x:t>
   </x:si>
   <x:si>
-    <x:t>뼈추가</x:t>
+    <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>이제섭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
+    <x:t>박규태</x:t>
   </x:si>
   <x:si>
     <x:t>조민정</x:t>
   </x:si>
   <x:si>
-    <x:t>음료수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김소원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박규태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남현우</x:t>
-  </x:si>
-  <x:si>
     <x:t>맥주</x:t>
   </x:si>
   <x:si>
-    <x:t>총인원</x:t>
+    <x:t>감자탕</x:t>
   </x:si>
   <x:si>
     <x:t>기본</x:t>
@@ -83,39 +78,49 @@
     <x:t>볶음밥</x:t>
   </x:si>
   <x:si>
-    <x:t>감자탕</x:t>
+    <x:t>남현우</x:t>
   </x:si>
   <x:si>
-    <x:t>술 안먹은사람(기본+음료수)</x:t>
+    <x:t>김소원</x:t>
   </x:si>
   <x:si>
-    <x:t>술 먹은사람 8명</x:t>
+    <x:t>뼈추가</x:t>
   </x:si>
   <x:si>
-    <x:t>총 인원 10명</x:t>
+    <x:t>이름</x:t>
   </x:si>
   <x:si>
-    <x:t>술 안먹은사람 2명</x:t>
+    <x:t>정근승</x:t>
   </x:si>
   <x:si>
-    <x:t>술 안먹은 사람</x:t>
+    <x:t>김아영</x:t>
   </x:si>
   <x:si>
-    <x:t>총 참여 횟수</x:t>
+    <x:t>o</x:t>
   </x:si>
   <x:si>
-    <x:t>술 먹은 사람</x:t>
+    <x:t>현준수</x:t>
   </x:si>
   <x:si>
-    <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
+    <x:t>이정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="164" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <x:numFmt numFmtId="165" formatCode="aaa"/>
   </x:numFmts>
   <x:fonts count="10">
     <x:font>
@@ -561,7 +566,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="32">
+  <x:cellXfs count="36">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -878,6 +883,58 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -887,7 +944,7 @@
     <x:cellStyle xfId="19" builtinId="7" iLevel="0"/>
     <x:cellStyle xfId="0" builtinId="0" iLevel="0"/>
   </x:cellStyles>
-  <x:dxfs count="12">
+  <x:dxfs count="14">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
@@ -1231,6 +1288,46 @@
         </x:dxf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff486ed0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff486ed0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffff0000"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffff0000"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:dxfs>
   <x:tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
     <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
@@ -1512,33 +1609,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:L35"/>
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E31" activeCellId="0" sqref="E31:E31"/>
+      <x:selection activeCell="E26" activeCellId="0" sqref="E26:E26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9.5625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="3" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="7" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="12" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="16384" width="8.88671875" style="1"/>
+    <x:col min="2" max="2" width="4.2734375" style="32" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="4" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="8" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="13" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="16383" width="8.88671875" style="1"/>
+    <x:col min="16384" max="16384" width="8.88671875" style="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:12" customHeight="1">
+    <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B1" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C1" s="17"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B1" s="33"/>
+      <x:c r="C1" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="D1" s="17"/>
       <x:c r="E1" s="17"/>
       <x:c r="F1" s="17"/>
@@ -1547,15 +1646,16 @@
       <x:c r="I1" s="17"/>
       <x:c r="J1" s="17"/>
       <x:c r="K1" s="17"/>
-      <x:c r="L1" s="18"/>
-    </x:row>
-    <x:row r="2" spans="1:12" customHeight="1">
+      <x:c r="L1" s="17"/>
+      <x:c r="M1" s="18"/>
+    </x:row>
+    <x:row r="2" spans="1:13" customHeight="1">
       <x:c r="A2" s="2">
-        <x:f>COUNTA(B3:L3)</x:f>
+        <x:f>COUNTA(C3:M3)</x:f>
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B2" s="19"/>
-      <x:c r="C2" s="20"/>
+      <x:c r="B2" s="34"/>
+      <x:c r="C2" s="19"/>
       <x:c r="D2" s="20"/>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="20"/>
@@ -1564,57 +1664,60 @@
       <x:c r="I2" s="20"/>
       <x:c r="J2" s="20"/>
       <x:c r="K2" s="20"/>
-      <x:c r="L2" s="21"/>
-    </x:row>
-    <x:row r="3" spans="1:12">
+      <x:c r="L2" s="20"/>
+      <x:c r="M2" s="21"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="35" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:12">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
       <x:c r="A4" s="3">
-        <x:v>45443</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>45474</x:v>
+      </x:c>
+      <x:c r="B4" s="35">
+        <x:f>A4</x:f>
+        <x:v>45474</x:v>
       </x:c>
       <x:c r="C4" s="6"/>
-      <x:c r="D4" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="D4" s="6"/>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="6"/>
       <x:c r="G4" s="6"/>
@@ -1623,38 +1726,40 @@
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
       <x:c r="L4" s="6"/>
-    </x:row>
-    <x:row r="5" spans="1:12">
+      <x:c r="M4" s="6"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
       <x:c r="A5" s="3">
         <x:f>A4+1</x:f>
-        <x:v>45444</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>45475</x:v>
+      </x:c>
+      <x:c r="B5" s="35">
+        <x:f t="shared" ref="B5:B34" si="0">A5</x:f>
+        <x:v>45475</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
-      <x:c r="G5" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G5" s="6"/>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
       <x:c r="J5" s="6"/>
       <x:c r="K5" s="6"/>
       <x:c r="L5" s="6"/>
-    </x:row>
-    <x:row r="6" spans="1:12">
+      <x:c r="M5" s="6"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
       <x:c r="A6" s="3">
-        <x:f t="shared" ref="A6:A34" si="0">A5+1</x:f>
-        <x:v>45445</x:v>
-      </x:c>
-      <x:c r="B6" s="6"/>
+        <x:f t="shared" ref="A6:A34" si="1">A5+1</x:f>
+        <x:v>45476</x:v>
+      </x:c>
+      <x:c r="B6" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45476</x:v>
+      </x:c>
       <x:c r="C6" s="6"/>
-      <x:c r="D6" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="D6" s="6"/>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6"/>
@@ -1663,13 +1768,17 @@
       <x:c r="J6" s="6"/>
       <x:c r="K6" s="6"/>
       <x:c r="L6" s="6"/>
-    </x:row>
-    <x:row r="7" spans="1:12">
+      <x:c r="M6" s="6"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
       <x:c r="A7" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45446</x:v>
-      </x:c>
-      <x:c r="B7" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45477</x:v>
+      </x:c>
+      <x:c r="B7" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45477</x:v>
+      </x:c>
       <x:c r="C7" s="6"/>
       <x:c r="D7" s="6"/>
       <x:c r="E7" s="6"/>
@@ -1680,36 +1789,38 @@
       <x:c r="J7" s="6"/>
       <x:c r="K7" s="6"/>
       <x:c r="L7" s="6"/>
-    </x:row>
-    <x:row r="8" spans="1:12">
+      <x:c r="M7" s="6"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
       <x:c r="A8" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45447</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="B8" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45478</x:v>
       </x:c>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
-      <x:c r="G8" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G8" s="6"/>
       <x:c r="H8" s="6"/>
       <x:c r="I8" s="6"/>
-      <x:c r="J8" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="J8" s="6"/>
       <x:c r="K8" s="6"/>
       <x:c r="L8" s="6"/>
-    </x:row>
-    <x:row r="9" spans="1:12">
+      <x:c r="M8" s="6"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
       <x:c r="A9" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45448</x:v>
-      </x:c>
-      <x:c r="B9" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45479</x:v>
+      </x:c>
+      <x:c r="B9" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45479</x:v>
+      </x:c>
       <x:c r="C9" s="6"/>
       <x:c r="D9" s="6"/>
       <x:c r="E9" s="6"/>
@@ -1720,124 +1831,104 @@
       <x:c r="J9" s="6"/>
       <x:c r="K9" s="6"/>
       <x:c r="L9" s="6"/>
-    </x:row>
-    <x:row r="10" spans="1:12">
+      <x:c r="M9" s="6"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
       <x:c r="A10" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45449</x:v>
-      </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45480</x:v>
+      </x:c>
+      <x:c r="B10" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45480</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
-      <x:c r="D10" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="D10" s="6"/>
+      <x:c r="E10" s="6"/>
       <x:c r="F10" s="6"/>
-      <x:c r="G10" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G10" s="6"/>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
-      <x:c r="K10" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L10" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:12">
+      <x:c r="K10" s="6"/>
+      <x:c r="L10" s="6"/>
+      <x:c r="M10" s="6"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
       <x:c r="A11" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45450</x:v>
-      </x:c>
-      <x:c r="B11" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45481</x:v>
+      </x:c>
+      <x:c r="B11" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45481</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
-      <x:c r="G11" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G11" s="6"/>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
       <x:c r="J11" s="6"/>
       <x:c r="K11" s="6"/>
       <x:c r="L11" s="6"/>
-    </x:row>
-    <x:row r="12" spans="1:12">
+      <x:c r="M11" s="6"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
       <x:c r="A12" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45451</x:v>
-      </x:c>
-      <x:c r="B12" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45482</x:v>
+      </x:c>
+      <x:c r="B12" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45482</x:v>
+      </x:c>
       <x:c r="C12" s="6"/>
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="6"/>
-      <x:c r="F12" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G12" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="F12" s="6"/>
+      <x:c r="G12" s="6"/>
       <x:c r="H12" s="6"/>
-      <x:c r="I12" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="I12" s="6"/>
       <x:c r="J12" s="6"/>
-      <x:c r="K12" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="K12" s="6"/>
       <x:c r="L12" s="6"/>
-    </x:row>
-    <x:row r="13" spans="1:12">
+      <x:c r="M12" s="6"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
       <x:c r="A13" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45452</x:v>
-      </x:c>
-      <x:c r="B13" s="6"/>
-      <x:c r="C13" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D13" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E13" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:f t="shared" si="1"/>
+        <x:v>45483</x:v>
+      </x:c>
+      <x:c r="B13" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45483</x:v>
+      </x:c>
+      <x:c r="C13" s="6"/>
+      <x:c r="D13" s="6"/>
+      <x:c r="E13" s="6"/>
       <x:c r="F13" s="6"/>
-      <x:c r="G13" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H13" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G13" s="6"/>
+      <x:c r="H13" s="6"/>
       <x:c r="I13" s="6"/>
-      <x:c r="J13" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="J13" s="6"/>
       <x:c r="K13" s="6"/>
-      <x:c r="L13" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:12">
+      <x:c r="L13" s="6"/>
+      <x:c r="M13" s="6"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
       <x:c r="A14" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45453</x:v>
-      </x:c>
-      <x:c r="B14" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45484</x:v>
+      </x:c>
+      <x:c r="B14" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45484</x:v>
+      </x:c>
       <x:c r="C14" s="6"/>
       <x:c r="D14" s="6"/>
-      <x:c r="E14" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="E14" s="6"/>
       <x:c r="F14" s="6"/>
       <x:c r="G14" s="6"/>
       <x:c r="H14" s="6"/>
@@ -1845,75 +1936,59 @@
       <x:c r="J14" s="6"/>
       <x:c r="K14" s="6"/>
       <x:c r="L14" s="6"/>
-    </x:row>
-    <x:row r="15" spans="1:12">
+      <x:c r="M14" s="6"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
       <x:c r="A15" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45454</x:v>
-      </x:c>
-      <x:c r="B15" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45485</x:v>
+      </x:c>
+      <x:c r="B15" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45485</x:v>
       </x:c>
       <x:c r="C15" s="6"/>
-      <x:c r="D15" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E15" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="D15" s="6"/>
+      <x:c r="E15" s="6"/>
       <x:c r="F15" s="6"/>
-      <x:c r="G15" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G15" s="6"/>
+      <x:c r="H15" s="6"/>
       <x:c r="I15" s="6"/>
-      <x:c r="J15" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K15" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L15" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:12">
+      <x:c r="J15" s="6"/>
+      <x:c r="K15" s="6"/>
+      <x:c r="L15" s="6"/>
+      <x:c r="M15" s="6"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
       <x:c r="A16" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45455</x:v>
-      </x:c>
-      <x:c r="B16" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45486</x:v>
+      </x:c>
+      <x:c r="B16" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45486</x:v>
       </x:c>
       <x:c r="C16" s="6"/>
       <x:c r="D16" s="6"/>
-      <x:c r="E16" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="E16" s="6"/>
       <x:c r="F16" s="6"/>
       <x:c r="G16" s="6"/>
-      <x:c r="H16" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I16" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J16" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K16" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="H16" s="6"/>
+      <x:c r="I16" s="6"/>
+      <x:c r="J16" s="6"/>
+      <x:c r="K16" s="6"/>
       <x:c r="L16" s="6"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
+      <x:c r="M16" s="6"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
       <x:c r="A17" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45456</x:v>
-      </x:c>
-      <x:c r="B17" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45487</x:v>
+      </x:c>
+      <x:c r="B17" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45487</x:v>
+      </x:c>
       <x:c r="C17" s="6"/>
       <x:c r="D17" s="6"/>
       <x:c r="E17" s="6"/>
@@ -1924,13 +1999,17 @@
       <x:c r="J17" s="6"/>
       <x:c r="K17" s="6"/>
       <x:c r="L17" s="6"/>
-    </x:row>
-    <x:row r="18" spans="1:12">
+      <x:c r="M17" s="6"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
       <x:c r="A18" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45457</x:v>
-      </x:c>
-      <x:c r="B18" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45488</x:v>
+      </x:c>
+      <x:c r="B18" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45488</x:v>
+      </x:c>
       <x:c r="C18" s="6"/>
       <x:c r="D18" s="6"/>
       <x:c r="E18" s="6"/>
@@ -1941,64 +2020,58 @@
       <x:c r="J18" s="6"/>
       <x:c r="K18" s="6"/>
       <x:c r="L18" s="6"/>
-    </x:row>
-    <x:row r="19" spans="1:12">
+      <x:c r="M18" s="6"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
       <x:c r="A19" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45458</x:v>
-      </x:c>
-      <x:c r="B19" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45489</x:v>
+      </x:c>
+      <x:c r="B19" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45489</x:v>
       </x:c>
       <x:c r="C19" s="6"/>
       <x:c r="D19" s="6"/>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="6"/>
-      <x:c r="G19" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G19" s="6"/>
       <x:c r="H19" s="6"/>
       <x:c r="I19" s="6"/>
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
-      <x:c r="L19" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:12">
+      <x:c r="L19" s="6"/>
+      <x:c r="M19" s="6"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
       <x:c r="A20" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45459</x:v>
-      </x:c>
-      <x:c r="B20" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45490</x:v>
+      </x:c>
+      <x:c r="B20" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45490</x:v>
       </x:c>
       <x:c r="C20" s="6"/>
       <x:c r="D20" s="6"/>
-      <x:c r="E20" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="E20" s="6"/>
       <x:c r="F20" s="6"/>
-      <x:c r="G20" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G20" s="6"/>
       <x:c r="H20" s="6"/>
       <x:c r="I20" s="6"/>
-      <x:c r="J20" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="J20" s="6"/>
       <x:c r="K20" s="6"/>
-      <x:c r="L20" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:12">
+      <x:c r="L20" s="6"/>
+      <x:c r="M20" s="6"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
       <x:c r="A21" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45460</x:v>
-      </x:c>
-      <x:c r="B21" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45491</x:v>
+      </x:c>
+      <x:c r="B21" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45491</x:v>
       </x:c>
       <x:c r="C21" s="6"/>
       <x:c r="D21" s="6"/>
@@ -2006,28 +2079,24 @@
       <x:c r="F21" s="6"/>
       <x:c r="G21" s="6"/>
       <x:c r="H21" s="6"/>
-      <x:c r="I21" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="I21" s="6"/>
       <x:c r="J21" s="6"/>
       <x:c r="K21" s="6"/>
       <x:c r="L21" s="6"/>
-    </x:row>
-    <x:row r="22" spans="1:12">
+      <x:c r="M21" s="6"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
       <x:c r="A22" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45461</x:v>
-      </x:c>
-      <x:c r="B22" s="6"/>
-      <x:c r="C22" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D22" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E22" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:f t="shared" si="1"/>
+        <x:v>45492</x:v>
+      </x:c>
+      <x:c r="B22" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45492</x:v>
+      </x:c>
+      <x:c r="C22" s="6"/>
+      <x:c r="D22" s="6"/>
+      <x:c r="E22" s="6"/>
       <x:c r="F22" s="6"/>
       <x:c r="G22" s="6"/>
       <x:c r="H22" s="6"/>
@@ -2035,39 +2104,39 @@
       <x:c r="J22" s="6"/>
       <x:c r="K22" s="6"/>
       <x:c r="L22" s="6"/>
-    </x:row>
-    <x:row r="23" spans="1:12">
+      <x:c r="M22" s="6"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
       <x:c r="A23" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45462</x:v>
-      </x:c>
-      <x:c r="B23" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45493</x:v>
+      </x:c>
+      <x:c r="B23" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45493</x:v>
+      </x:c>
       <x:c r="C23" s="6"/>
       <x:c r="D23" s="6"/>
-      <x:c r="E23" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="E23" s="6"/>
       <x:c r="F23" s="6"/>
-      <x:c r="G23" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H23" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G23" s="6"/>
+      <x:c r="H23" s="6"/>
       <x:c r="I23" s="6"/>
       <x:c r="J23" s="6"/>
       <x:c r="K23" s="6"/>
       <x:c r="L23" s="6"/>
-    </x:row>
-    <x:row r="24" spans="1:12">
+      <x:c r="M23" s="6"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
       <x:c r="A24" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45463</x:v>
-      </x:c>
-      <x:c r="B24" s="6"/>
-      <x:c r="C24" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:f t="shared" si="1"/>
+        <x:v>45494</x:v>
+      </x:c>
+      <x:c r="B24" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45494</x:v>
+      </x:c>
+      <x:c r="C24" s="6"/>
       <x:c r="D24" s="6"/>
       <x:c r="E24" s="6"/>
       <x:c r="F24" s="6"/>
@@ -2075,22 +2144,22 @@
       <x:c r="H24" s="6"/>
       <x:c r="I24" s="6"/>
       <x:c r="J24" s="6"/>
-      <x:c r="K24" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="K24" s="6"/>
       <x:c r="L24" s="6"/>
-    </x:row>
-    <x:row r="25" spans="1:12">
+      <x:c r="M24" s="6"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
       <x:c r="A25" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45464</x:v>
-      </x:c>
-      <x:c r="B25" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45495</x:v>
+      </x:c>
+      <x:c r="B25" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45495</x:v>
+      </x:c>
       <x:c r="C25" s="6"/>
       <x:c r="D25" s="6"/>
-      <x:c r="E25" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="E25" s="6"/>
       <x:c r="F25" s="6"/>
       <x:c r="G25" s="6"/>
       <x:c r="H25" s="6"/>
@@ -2098,153 +2167,143 @@
       <x:c r="J25" s="6"/>
       <x:c r="K25" s="6"/>
       <x:c r="L25" s="6"/>
-    </x:row>
-    <x:row r="26" spans="1:12">
+      <x:c r="M25" s="6"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
       <x:c r="A26" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45465</x:v>
-      </x:c>
-      <x:c r="B26" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45496</x:v>
+      </x:c>
+      <x:c r="B26" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45496</x:v>
+      </x:c>
       <x:c r="C26" s="6"/>
       <x:c r="D26" s="6"/>
       <x:c r="E26" s="6"/>
       <x:c r="F26" s="6"/>
-      <x:c r="G26" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G26" s="6"/>
       <x:c r="H26" s="6"/>
       <x:c r="I26" s="6"/>
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
-      <x:c r="L26" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:12">
+      <x:c r="L26" s="6"/>
+      <x:c r="M26" s="6"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
       <x:c r="A27" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45466</x:v>
-      </x:c>
-      <x:c r="B27" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45497</x:v>
+      </x:c>
+      <x:c r="B27" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45497</x:v>
+      </x:c>
       <x:c r="C27" s="6"/>
-      <x:c r="D27" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="D27" s="6"/>
       <x:c r="E27" s="6"/>
       <x:c r="F27" s="6"/>
       <x:c r="G27" s="6"/>
       <x:c r="H27" s="6"/>
       <x:c r="I27" s="6"/>
-      <x:c r="J27" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="J27" s="6"/>
       <x:c r="K27" s="6"/>
-      <x:c r="L27" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:12">
+      <x:c r="L27" s="6"/>
+      <x:c r="M27" s="6"/>
+    </x:row>
+    <x:row r="28" spans="1:13">
       <x:c r="A28" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45467</x:v>
-      </x:c>
-      <x:c r="B28" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45498</x:v>
+      </x:c>
+      <x:c r="B28" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45498</x:v>
+      </x:c>
       <x:c r="C28" s="6"/>
       <x:c r="D28" s="6"/>
-      <x:c r="E28" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="E28" s="6"/>
       <x:c r="F28" s="6"/>
-      <x:c r="G28" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G28" s="6"/>
       <x:c r="H28" s="6"/>
       <x:c r="I28" s="6"/>
       <x:c r="J28" s="6"/>
       <x:c r="K28" s="6"/>
       <x:c r="L28" s="6"/>
-    </x:row>
-    <x:row r="29" spans="1:12">
+      <x:c r="M28" s="6"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
       <x:c r="A29" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45468</x:v>
-      </x:c>
-      <x:c r="B29" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45499</x:v>
+      </x:c>
+      <x:c r="B29" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45499</x:v>
       </x:c>
       <x:c r="C29" s="6"/>
       <x:c r="D29" s="6"/>
       <x:c r="E29" s="6"/>
       <x:c r="F29" s="6"/>
-      <x:c r="G29" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H29" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G29" s="6"/>
+      <x:c r="H29" s="6"/>
       <x:c r="I29" s="6"/>
-      <x:c r="J29" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="J29" s="6"/>
       <x:c r="K29" s="6"/>
       <x:c r="L29" s="6"/>
-    </x:row>
-    <x:row r="30" spans="1:12">
+      <x:c r="M29" s="6"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
       <x:c r="A30" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45469</x:v>
-      </x:c>
-      <x:c r="B30" s="6"/>
-      <x:c r="C30" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:f t="shared" si="1"/>
+        <x:v>45500</x:v>
+      </x:c>
+      <x:c r="B30" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45500</x:v>
+      </x:c>
+      <x:c r="C30" s="6"/>
       <x:c r="D30" s="6"/>
       <x:c r="E30" s="6"/>
       <x:c r="F30" s="6"/>
       <x:c r="G30" s="6"/>
       <x:c r="H30" s="6"/>
       <x:c r="I30" s="6"/>
-      <x:c r="J30" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="J30" s="6"/>
       <x:c r="K30" s="6"/>
-      <x:c r="L30" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:12">
+      <x:c r="L30" s="6"/>
+      <x:c r="M30" s="6"/>
+    </x:row>
+    <x:row r="31" spans="1:13">
       <x:c r="A31" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45470</x:v>
-      </x:c>
-      <x:c r="B31" s="6"/>
-      <x:c r="C31" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D31" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:f t="shared" si="1"/>
+        <x:v>45501</x:v>
+      </x:c>
+      <x:c r="B31" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45501</x:v>
+      </x:c>
+      <x:c r="C31" s="6"/>
+      <x:c r="D31" s="6"/>
       <x:c r="E31" s="6"/>
-      <x:c r="F31" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G31" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="F31" s="6"/>
+      <x:c r="G31" s="6"/>
       <x:c r="H31" s="6"/>
       <x:c r="I31" s="6"/>
       <x:c r="J31" s="6"/>
       <x:c r="K31" s="6"/>
-      <x:c r="L31" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:12">
+      <x:c r="L31" s="6"/>
+      <x:c r="M31" s="6"/>
+    </x:row>
+    <x:row r="32" spans="1:13">
       <x:c r="A32" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45471</x:v>
-      </x:c>
-      <x:c r="B32" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45502</x:v>
+      </x:c>
+      <x:c r="B32" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45502</x:v>
+      </x:c>
       <x:c r="C32" s="6"/>
       <x:c r="D32" s="6"/>
       <x:c r="E32" s="6"/>
@@ -2255,13 +2314,17 @@
       <x:c r="J32" s="6"/>
       <x:c r="K32" s="6"/>
       <x:c r="L32" s="6"/>
-    </x:row>
-    <x:row r="33" spans="1:12">
+      <x:c r="M32" s="6"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
       <x:c r="A33" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45472</x:v>
-      </x:c>
-      <x:c r="B33" s="6"/>
+        <x:f t="shared" si="1"/>
+        <x:v>45503</x:v>
+      </x:c>
+      <x:c r="B33" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45503</x:v>
+      </x:c>
       <x:c r="C33" s="6"/>
       <x:c r="D33" s="6"/>
       <x:c r="E33" s="6"/>
@@ -2272,93 +2335,1101 @@
       <x:c r="J33" s="6"/>
       <x:c r="K33" s="6"/>
       <x:c r="L33" s="6"/>
-    </x:row>
-    <x:row r="34" spans="1:12">
+      <x:c r="M33" s="6"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
       <x:c r="A34" s="3">
-        <x:f t="shared" si="0"/>
-        <x:v>45473</x:v>
-      </x:c>
-      <x:c r="B34" s="5" t="s">
-        <x:v>0</x:v>
+        <x:f t="shared" si="1"/>
+        <x:v>45504</x:v>
+      </x:c>
+      <x:c r="B34" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45504</x:v>
       </x:c>
       <x:c r="C34" s="6"/>
       <x:c r="D34" s="6"/>
-      <x:c r="E34" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="E34" s="6"/>
       <x:c r="F34" s="6"/>
       <x:c r="G34" s="6"/>
-      <x:c r="H34" s="5" t="s">
+      <x:c r="H34" s="6"/>
+      <x:c r="I34" s="6"/>
+      <x:c r="J34" s="6"/>
+      <x:c r="K34" s="6"/>
+      <x:c r="L34" s="6"/>
+      <x:c r="M34" s="6"/>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="A35" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B35" s="35"/>
+      <x:c r="C35" s="2">
+        <x:f>COUNTA(C4:C34)</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I34" s="6"/>
-      <x:c r="J34" s="5" t="s">
+      <x:c r="D35" s="2">
+        <x:f t="shared" ref="D35:M35" si="2">COUNTA(D4:D34)</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K34" s="6"/>
-      <x:c r="L34" s="5" t="s">
+      <x:c r="E35" s="2">
+        <x:f t="shared" si="2"/>
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="35" spans="1:12">
-      <x:c r="A35" s="4" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B35" s="2">
-        <x:f>COUNTA(B4:B34)</x:f>
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C35" s="2">
-        <x:f t="shared" ref="C35:L35" si="1">COUNTA(C4:C34)</x:f>
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D35" s="2">
-        <x:f t="shared" si="1"/>
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E35" s="2">
-        <x:f t="shared" si="1"/>
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="F35" s="2">
-        <x:f t="shared" si="1"/>
-        <x:v>2</x:v>
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G35" s="2">
-        <x:f t="shared" si="1"/>
-        <x:v>14</x:v>
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="2">
-        <x:f t="shared" si="1"/>
-        <x:v>6</x:v>
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I35" s="2">
-        <x:f t="shared" si="1"/>
-        <x:v>3</x:v>
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="2">
-        <x:f t="shared" si="1"/>
-        <x:v>9</x:v>
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K35" s="2">
-        <x:f t="shared" si="1"/>
-        <x:v>5</x:v>
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L35" s="2">
-        <x:f t="shared" si="1"/>
-        <x:v>10</x:v>
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B1:L2"/>
+    <x:mergeCell ref="C1:M2"/>
   </x:mergeCells>
+  <x:conditionalFormatting sqref="B4:B34">
+    <x:cfRule type="expression" dxfId="12" priority="4">
+      <x:formula>WEEKDAY($B4)=7</x:formula>
+    </x:cfRule>
+    <x:cfRule type="expression" dxfId="13" priority="3">
+      <x:formula>WEEKDAY($B4)=1</x:formula>
+    </x:cfRule>
+  </x:conditionalFormatting>
+  <x:conditionalFormatting sqref="A4:A34">
+    <x:cfRule type="expression" dxfId="13" priority="2">
+      <x:formula>WEEKDAY($A4)=1</x:formula>
+    </x:cfRule>
+    <x:cfRule type="expression" dxfId="12" priority="1">
+      <x:formula>WEEKDAY($A4)=7</x:formula>
+    </x:cfRule>
+  </x:conditionalFormatting>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet2"/>
+  <x:dimension ref="A1:M35"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H16" activeCellId="0" sqref="H16:H16"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.5625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="4.2734375" style="32" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="4" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="8" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="13" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="16383" width="8.88671875" style="1"/>
+    <x:col min="16384" max="16384" width="8.88671875" style="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:13" customHeight="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B1" s="33"/>
+      <x:c r="C1" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D1" s="17"/>
+      <x:c r="E1" s="17"/>
+      <x:c r="F1" s="17"/>
+      <x:c r="G1" s="17"/>
+      <x:c r="H1" s="17"/>
+      <x:c r="I1" s="17"/>
+      <x:c r="J1" s="17"/>
+      <x:c r="K1" s="17"/>
+      <x:c r="L1" s="17"/>
+      <x:c r="M1" s="18"/>
+    </x:row>
+    <x:row r="2" spans="1:13" customHeight="1">
+      <x:c r="A2" s="2">
+        <x:f>COUNTA(C3:M3)</x:f>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="34"/>
+      <x:c r="C2" s="19"/>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="20"/>
+      <x:c r="G2" s="20"/>
+      <x:c r="H2" s="20"/>
+      <x:c r="I2" s="20"/>
+      <x:c r="J2" s="20"/>
+      <x:c r="K2" s="20"/>
+      <x:c r="L2" s="20"/>
+      <x:c r="M2" s="21"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="35" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="3">
+        <x:v>45443</x:v>
+      </x:c>
+      <x:c r="B4" s="35">
+        <x:f>A4</x:f>
+        <x:v>45443</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D4" s="6"/>
+      <x:c r="E4" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F4" s="6"/>
+      <x:c r="G4" s="6"/>
+      <x:c r="H4" s="6"/>
+      <x:c r="I4" s="6"/>
+      <x:c r="J4" s="6"/>
+      <x:c r="K4" s="6"/>
+      <x:c r="L4" s="6"/>
+      <x:c r="M4" s="6"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="3">
+        <x:f>A4+1</x:f>
+        <x:v>45444</x:v>
+      </x:c>
+      <x:c r="B5" s="35">
+        <x:f t="shared" ref="B5:B34" si="0">A5</x:f>
+        <x:v>45444</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D5" s="6"/>
+      <x:c r="E5" s="6"/>
+      <x:c r="F5" s="6"/>
+      <x:c r="G5" s="6"/>
+      <x:c r="H5" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I5" s="6"/>
+      <x:c r="J5" s="6"/>
+      <x:c r="K5" s="6"/>
+      <x:c r="L5" s="6"/>
+      <x:c r="M5" s="6"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="3">
+        <x:f t="shared" ref="A6:A34" si="1">A5+1</x:f>
+        <x:v>45445</x:v>
+      </x:c>
+      <x:c r="B6" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45445</x:v>
+      </x:c>
+      <x:c r="C6" s="6"/>
+      <x:c r="D6" s="6"/>
+      <x:c r="E6" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F6" s="6"/>
+      <x:c r="G6" s="6"/>
+      <x:c r="H6" s="6"/>
+      <x:c r="I6" s="6"/>
+      <x:c r="J6" s="6"/>
+      <x:c r="K6" s="6"/>
+      <x:c r="L6" s="6"/>
+      <x:c r="M6" s="6"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45446</x:v>
+      </x:c>
+      <x:c r="B7" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45446</x:v>
+      </x:c>
+      <x:c r="C7" s="6"/>
+      <x:c r="D7" s="6"/>
+      <x:c r="E7" s="6"/>
+      <x:c r="F7" s="6"/>
+      <x:c r="G7" s="6"/>
+      <x:c r="H7" s="6"/>
+      <x:c r="I7" s="6"/>
+      <x:c r="J7" s="6"/>
+      <x:c r="K7" s="6"/>
+      <x:c r="L7" s="6"/>
+      <x:c r="M7" s="6"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45447</x:v>
+      </x:c>
+      <x:c r="B8" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45447</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D8" s="6"/>
+      <x:c r="E8" s="6"/>
+      <x:c r="F8" s="6"/>
+      <x:c r="G8" s="6"/>
+      <x:c r="H8" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I8" s="6"/>
+      <x:c r="J8" s="6"/>
+      <x:c r="K8" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L8" s="6"/>
+      <x:c r="M8" s="6"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45448</x:v>
+      </x:c>
+      <x:c r="B9" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45448</x:v>
+      </x:c>
+      <x:c r="C9" s="6"/>
+      <x:c r="D9" s="6"/>
+      <x:c r="E9" s="6"/>
+      <x:c r="F9" s="6"/>
+      <x:c r="G9" s="6"/>
+      <x:c r="H9" s="6"/>
+      <x:c r="I9" s="6"/>
+      <x:c r="J9" s="6"/>
+      <x:c r="K9" s="6"/>
+      <x:c r="L9" s="6"/>
+      <x:c r="M9" s="6"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45449</x:v>
+      </x:c>
+      <x:c r="B10" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45449</x:v>
+      </x:c>
+      <x:c r="C10" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D10" s="6"/>
+      <x:c r="E10" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G10" s="6"/>
+      <x:c r="H10" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I10" s="6"/>
+      <x:c r="J10" s="6"/>
+      <x:c r="K10" s="6"/>
+      <x:c r="L10" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M10" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45450</x:v>
+      </x:c>
+      <x:c r="B11" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45450</x:v>
+      </x:c>
+      <x:c r="C11" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D11" s="6"/>
+      <x:c r="E11" s="6"/>
+      <x:c r="F11" s="6"/>
+      <x:c r="G11" s="6"/>
+      <x:c r="H11" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I11" s="6"/>
+      <x:c r="J11" s="6"/>
+      <x:c r="K11" s="6"/>
+      <x:c r="L11" s="6"/>
+      <x:c r="M11" s="6"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45451</x:v>
+      </x:c>
+      <x:c r="B12" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45451</x:v>
+      </x:c>
+      <x:c r="C12" s="6"/>
+      <x:c r="D12" s="6"/>
+      <x:c r="E12" s="6"/>
+      <x:c r="F12" s="6"/>
+      <x:c r="G12" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H12" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I12" s="6"/>
+      <x:c r="J12" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K12" s="6"/>
+      <x:c r="L12" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M12" s="6"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45452</x:v>
+      </x:c>
+      <x:c r="B13" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45452</x:v>
+      </x:c>
+      <x:c r="C13" s="6"/>
+      <x:c r="D13" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F13" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G13" s="6"/>
+      <x:c r="H13" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I13" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J13" s="6"/>
+      <x:c r="K13" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L13" s="6"/>
+      <x:c r="M13" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45453</x:v>
+      </x:c>
+      <x:c r="B14" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45453</x:v>
+      </x:c>
+      <x:c r="C14" s="6"/>
+      <x:c r="D14" s="6"/>
+      <x:c r="E14" s="6"/>
+      <x:c r="F14" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G14" s="6"/>
+      <x:c r="H14" s="6"/>
+      <x:c r="I14" s="6"/>
+      <x:c r="J14" s="6"/>
+      <x:c r="K14" s="6"/>
+      <x:c r="L14" s="6"/>
+      <x:c r="M14" s="6"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="B15" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45454</x:v>
+      </x:c>
+      <x:c r="C15" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D15" s="6"/>
+      <x:c r="E15" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F15" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G15" s="6"/>
+      <x:c r="H15" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I15" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J15" s="6"/>
+      <x:c r="K15" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L15" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M15" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45455</x:v>
+      </x:c>
+      <x:c r="B16" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45455</x:v>
+      </x:c>
+      <x:c r="C16" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D16" s="6"/>
+      <x:c r="E16" s="6"/>
+      <x:c r="F16" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G16" s="6"/>
+      <x:c r="H16" s="6"/>
+      <x:c r="I16" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J16" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K16" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L16" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M16" s="6"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45456</x:v>
+      </x:c>
+      <x:c r="B17" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45456</x:v>
+      </x:c>
+      <x:c r="C17" s="6"/>
+      <x:c r="D17" s="6"/>
+      <x:c r="E17" s="6"/>
+      <x:c r="F17" s="6"/>
+      <x:c r="G17" s="6"/>
+      <x:c r="H17" s="6"/>
+      <x:c r="I17" s="6"/>
+      <x:c r="J17" s="6"/>
+      <x:c r="K17" s="6"/>
+      <x:c r="L17" s="6"/>
+      <x:c r="M17" s="6"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="A18" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45457</x:v>
+      </x:c>
+      <x:c r="B18" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45457</x:v>
+      </x:c>
+      <x:c r="C18" s="6"/>
+      <x:c r="D18" s="6"/>
+      <x:c r="E18" s="6"/>
+      <x:c r="F18" s="6"/>
+      <x:c r="G18" s="6"/>
+      <x:c r="H18" s="6"/>
+      <x:c r="I18" s="6"/>
+      <x:c r="J18" s="6"/>
+      <x:c r="K18" s="6"/>
+      <x:c r="L18" s="6"/>
+      <x:c r="M18" s="6"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="A19" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45458</x:v>
+      </x:c>
+      <x:c r="B19" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45458</x:v>
+      </x:c>
+      <x:c r="C19" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D19" s="6"/>
+      <x:c r="E19" s="6"/>
+      <x:c r="F19" s="6"/>
+      <x:c r="G19" s="6"/>
+      <x:c r="H19" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I19" s="6"/>
+      <x:c r="J19" s="6"/>
+      <x:c r="K19" s="6"/>
+      <x:c r="L19" s="6"/>
+      <x:c r="M19" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="A20" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45459</x:v>
+      </x:c>
+      <x:c r="B20" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45459</x:v>
+      </x:c>
+      <x:c r="C20" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D20" s="6"/>
+      <x:c r="E20" s="6"/>
+      <x:c r="F20" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G20" s="6"/>
+      <x:c r="H20" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I20" s="6"/>
+      <x:c r="J20" s="6"/>
+      <x:c r="K20" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L20" s="6"/>
+      <x:c r="M20" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="A21" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45460</x:v>
+      </x:c>
+      <x:c r="B21" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45460</x:v>
+      </x:c>
+      <x:c r="C21" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D21" s="6"/>
+      <x:c r="E21" s="6"/>
+      <x:c r="F21" s="6"/>
+      <x:c r="G21" s="6"/>
+      <x:c r="H21" s="6"/>
+      <x:c r="I21" s="6"/>
+      <x:c r="J21" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K21" s="6"/>
+      <x:c r="L21" s="6"/>
+      <x:c r="M21" s="6"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="A22" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45461</x:v>
+      </x:c>
+      <x:c r="B22" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45461</x:v>
+      </x:c>
+      <x:c r="C22" s="6"/>
+      <x:c r="D22" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E22" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F22" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G22" s="6"/>
+      <x:c r="H22" s="6"/>
+      <x:c r="I22" s="6"/>
+      <x:c r="J22" s="6"/>
+      <x:c r="K22" s="6"/>
+      <x:c r="L22" s="6"/>
+      <x:c r="M22" s="6"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="A23" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45462</x:v>
+      </x:c>
+      <x:c r="B23" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45462</x:v>
+      </x:c>
+      <x:c r="C23" s="6"/>
+      <x:c r="D23" s="6"/>
+      <x:c r="E23" s="6"/>
+      <x:c r="F23" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G23" s="6"/>
+      <x:c r="H23" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I23" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J23" s="6"/>
+      <x:c r="K23" s="6"/>
+      <x:c r="L23" s="6"/>
+      <x:c r="M23" s="6"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="A24" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45463</x:v>
+      </x:c>
+      <x:c r="B24" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45463</x:v>
+      </x:c>
+      <x:c r="C24" s="6"/>
+      <x:c r="D24" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E24" s="6"/>
+      <x:c r="F24" s="6"/>
+      <x:c r="G24" s="6"/>
+      <x:c r="H24" s="6"/>
+      <x:c r="I24" s="6"/>
+      <x:c r="J24" s="6"/>
+      <x:c r="K24" s="6"/>
+      <x:c r="L24" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M24" s="6"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="A25" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45464</x:v>
+      </x:c>
+      <x:c r="B25" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45464</x:v>
+      </x:c>
+      <x:c r="C25" s="6"/>
+      <x:c r="D25" s="6"/>
+      <x:c r="E25" s="6"/>
+      <x:c r="F25" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G25" s="6"/>
+      <x:c r="H25" s="6"/>
+      <x:c r="I25" s="6"/>
+      <x:c r="J25" s="6"/>
+      <x:c r="K25" s="6"/>
+      <x:c r="L25" s="6"/>
+      <x:c r="M25" s="6"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="A26" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45465</x:v>
+      </x:c>
+      <x:c r="B26" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45465</x:v>
+      </x:c>
+      <x:c r="C26" s="6"/>
+      <x:c r="D26" s="6"/>
+      <x:c r="E26" s="6"/>
+      <x:c r="F26" s="6"/>
+      <x:c r="G26" s="6"/>
+      <x:c r="H26" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I26" s="6"/>
+      <x:c r="J26" s="6"/>
+      <x:c r="K26" s="6"/>
+      <x:c r="L26" s="6"/>
+      <x:c r="M26" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="A27" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45466</x:v>
+      </x:c>
+      <x:c r="B27" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45466</x:v>
+      </x:c>
+      <x:c r="C27" s="6"/>
+      <x:c r="D27" s="6"/>
+      <x:c r="E27" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F27" s="6"/>
+      <x:c r="G27" s="6"/>
+      <x:c r="H27" s="6"/>
+      <x:c r="I27" s="6"/>
+      <x:c r="J27" s="6"/>
+      <x:c r="K27" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L27" s="6"/>
+      <x:c r="M27" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="A28" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45467</x:v>
+      </x:c>
+      <x:c r="B28" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45467</x:v>
+      </x:c>
+      <x:c r="C28" s="6"/>
+      <x:c r="D28" s="6"/>
+      <x:c r="E28" s="6"/>
+      <x:c r="F28" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G28" s="6"/>
+      <x:c r="H28" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I28" s="6"/>
+      <x:c r="J28" s="6"/>
+      <x:c r="K28" s="6"/>
+      <x:c r="L28" s="6"/>
+      <x:c r="M28" s="6"/>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="A29" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45468</x:v>
+      </x:c>
+      <x:c r="B29" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45468</x:v>
+      </x:c>
+      <x:c r="C29" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D29" s="6"/>
+      <x:c r="E29" s="6"/>
+      <x:c r="F29" s="6"/>
+      <x:c r="G29" s="6"/>
+      <x:c r="H29" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I29" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J29" s="6"/>
+      <x:c r="K29" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L29" s="6"/>
+      <x:c r="M29" s="6"/>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="A30" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45469</x:v>
+      </x:c>
+      <x:c r="B30" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45469</x:v>
+      </x:c>
+      <x:c r="C30" s="6"/>
+      <x:c r="D30" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E30" s="6"/>
+      <x:c r="F30" s="6"/>
+      <x:c r="G30" s="6"/>
+      <x:c r="H30" s="6"/>
+      <x:c r="I30" s="6"/>
+      <x:c r="J30" s="6"/>
+      <x:c r="K30" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L30" s="6"/>
+      <x:c r="M30" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="A31" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45470</x:v>
+      </x:c>
+      <x:c r="B31" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45470</x:v>
+      </x:c>
+      <x:c r="C31" s="6"/>
+      <x:c r="D31" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E31" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F31" s="6"/>
+      <x:c r="G31" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H31" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I31" s="6"/>
+      <x:c r="J31" s="6"/>
+      <x:c r="K31" s="6"/>
+      <x:c r="L31" s="6"/>
+      <x:c r="M31" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:13">
+      <x:c r="A32" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45471</x:v>
+      </x:c>
+      <x:c r="B32" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45471</x:v>
+      </x:c>
+      <x:c r="C32" s="6"/>
+      <x:c r="D32" s="6"/>
+      <x:c r="E32" s="6"/>
+      <x:c r="F32" s="6"/>
+      <x:c r="G32" s="6"/>
+      <x:c r="H32" s="6"/>
+      <x:c r="I32" s="6"/>
+      <x:c r="J32" s="6"/>
+      <x:c r="K32" s="6"/>
+      <x:c r="L32" s="6"/>
+      <x:c r="M32" s="6"/>
+    </x:row>
+    <x:row r="33" spans="1:13">
+      <x:c r="A33" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45472</x:v>
+      </x:c>
+      <x:c r="B33" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45472</x:v>
+      </x:c>
+      <x:c r="C33" s="6"/>
+      <x:c r="D33" s="6"/>
+      <x:c r="E33" s="6"/>
+      <x:c r="F33" s="6"/>
+      <x:c r="G33" s="6"/>
+      <x:c r="H33" s="6"/>
+      <x:c r="I33" s="6"/>
+      <x:c r="J33" s="6"/>
+      <x:c r="K33" s="6"/>
+      <x:c r="L33" s="6"/>
+      <x:c r="M33" s="6"/>
+    </x:row>
+    <x:row r="34" spans="1:13">
+      <x:c r="A34" s="3">
+        <x:f t="shared" si="1"/>
+        <x:v>45473</x:v>
+      </x:c>
+      <x:c r="B34" s="35">
+        <x:f t="shared" si="0"/>
+        <x:v>45473</x:v>
+      </x:c>
+      <x:c r="C34" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D34" s="6"/>
+      <x:c r="E34" s="6"/>
+      <x:c r="F34" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G34" s="6"/>
+      <x:c r="H34" s="6"/>
+      <x:c r="I34" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J34" s="6"/>
+      <x:c r="K34" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L34" s="6"/>
+      <x:c r="M34" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:13">
+      <x:c r="A35" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B35" s="35"/>
+      <x:c r="C35" s="2">
+        <x:f>COUNTA(C4:C34)</x:f>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D35" s="2">
+        <x:f t="shared" ref="D35:M35" si="2">COUNTA(D4:D34)</x:f>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="I35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="J35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M35" s="2">
+        <x:f t="shared" si="2"/>
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="C1:M2"/>
+  </x:mergeCells>
+  <x:conditionalFormatting sqref="B4:B34">
+    <x:cfRule type="expression" dxfId="12" priority="4">
+      <x:formula>WEEKDAY($B4)=7</x:formula>
+    </x:cfRule>
+    <x:cfRule type="expression" dxfId="13" priority="3">
+      <x:formula>WEEKDAY($B4)=1</x:formula>
+    </x:cfRule>
+  </x:conditionalFormatting>
+  <x:conditionalFormatting sqref="A4:A34">
+    <x:cfRule type="expression" dxfId="13" priority="2">
+      <x:formula>WEEKDAY($A4)=1</x:formula>
+    </x:cfRule>
+    <x:cfRule type="expression" dxfId="12" priority="1">
+      <x:formula>WEEKDAY($A4)=7</x:formula>
+    </x:cfRule>
+  </x:conditionalFormatting>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B7:J17"/>
@@ -2381,17 +3452,17 @@
   <x:sheetData>
     <x:row r="7" spans="2:10">
       <x:c r="B7" s="22" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="23"/>
       <x:c r="D7" s="23"/>
       <x:c r="E7" s="22" t="s">
-        <x:v>26</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="23"/>
       <x:c r="G7" s="26"/>
       <x:c r="H7" s="23" t="s">
-        <x:v>28</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I7" s="23"/>
       <x:c r="J7" s="26"/>
@@ -2409,7 +3480,7 @@
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:v>3</x:v>
@@ -2418,7 +3489,7 @@
         <x:v>126000</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F9" s="7">
         <x:v>2</x:v>
@@ -2428,7 +3499,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I9" s="7">
         <x:v>7</x:v>
@@ -2439,7 +3510,7 @@
     </x:row>
     <x:row r="10" spans="2:10">
       <x:c r="B10" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>1</x:v>
@@ -2450,7 +3521,7 @@
       <x:c r="E10" s="9"/>
       <x:c r="G10" s="10"/>
       <x:c r="H10" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I10" s="7">
         <x:v>13</x:v>
@@ -2461,7 +3532,7 @@
     </x:row>
     <x:row r="11" spans="2:10">
       <x:c r="B11" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="7">
         <x:v>6</x:v>
@@ -2472,7 +3543,7 @@
       <x:c r="E11" s="9"/>
       <x:c r="G11" s="11"/>
       <x:c r="H11" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I11" s="7">
         <x:v>4</x:v>
@@ -2501,15 +3572,15 @@
     <x:row r="13" spans="2:10">
       <x:c r="B13" s="9"/>
       <x:c r="C13" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
       <x:c r="I13" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J13" s="11"/>
     </x:row>
@@ -2539,7 +3610,7 @@
     </x:row>
     <x:row r="16" spans="2:10" ht="13.949999999999999">
       <x:c r="B16" s="28" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C16" s="29"/>
       <x:c r="D16" s="29"/>
@@ -2552,7 +3623,7 @@
     </x:row>
     <x:row r="17" spans="2:10" ht="13.949999999999999" customHeight="1">
       <x:c r="B17" s="30" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="31"/>
       <x:c r="D17" s="31"/>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -19,15 +19,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="31">
   <x:si>
     <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
   </x:si>
   <x:si>
-    <x:t>총 참여 횟수</x:t>
+    <x:t>김아영</x:t>
   </x:si>
   <x:si>
-    <x:t>술 먹은 사람</x:t>
+    <x:t>소주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남현우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뼈추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김소원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볶음밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감자탕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현준수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
   </x:si>
   <x:si>
     <x:t>술 안먹은사람(기본+음료수)</x:t>
@@ -45,73 +108,10 @@
     <x:t>술 안먹은사람 2명</x:t>
   </x:si>
   <x:si>
-    <x:t>요일</x:t>
+    <x:t>술 먹은 사람</x:t>
   </x:si>
   <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박규태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맥주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감자탕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볶음밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김소원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뼈추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정근승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총인원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이제섭</x:t>
+    <x:t>총 참여 횟수</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -322,16 +322,16 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left>
+      <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
       <x:right>
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -339,7 +339,7 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
@@ -350,16 +350,16 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -677,6 +677,58 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -684,6 +736,32 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -703,32 +781,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -879,58 +931,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1613,106 +1613,105 @@
   <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E26" activeCellId="0" sqref="E26:E26"/>
+      <x:selection activeCell="L19" activeCellId="0" sqref="L19:L19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9.5625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="4.2734375" style="32" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="4.2734375" style="16" bestFit="1" customWidth="1"/>
     <x:col min="3" max="4" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="5" max="8" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="9" max="9" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="10" max="10" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="11" max="11" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="12" max="13" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="14" max="16383" width="8.88671875" style="1"/>
-    <x:col min="16384" max="16384" width="8.88671875" style="1"/>
+    <x:col min="14" max="16384" width="8.88671875" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B1" s="33"/>
-      <x:c r="C1" s="16" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-      <x:c r="K1" s="17"/>
-      <x:c r="L1" s="17"/>
-      <x:c r="M1" s="18"/>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="20" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+      <x:c r="K1" s="21"/>
+      <x:c r="L1" s="21"/>
+      <x:c r="M1" s="22"/>
     </x:row>
     <x:row r="2" spans="1:13" customHeight="1">
       <x:c r="A2" s="2">
         <x:f>COUNTA(C3:M3)</x:f>
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B2" s="34"/>
-      <x:c r="C2" s="19"/>
-      <x:c r="D2" s="20"/>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
-      <x:c r="G2" s="20"/>
-      <x:c r="H2" s="20"/>
-      <x:c r="I2" s="20"/>
-      <x:c r="J2" s="20"/>
-      <x:c r="K2" s="20"/>
-      <x:c r="L2" s="20"/>
-      <x:c r="M2" s="21"/>
+      <x:c r="B2" s="18"/>
+      <x:c r="C2" s="23"/>
+      <x:c r="D2" s="24"/>
+      <x:c r="E2" s="24"/>
+      <x:c r="F2" s="24"/>
+      <x:c r="G2" s="24"/>
+      <x:c r="H2" s="24"/>
+      <x:c r="I2" s="24"/>
+      <x:c r="J2" s="24"/>
+      <x:c r="K2" s="24"/>
+      <x:c r="L2" s="24"/>
+      <x:c r="M2" s="25"/>
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="35" t="s">
+      <x:c r="B3" s="19" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="J3" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
+      <x:c r="L3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="M3" s="2" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="3">
         <x:v>45474</x:v>
       </x:c>
-      <x:c r="B4" s="35">
+      <x:c r="B4" s="19">
         <x:f>A4</x:f>
         <x:v>45474</x:v>
       </x:c>
@@ -1733,19 +1732,23 @@
         <x:f>A4+1</x:f>
         <x:v>45475</x:v>
       </x:c>
-      <x:c r="B5" s="35">
+      <x:c r="B5" s="19">
         <x:f t="shared" ref="B5:B34" si="0">A5</x:f>
         <x:v>45475</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
-      <x:c r="F5" s="6"/>
+      <x:c r="F5" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="G5" s="6"/>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
       <x:c r="J5" s="6"/>
-      <x:c r="K5" s="6"/>
+      <x:c r="K5" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="L5" s="6"/>
       <x:c r="M5" s="6"/>
     </x:row>
@@ -1754,7 +1757,7 @@
         <x:f t="shared" ref="A6:A34" si="1">A5+1</x:f>
         <x:v>45476</x:v>
       </x:c>
-      <x:c r="B6" s="35">
+      <x:c r="B6" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45476</x:v>
       </x:c>
@@ -1775,28 +1778,36 @@
         <x:f t="shared" si="1"/>
         <x:v>45477</x:v>
       </x:c>
-      <x:c r="B7" s="35">
+      <x:c r="B7" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45477</x:v>
       </x:c>
       <x:c r="C7" s="6"/>
       <x:c r="D7" s="6"/>
-      <x:c r="E7" s="6"/>
-      <x:c r="F7" s="6"/>
+      <x:c r="E7" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6"/>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="6"/>
       <x:c r="K7" s="6"/>
-      <x:c r="L7" s="6"/>
-      <x:c r="M7" s="6"/>
+      <x:c r="L7" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M7" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="3">
         <x:f t="shared" si="1"/>
         <x:v>45478</x:v>
       </x:c>
-      <x:c r="B8" s="35">
+      <x:c r="B8" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45478</x:v>
       </x:c>
@@ -1817,16 +1828,20 @@
         <x:f t="shared" si="1"/>
         <x:v>45479</x:v>
       </x:c>
-      <x:c r="B9" s="35">
+      <x:c r="B9" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45479</x:v>
       </x:c>
-      <x:c r="C9" s="6"/>
+      <x:c r="C9" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="D9" s="6"/>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6"/>
-      <x:c r="H9" s="6"/>
+      <x:c r="H9" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="6"/>
       <x:c r="K9" s="6"/>
@@ -1838,28 +1853,40 @@
         <x:f t="shared" si="1"/>
         <x:v>45480</x:v>
       </x:c>
-      <x:c r="B10" s="35">
+      <x:c r="B10" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45480</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="6"/>
-      <x:c r="E10" s="6"/>
-      <x:c r="F10" s="6"/>
+      <x:c r="E10" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="G10" s="6"/>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
-      <x:c r="J10" s="6"/>
-      <x:c r="K10" s="6"/>
-      <x:c r="L10" s="6"/>
-      <x:c r="M10" s="6"/>
+      <x:c r="J10" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K10" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L10" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M10" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:13">
       <x:c r="A11" s="3">
         <x:f t="shared" si="1"/>
         <x:v>45481</x:v>
       </x:c>
-      <x:c r="B11" s="35">
+      <x:c r="B11" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45481</x:v>
       </x:c>
@@ -1880,7 +1907,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45482</x:v>
       </x:c>
-      <x:c r="B12" s="35">
+      <x:c r="B12" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45482</x:v>
       </x:c>
@@ -1901,7 +1928,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45483</x:v>
       </x:c>
-      <x:c r="B13" s="35">
+      <x:c r="B13" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45483</x:v>
       </x:c>
@@ -1922,7 +1949,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45484</x:v>
       </x:c>
-      <x:c r="B14" s="35">
+      <x:c r="B14" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45484</x:v>
       </x:c>
@@ -1943,7 +1970,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45485</x:v>
       </x:c>
-      <x:c r="B15" s="35">
+      <x:c r="B15" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45485</x:v>
       </x:c>
@@ -1964,7 +1991,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45486</x:v>
       </x:c>
-      <x:c r="B16" s="35">
+      <x:c r="B16" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45486</x:v>
       </x:c>
@@ -1985,7 +2012,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45487</x:v>
       </x:c>
-      <x:c r="B17" s="35">
+      <x:c r="B17" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45487</x:v>
       </x:c>
@@ -2006,7 +2033,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45488</x:v>
       </x:c>
-      <x:c r="B18" s="35">
+      <x:c r="B18" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45488</x:v>
       </x:c>
@@ -2027,7 +2054,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45489</x:v>
       </x:c>
-      <x:c r="B19" s="35">
+      <x:c r="B19" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45489</x:v>
       </x:c>
@@ -2048,7 +2075,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45490</x:v>
       </x:c>
-      <x:c r="B20" s="35">
+      <x:c r="B20" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45490</x:v>
       </x:c>
@@ -2069,7 +2096,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45491</x:v>
       </x:c>
-      <x:c r="B21" s="35">
+      <x:c r="B21" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45491</x:v>
       </x:c>
@@ -2090,7 +2117,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45492</x:v>
       </x:c>
-      <x:c r="B22" s="35">
+      <x:c r="B22" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45492</x:v>
       </x:c>
@@ -2111,7 +2138,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45493</x:v>
       </x:c>
-      <x:c r="B23" s="35">
+      <x:c r="B23" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45493</x:v>
       </x:c>
@@ -2132,7 +2159,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45494</x:v>
       </x:c>
-      <x:c r="B24" s="35">
+      <x:c r="B24" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45494</x:v>
       </x:c>
@@ -2153,7 +2180,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45495</x:v>
       </x:c>
-      <x:c r="B25" s="35">
+      <x:c r="B25" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45495</x:v>
       </x:c>
@@ -2174,7 +2201,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45496</x:v>
       </x:c>
-      <x:c r="B26" s="35">
+      <x:c r="B26" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45496</x:v>
       </x:c>
@@ -2195,7 +2222,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45497</x:v>
       </x:c>
-      <x:c r="B27" s="35">
+      <x:c r="B27" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45497</x:v>
       </x:c>
@@ -2216,7 +2243,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45498</x:v>
       </x:c>
-      <x:c r="B28" s="35">
+      <x:c r="B28" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45498</x:v>
       </x:c>
@@ -2237,7 +2264,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45499</x:v>
       </x:c>
-      <x:c r="B29" s="35">
+      <x:c r="B29" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45499</x:v>
       </x:c>
@@ -2258,7 +2285,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45500</x:v>
       </x:c>
-      <x:c r="B30" s="35">
+      <x:c r="B30" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45500</x:v>
       </x:c>
@@ -2279,7 +2306,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45501</x:v>
       </x:c>
-      <x:c r="B31" s="35">
+      <x:c r="B31" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45501</x:v>
       </x:c>
@@ -2300,7 +2327,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45502</x:v>
       </x:c>
-      <x:c r="B32" s="35">
+      <x:c r="B32" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45502</x:v>
       </x:c>
@@ -2321,7 +2348,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45503</x:v>
       </x:c>
-      <x:c r="B33" s="35">
+      <x:c r="B33" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45503</x:v>
       </x:c>
@@ -2342,7 +2369,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45504</x:v>
       </x:c>
-      <x:c r="B34" s="35">
+      <x:c r="B34" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45504</x:v>
       </x:c>
@@ -2360,12 +2387,12 @@
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B35" s="35"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B35" s="19"/>
       <x:c r="C35" s="2">
         <x:f>COUNTA(C4:C34)</x:f>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" ref="D35:M35" si="2">COUNTA(D4:D34)</x:f>
@@ -2373,11 +2400,11 @@
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="2"/>
@@ -2385,7 +2412,7 @@
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="2">
         <x:f t="shared" si="2"/>
@@ -2393,19 +2420,19 @@
       </x:c>
       <x:c r="J35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2439,115 +2466,114 @@
   <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H16" activeCellId="0" sqref="H16:H16"/>
+      <x:selection activeCell="F15" activeCellId="0" sqref="F15:F15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9.5625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="4.2734375" style="32" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="4.2734375" style="16" bestFit="1" customWidth="1"/>
     <x:col min="3" max="4" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="5" max="8" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="9" max="9" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="10" max="10" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="11" max="11" width="5.9921875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="12" max="13" width="5.8046875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="14" max="16383" width="8.88671875" style="1"/>
-    <x:col min="16384" max="16384" width="8.88671875" style="1"/>
+    <x:col min="14" max="16384" width="8.88671875" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B1" s="33"/>
-      <x:c r="C1" s="16" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="17"/>
-      <x:c r="F1" s="17"/>
-      <x:c r="G1" s="17"/>
-      <x:c r="H1" s="17"/>
-      <x:c r="I1" s="17"/>
-      <x:c r="J1" s="17"/>
-      <x:c r="K1" s="17"/>
-      <x:c r="L1" s="17"/>
-      <x:c r="M1" s="18"/>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B1" s="17"/>
+      <x:c r="C1" s="20" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D1" s="21"/>
+      <x:c r="E1" s="21"/>
+      <x:c r="F1" s="21"/>
+      <x:c r="G1" s="21"/>
+      <x:c r="H1" s="21"/>
+      <x:c r="I1" s="21"/>
+      <x:c r="J1" s="21"/>
+      <x:c r="K1" s="21"/>
+      <x:c r="L1" s="21"/>
+      <x:c r="M1" s="22"/>
     </x:row>
     <x:row r="2" spans="1:13" customHeight="1">
       <x:c r="A2" s="2">
         <x:f>COUNTA(C3:M3)</x:f>
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B2" s="34"/>
-      <x:c r="C2" s="19"/>
-      <x:c r="D2" s="20"/>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
-      <x:c r="G2" s="20"/>
-      <x:c r="H2" s="20"/>
-      <x:c r="I2" s="20"/>
-      <x:c r="J2" s="20"/>
-      <x:c r="K2" s="20"/>
-      <x:c r="L2" s="20"/>
-      <x:c r="M2" s="21"/>
+      <x:c r="B2" s="18"/>
+      <x:c r="C2" s="23"/>
+      <x:c r="D2" s="24"/>
+      <x:c r="E2" s="24"/>
+      <x:c r="F2" s="24"/>
+      <x:c r="G2" s="24"/>
+      <x:c r="H2" s="24"/>
+      <x:c r="I2" s="24"/>
+      <x:c r="J2" s="24"/>
+      <x:c r="K2" s="24"/>
+      <x:c r="L2" s="24"/>
+      <x:c r="M2" s="25"/>
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="35" t="s">
+      <x:c r="B3" s="19" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="J3" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
+      <x:c r="L3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="M3" s="2" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="3">
         <x:v>45443</x:v>
       </x:c>
-      <x:c r="B4" s="35">
+      <x:c r="B4" s="19">
         <x:f>A4</x:f>
         <x:v>45443</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="6"/>
       <x:c r="G4" s="6"/>
@@ -2563,19 +2589,19 @@
         <x:f>A4+1</x:f>
         <x:v>45444</x:v>
       </x:c>
-      <x:c r="B5" s="35">
+      <x:c r="B5" s="19">
         <x:f t="shared" ref="B5:B34" si="0">A5</x:f>
         <x:v>45444</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="6"/>
       <x:c r="H5" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I5" s="6"/>
       <x:c r="J5" s="6"/>
@@ -2588,14 +2614,14 @@
         <x:f t="shared" ref="A6:A34" si="1">A5+1</x:f>
         <x:v>45445</x:v>
       </x:c>
-      <x:c r="B6" s="35">
+      <x:c r="B6" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45445</x:v>
       </x:c>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="6"/>
       <x:c r="E6" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6"/>
@@ -2611,7 +2637,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45446</x:v>
       </x:c>
-      <x:c r="B7" s="35">
+      <x:c r="B7" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45446</x:v>
       </x:c>
@@ -2632,24 +2658,24 @@
         <x:f t="shared" si="1"/>
         <x:v>45447</x:v>
       </x:c>
-      <x:c r="B8" s="35">
+      <x:c r="B8" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45447</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="6"/>
       <x:c r="K8" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L8" s="6"/>
       <x:c r="M8" s="6"/>
@@ -2659,7 +2685,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45448</x:v>
       </x:c>
-      <x:c r="B9" s="35">
+      <x:c r="B9" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45448</x:v>
       </x:c>
@@ -2680,32 +2706,32 @@
         <x:f t="shared" si="1"/>
         <x:v>45449</x:v>
       </x:c>
-      <x:c r="B10" s="35">
+      <x:c r="B10" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45449</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D10" s="6"/>
       <x:c r="E10" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G10" s="6"/>
       <x:c r="H10" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="6"/>
       <x:c r="L10" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M10" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:13">
@@ -2713,19 +2739,19 @@
         <x:f t="shared" si="1"/>
         <x:v>45450</x:v>
       </x:c>
-      <x:c r="B11" s="35">
+      <x:c r="B11" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45450</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I11" s="6"/>
       <x:c r="J11" s="6"/>
@@ -2738,7 +2764,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45451</x:v>
       </x:c>
-      <x:c r="B12" s="35">
+      <x:c r="B12" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45451</x:v>
       </x:c>
@@ -2747,18 +2773,18 @@
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I12" s="6"/>
       <x:c r="J12" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K12" s="6"/>
       <x:c r="L12" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M12" s="6"/>
     </x:row>
@@ -2767,34 +2793,34 @@
         <x:f t="shared" si="1"/>
         <x:v>45452</x:v>
       </x:c>
-      <x:c r="B13" s="35">
+      <x:c r="B13" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45452</x:v>
       </x:c>
       <x:c r="C13" s="6"/>
       <x:c r="D13" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G13" s="6"/>
       <x:c r="H13" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I13" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J13" s="6"/>
       <x:c r="K13" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L13" s="6"/>
       <x:c r="M13" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:13">
@@ -2802,7 +2828,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45453</x:v>
       </x:c>
-      <x:c r="B14" s="35">
+      <x:c r="B14" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45453</x:v>
       </x:c>
@@ -2810,7 +2836,7 @@
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="6"/>
       <x:c r="F14" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G14" s="6"/>
       <x:c r="H14" s="6"/>
@@ -2825,36 +2851,36 @@
         <x:f t="shared" si="1"/>
         <x:v>45454</x:v>
       </x:c>
-      <x:c r="B15" s="35">
+      <x:c r="B15" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45454</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D15" s="6"/>
       <x:c r="E15" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F15" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G15" s="6"/>
       <x:c r="H15" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I15" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J15" s="6"/>
       <x:c r="K15" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L15" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M15" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:13">
@@ -2862,31 +2888,31 @@
         <x:f t="shared" si="1"/>
         <x:v>45455</x:v>
       </x:c>
-      <x:c r="B16" s="35">
+      <x:c r="B16" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45455</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="6"/>
       <x:c r="F16" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="6"/>
       <x:c r="I16" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L16" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M16" s="6"/>
     </x:row>
@@ -2895,7 +2921,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45456</x:v>
       </x:c>
-      <x:c r="B17" s="35">
+      <x:c r="B17" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45456</x:v>
       </x:c>
@@ -2916,7 +2942,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45457</x:v>
       </x:c>
-      <x:c r="B18" s="35">
+      <x:c r="B18" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45457</x:v>
       </x:c>
@@ -2937,26 +2963,26 @@
         <x:f t="shared" si="1"/>
         <x:v>45458</x:v>
       </x:c>
-      <x:c r="B19" s="35">
+      <x:c r="B19" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45458</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D19" s="6"/>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="6"/>
       <x:c r="G19" s="6"/>
       <x:c r="H19" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I19" s="6"/>
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="6"/>
       <x:c r="M19" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:13">
@@ -2964,30 +2990,30 @@
         <x:f t="shared" si="1"/>
         <x:v>45459</x:v>
       </x:c>
-      <x:c r="B20" s="35">
+      <x:c r="B20" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45459</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="6"/>
       <x:c r="E20" s="6"/>
       <x:c r="F20" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G20" s="6"/>
       <x:c r="H20" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I20" s="6"/>
       <x:c r="J20" s="6"/>
       <x:c r="K20" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L20" s="6"/>
       <x:c r="M20" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:13">
@@ -2995,12 +3021,12 @@
         <x:f t="shared" si="1"/>
         <x:v>45460</x:v>
       </x:c>
-      <x:c r="B21" s="35">
+      <x:c r="B21" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45460</x:v>
       </x:c>
       <x:c r="C21" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D21" s="6"/>
       <x:c r="E21" s="6"/>
@@ -3009,7 +3035,7 @@
       <x:c r="H21" s="6"/>
       <x:c r="I21" s="6"/>
       <x:c r="J21" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K21" s="6"/>
       <x:c r="L21" s="6"/>
@@ -3020,19 +3046,19 @@
         <x:f t="shared" si="1"/>
         <x:v>45461</x:v>
       </x:c>
-      <x:c r="B22" s="35">
+      <x:c r="B22" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45461</x:v>
       </x:c>
       <x:c r="C22" s="6"/>
       <x:c r="D22" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F22" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G22" s="6"/>
       <x:c r="H22" s="6"/>
@@ -3047,7 +3073,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45462</x:v>
       </x:c>
-      <x:c r="B23" s="35">
+      <x:c r="B23" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45462</x:v>
       </x:c>
@@ -3055,14 +3081,14 @@
       <x:c r="D23" s="6"/>
       <x:c r="E23" s="6"/>
       <x:c r="F23" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G23" s="6"/>
       <x:c r="H23" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I23" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J23" s="6"/>
       <x:c r="K23" s="6"/>
@@ -3074,13 +3100,13 @@
         <x:f t="shared" si="1"/>
         <x:v>45463</x:v>
       </x:c>
-      <x:c r="B24" s="35">
+      <x:c r="B24" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45463</x:v>
       </x:c>
       <x:c r="C24" s="6"/>
       <x:c r="D24" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E24" s="6"/>
       <x:c r="F24" s="6"/>
@@ -3090,7 +3116,7 @@
       <x:c r="J24" s="6"/>
       <x:c r="K24" s="6"/>
       <x:c r="L24" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M24" s="6"/>
     </x:row>
@@ -3099,7 +3125,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45464</x:v>
       </x:c>
-      <x:c r="B25" s="35">
+      <x:c r="B25" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45464</x:v>
       </x:c>
@@ -3107,7 +3133,7 @@
       <x:c r="D25" s="6"/>
       <x:c r="E25" s="6"/>
       <x:c r="F25" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G25" s="6"/>
       <x:c r="H25" s="6"/>
@@ -3122,7 +3148,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45465</x:v>
       </x:c>
-      <x:c r="B26" s="35">
+      <x:c r="B26" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45465</x:v>
       </x:c>
@@ -3132,14 +3158,14 @@
       <x:c r="F26" s="6"/>
       <x:c r="G26" s="6"/>
       <x:c r="H26" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I26" s="6"/>
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
       <x:c r="L26" s="6"/>
       <x:c r="M26" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:13">
@@ -3147,14 +3173,14 @@
         <x:f t="shared" si="1"/>
         <x:v>45466</x:v>
       </x:c>
-      <x:c r="B27" s="35">
+      <x:c r="B27" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45466</x:v>
       </x:c>
       <x:c r="C27" s="6"/>
       <x:c r="D27" s="6"/>
       <x:c r="E27" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F27" s="6"/>
       <x:c r="G27" s="6"/>
@@ -3162,11 +3188,11 @@
       <x:c r="I27" s="6"/>
       <x:c r="J27" s="6"/>
       <x:c r="K27" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L27" s="6"/>
       <x:c r="M27" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:13">
@@ -3174,7 +3200,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45467</x:v>
       </x:c>
-      <x:c r="B28" s="35">
+      <x:c r="B28" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45467</x:v>
       </x:c>
@@ -3182,11 +3208,11 @@
       <x:c r="D28" s="6"/>
       <x:c r="E28" s="6"/>
       <x:c r="F28" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G28" s="6"/>
       <x:c r="H28" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I28" s="6"/>
       <x:c r="J28" s="6"/>
@@ -3199,26 +3225,26 @@
         <x:f t="shared" si="1"/>
         <x:v>45468</x:v>
       </x:c>
-      <x:c r="B29" s="35">
+      <x:c r="B29" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45468</x:v>
       </x:c>
       <x:c r="C29" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D29" s="6"/>
       <x:c r="E29" s="6"/>
       <x:c r="F29" s="6"/>
       <x:c r="G29" s="6"/>
       <x:c r="H29" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I29" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J29" s="6"/>
       <x:c r="K29" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L29" s="6"/>
       <x:c r="M29" s="6"/>
@@ -3228,13 +3254,13 @@
         <x:f t="shared" si="1"/>
         <x:v>45469</x:v>
       </x:c>
-      <x:c r="B30" s="35">
+      <x:c r="B30" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45469</x:v>
       </x:c>
       <x:c r="C30" s="6"/>
       <x:c r="D30" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E30" s="6"/>
       <x:c r="F30" s="6"/>
@@ -3243,11 +3269,11 @@
       <x:c r="I30" s="6"/>
       <x:c r="J30" s="6"/>
       <x:c r="K30" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L30" s="6"/>
       <x:c r="M30" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:13">
@@ -3255,30 +3281,30 @@
         <x:f t="shared" si="1"/>
         <x:v>45470</x:v>
       </x:c>
-      <x:c r="B31" s="35">
+      <x:c r="B31" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45470</x:v>
       </x:c>
       <x:c r="C31" s="6"/>
       <x:c r="D31" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E31" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F31" s="6"/>
       <x:c r="G31" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H31" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I31" s="6"/>
       <x:c r="J31" s="6"/>
       <x:c r="K31" s="6"/>
       <x:c r="L31" s="6"/>
       <x:c r="M31" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:13">
@@ -3286,7 +3312,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45471</x:v>
       </x:c>
-      <x:c r="B32" s="35">
+      <x:c r="B32" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45471</x:v>
       </x:c>
@@ -3307,7 +3333,7 @@
         <x:f t="shared" si="1"/>
         <x:v>45472</x:v>
       </x:c>
-      <x:c r="B33" s="35">
+      <x:c r="B33" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45472</x:v>
       </x:c>
@@ -3328,37 +3354,37 @@
         <x:f t="shared" si="1"/>
         <x:v>45473</x:v>
       </x:c>
-      <x:c r="B34" s="35">
+      <x:c r="B34" s="19">
         <x:f t="shared" si="0"/>
         <x:v>45473</x:v>
       </x:c>
       <x:c r="C34" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D34" s="6"/>
       <x:c r="E34" s="6"/>
       <x:c r="F34" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G34" s="6"/>
       <x:c r="H34" s="6"/>
       <x:c r="I34" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J34" s="6"/>
       <x:c r="K34" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L34" s="6"/>
       <x:c r="M34" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B35" s="35"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B35" s="19"/>
       <x:c r="C35" s="2">
         <x:f>COUNTA(C4:C34)</x:f>
         <x:v>12</x:v>
@@ -3451,36 +3477,36 @@
   </x:cols>
   <x:sheetData>
     <x:row r="7" spans="2:10">
-      <x:c r="B7" s="22" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C7" s="23"/>
-      <x:c r="D7" s="23"/>
-      <x:c r="E7" s="22" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F7" s="23"/>
-      <x:c r="G7" s="26"/>
-      <x:c r="H7" s="23" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I7" s="23"/>
-      <x:c r="J7" s="26"/>
+      <x:c r="B7" s="26" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" s="27"/>
+      <x:c r="D7" s="27"/>
+      <x:c r="E7" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F7" s="27"/>
+      <x:c r="G7" s="30"/>
+      <x:c r="H7" s="27" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I7" s="27"/>
+      <x:c r="J7" s="30"/>
     </x:row>
     <x:row r="8" spans="2:10">
-      <x:c r="B8" s="24"/>
-      <x:c r="C8" s="25"/>
-      <x:c r="D8" s="25"/>
-      <x:c r="E8" s="24"/>
-      <x:c r="F8" s="25"/>
-      <x:c r="G8" s="27"/>
-      <x:c r="H8" s="25"/>
-      <x:c r="I8" s="25"/>
-      <x:c r="J8" s="27"/>
+      <x:c r="B8" s="28"/>
+      <x:c r="C8" s="29"/>
+      <x:c r="D8" s="29"/>
+      <x:c r="E8" s="28"/>
+      <x:c r="F8" s="29"/>
+      <x:c r="G8" s="31"/>
+      <x:c r="H8" s="29"/>
+      <x:c r="I8" s="29"/>
+      <x:c r="J8" s="31"/>
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:v>3</x:v>
@@ -3489,7 +3515,7 @@
         <x:v>126000</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="7">
         <x:v>2</x:v>
@@ -3499,7 +3525,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I9" s="7">
         <x:v>7</x:v>
@@ -3510,7 +3536,7 @@
     </x:row>
     <x:row r="10" spans="2:10">
       <x:c r="B10" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>1</x:v>
@@ -3521,7 +3547,7 @@
       <x:c r="E10" s="9"/>
       <x:c r="G10" s="10"/>
       <x:c r="H10" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I10" s="7">
         <x:v>13</x:v>
@@ -3532,7 +3558,7 @@
     </x:row>
     <x:row r="11" spans="2:10">
       <x:c r="B11" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C11" s="7">
         <x:v>6</x:v>
@@ -3543,7 +3569,7 @@
       <x:c r="E11" s="9"/>
       <x:c r="G11" s="11"/>
       <x:c r="H11" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I11" s="7">
         <x:v>4</x:v>
@@ -3572,15 +3598,15 @@
     <x:row r="13" spans="2:10">
       <x:c r="B13" s="9"/>
       <x:c r="C13" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
       <x:c r="I13" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J13" s="11"/>
     </x:row>
@@ -3609,11 +3635,11 @@
       <x:c r="J15" s="11"/>
     </x:row>
     <x:row r="16" spans="2:10" ht="13.949999999999999">
-      <x:c r="B16" s="28" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C16" s="29"/>
-      <x:c r="D16" s="29"/>
+      <x:c r="B16" s="32" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C16" s="33"/>
+      <x:c r="D16" s="33"/>
       <x:c r="E16" s="14">
         <x:f>C14+F14</x:f>
         <x:v>16800</x:v>
@@ -3622,11 +3648,11 @@
       <x:c r="J16" s="11"/>
     </x:row>
     <x:row r="17" spans="2:10" ht="13.949999999999999" customHeight="1">
-      <x:c r="B17" s="30" t="s">
+      <x:c r="B17" s="34" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C17" s="31"/>
-      <x:c r="D17" s="31"/>
+      <x:c r="C17" s="35"/>
+      <x:c r="D17" s="35"/>
       <x:c r="E17" s="15">
         <x:f>C14+I14</x:f>
         <x:v>26675</x:v>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.10187"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="7월" sheetId="1" r:id="rId4"/>
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="31">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
   <x:si>
-    <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
+    <x:t>기본</x:t>
   </x:si>
   <x:si>
     <x:t>김아영</x:t>
@@ -30,16 +30,46 @@
     <x:t>소주</x:t>
   </x:si>
   <x:si>
-    <x:t>기본</x:t>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뼈추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감자탕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볶음밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥주</x:t>
   </x:si>
   <x:si>
     <x:t>정근승</x:t>
   </x:si>
   <x:si>
-    <x:t>남현우</x:t>
+    <x:t>현준수</x:t>
   </x:si>
   <x:si>
-    <x:t>뼈추가</x:t>
+    <x:t>김소원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
   </x:si>
   <x:si>
     <x:t>이름</x:t>
@@ -48,49 +78,22 @@
     <x:t>박규태</x:t>
   </x:si>
   <x:si>
-    <x:t>김소원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볶음밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맥주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감자탕</x:t>
-  </x:si>
-  <x:si>
     <x:t>총인원</x:t>
   </x:si>
   <x:si>
-    <x:t>현준수</x:t>
+    <x:t>이정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남현우</x:t>
   </x:si>
   <x:si>
     <x:t>음료수</x:t>
   </x:si>
   <x:si>
-    <x:t>o</x:t>
+    <x:t>술 먹은 사람</x:t>
   </x:si>
   <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이제섭</x:t>
+    <x:t>총 참여 횟수</x:t>
   </x:si>
   <x:si>
     <x:t>술 안먹은사람(기본+음료수)</x:t>
@@ -99,19 +102,16 @@
     <x:t>술 안먹은 사람</x:t>
   </x:si>
   <x:si>
-    <x:t>총 인원 10명</x:t>
+    <x:t>술 안먹은사람 2명</x:t>
   </x:si>
   <x:si>
     <x:t>술 먹은사람 8명</x:t>
   </x:si>
   <x:si>
-    <x:t>술 안먹은사람 2명</x:t>
+    <x:t>총 인원 10명</x:t>
   </x:si>
   <x:si>
-    <x:t>술 먹은 사람</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 참여 횟수</x:t>
+    <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1613,7 +1613,7 @@
   <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L19" activeCellId="0" sqref="L19:L19"/>
+      <x:selection activeCell="B14" activeCellId="0" sqref="B14:B14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1631,11 +1631,11 @@
   <x:sheetData>
     <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="20" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D1" s="21"/>
       <x:c r="E1" s="21"/>
@@ -1668,43 +1668,43 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="19" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -1740,14 +1740,14 @@
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G5" s="6"/>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
       <x:c r="J5" s="6"/>
       <x:c r="K5" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L5" s="6"/>
       <x:c r="M5" s="6"/>
@@ -1785,10 +1785,10 @@
       <x:c r="C7" s="6"/>
       <x:c r="D7" s="6"/>
       <x:c r="E7" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6"/>
@@ -1796,10 +1796,10 @@
       <x:c r="J7" s="6"/>
       <x:c r="K7" s="6"/>
       <x:c r="L7" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M7" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:13">
@@ -1833,14 +1833,14 @@
         <x:v>45479</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D9" s="6"/>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="6"/>
@@ -1860,25 +1860,25 @@
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="6"/>
       <x:c r="E10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G10" s="6"/>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:13">
@@ -1893,7 +1893,9 @@
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
-      <x:c r="F11" s="6"/>
+      <x:c r="F11" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6"/>
@@ -1916,12 +1918,18 @@
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="6"/>
-      <x:c r="H12" s="6"/>
+      <x:c r="H12" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="I12" s="6"/>
       <x:c r="J12" s="6"/>
-      <x:c r="K12" s="6"/>
+      <x:c r="K12" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="L12" s="6"/>
-      <x:c r="M12" s="6"/>
+      <x:c r="M12" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:13">
       <x:c r="A13" s="3">
@@ -1956,7 +1964,9 @@
       <x:c r="C14" s="6"/>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="6"/>
-      <x:c r="F14" s="6"/>
+      <x:c r="F14" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="G14" s="6"/>
       <x:c r="H14" s="6"/>
       <x:c r="I14" s="6"/>
@@ -2387,7 +2397,7 @@
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B35" s="19"/>
       <x:c r="C35" s="2">
@@ -2404,7 +2414,7 @@
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="2"/>
@@ -2412,7 +2422,7 @@
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I35" s="2">
         <x:f t="shared" si="2"/>
@@ -2424,7 +2434,7 @@
       </x:c>
       <x:c r="K35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="2"/>
@@ -2432,7 +2442,7 @@
       </x:c>
       <x:c r="M35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2484,11 +2494,11 @@
   <x:sheetData>
     <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="20" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D1" s="21"/>
       <x:c r="E1" s="21"/>
@@ -2521,43 +2531,43 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="19" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -2569,11 +2579,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F4" s="6"/>
       <x:c r="G4" s="6"/>
@@ -2594,14 +2604,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="6"/>
       <x:c r="H5" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I5" s="6"/>
       <x:c r="J5" s="6"/>
@@ -2621,7 +2631,7 @@
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="6"/>
       <x:c r="E6" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6"/>
@@ -2663,19 +2673,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="6"/>
       <x:c r="K8" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L8" s="6"/>
       <x:c r="M8" s="6"/>
@@ -2711,27 +2721,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D10" s="6"/>
       <x:c r="E10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G10" s="6"/>
       <x:c r="H10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="6"/>
       <x:c r="L10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:13">
@@ -2744,14 +2754,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I11" s="6"/>
       <x:c r="J11" s="6"/>
@@ -2773,18 +2783,18 @@
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I12" s="6"/>
       <x:c r="J12" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K12" s="6"/>
       <x:c r="L12" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M12" s="6"/>
     </x:row>
@@ -2799,28 +2809,28 @@
       </x:c>
       <x:c r="C13" s="6"/>
       <x:c r="D13" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G13" s="6"/>
       <x:c r="H13" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I13" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J13" s="6"/>
       <x:c r="K13" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L13" s="6"/>
       <x:c r="M13" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:13">
@@ -2836,7 +2846,7 @@
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="6"/>
       <x:c r="F14" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G14" s="6"/>
       <x:c r="H14" s="6"/>
@@ -2856,31 +2866,31 @@
         <x:v>45454</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D15" s="6"/>
       <x:c r="E15" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F15" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G15" s="6"/>
       <x:c r="H15" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I15" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J15" s="6"/>
       <x:c r="K15" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L15" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M15" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:13">
@@ -2893,26 +2903,26 @@
         <x:v>45455</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="6"/>
       <x:c r="F16" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="6"/>
       <x:c r="I16" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L16" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M16" s="6"/>
     </x:row>
@@ -2968,21 +2978,21 @@
         <x:v>45458</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D19" s="6"/>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="6"/>
       <x:c r="G19" s="6"/>
       <x:c r="H19" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I19" s="6"/>
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="6"/>
       <x:c r="M19" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:13">
@@ -2995,25 +3005,25 @@
         <x:v>45459</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D20" s="6"/>
       <x:c r="E20" s="6"/>
       <x:c r="F20" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G20" s="6"/>
       <x:c r="H20" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I20" s="6"/>
       <x:c r="J20" s="6"/>
       <x:c r="K20" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L20" s="6"/>
       <x:c r="M20" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:13">
@@ -3026,7 +3036,7 @@
         <x:v>45460</x:v>
       </x:c>
       <x:c r="C21" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D21" s="6"/>
       <x:c r="E21" s="6"/>
@@ -3035,7 +3045,7 @@
       <x:c r="H21" s="6"/>
       <x:c r="I21" s="6"/>
       <x:c r="J21" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K21" s="6"/>
       <x:c r="L21" s="6"/>
@@ -3052,13 +3062,13 @@
       </x:c>
       <x:c r="C22" s="6"/>
       <x:c r="D22" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F22" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G22" s="6"/>
       <x:c r="H22" s="6"/>
@@ -3081,14 +3091,14 @@
       <x:c r="D23" s="6"/>
       <x:c r="E23" s="6"/>
       <x:c r="F23" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G23" s="6"/>
       <x:c r="H23" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I23" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J23" s="6"/>
       <x:c r="K23" s="6"/>
@@ -3106,7 +3116,7 @@
       </x:c>
       <x:c r="C24" s="6"/>
       <x:c r="D24" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E24" s="6"/>
       <x:c r="F24" s="6"/>
@@ -3116,7 +3126,7 @@
       <x:c r="J24" s="6"/>
       <x:c r="K24" s="6"/>
       <x:c r="L24" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M24" s="6"/>
     </x:row>
@@ -3133,7 +3143,7 @@
       <x:c r="D25" s="6"/>
       <x:c r="E25" s="6"/>
       <x:c r="F25" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G25" s="6"/>
       <x:c r="H25" s="6"/>
@@ -3158,14 +3168,14 @@
       <x:c r="F26" s="6"/>
       <x:c r="G26" s="6"/>
       <x:c r="H26" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I26" s="6"/>
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
       <x:c r="L26" s="6"/>
       <x:c r="M26" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:13">
@@ -3180,7 +3190,7 @@
       <x:c r="C27" s="6"/>
       <x:c r="D27" s="6"/>
       <x:c r="E27" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F27" s="6"/>
       <x:c r="G27" s="6"/>
@@ -3188,11 +3198,11 @@
       <x:c r="I27" s="6"/>
       <x:c r="J27" s="6"/>
       <x:c r="K27" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L27" s="6"/>
       <x:c r="M27" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:13">
@@ -3208,11 +3218,11 @@
       <x:c r="D28" s="6"/>
       <x:c r="E28" s="6"/>
       <x:c r="F28" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G28" s="6"/>
       <x:c r="H28" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I28" s="6"/>
       <x:c r="J28" s="6"/>
@@ -3230,21 +3240,21 @@
         <x:v>45468</x:v>
       </x:c>
       <x:c r="C29" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D29" s="6"/>
       <x:c r="E29" s="6"/>
       <x:c r="F29" s="6"/>
       <x:c r="G29" s="6"/>
       <x:c r="H29" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I29" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J29" s="6"/>
       <x:c r="K29" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L29" s="6"/>
       <x:c r="M29" s="6"/>
@@ -3260,7 +3270,7 @@
       </x:c>
       <x:c r="C30" s="6"/>
       <x:c r="D30" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E30" s="6"/>
       <x:c r="F30" s="6"/>
@@ -3269,11 +3279,11 @@
       <x:c r="I30" s="6"/>
       <x:c r="J30" s="6"/>
       <x:c r="K30" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L30" s="6"/>
       <x:c r="M30" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:13">
@@ -3287,24 +3297,24 @@
       </x:c>
       <x:c r="C31" s="6"/>
       <x:c r="D31" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E31" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F31" s="6"/>
       <x:c r="G31" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H31" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I31" s="6"/>
       <x:c r="J31" s="6"/>
       <x:c r="K31" s="6"/>
       <x:c r="L31" s="6"/>
       <x:c r="M31" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:13">
@@ -3359,30 +3369,30 @@
         <x:v>45473</x:v>
       </x:c>
       <x:c r="C34" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D34" s="6"/>
       <x:c r="E34" s="6"/>
       <x:c r="F34" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G34" s="6"/>
       <x:c r="H34" s="6"/>
       <x:c r="I34" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J34" s="6"/>
       <x:c r="K34" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L34" s="6"/>
       <x:c r="M34" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B35" s="19"/>
       <x:c r="C35" s="2">
@@ -3478,17 +3488,17 @@
   <x:sheetData>
     <x:row r="7" spans="2:10">
       <x:c r="B7" s="26" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="27"/>
       <x:c r="D7" s="27"/>
       <x:c r="E7" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F7" s="27"/>
       <x:c r="G7" s="30"/>
       <x:c r="H7" s="27" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="27"/>
       <x:c r="J7" s="30"/>
@@ -3506,7 +3516,7 @@
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:v>3</x:v>
@@ -3515,7 +3525,7 @@
         <x:v>126000</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F9" s="7">
         <x:v>2</x:v>
@@ -3525,7 +3535,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I9" s="7">
         <x:v>7</x:v>
@@ -3536,7 +3546,7 @@
     </x:row>
     <x:row r="10" spans="2:10">
       <x:c r="B10" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>1</x:v>
@@ -3558,7 +3568,7 @@
     </x:row>
     <x:row r="11" spans="2:10">
       <x:c r="B11" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="7">
         <x:v>6</x:v>
@@ -3569,7 +3579,7 @@
       <x:c r="E11" s="9"/>
       <x:c r="G11" s="11"/>
       <x:c r="H11" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I11" s="7">
         <x:v>4</x:v>
@@ -3598,15 +3608,15 @@
     <x:row r="13" spans="2:10">
       <x:c r="B13" s="9"/>
       <x:c r="C13" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
       <x:c r="I13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J13" s="11"/>
     </x:row>
@@ -3636,7 +3646,7 @@
     </x:row>
     <x:row r="16" spans="2:10" ht="13.949999999999999">
       <x:c r="B16" s="32" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C16" s="33"/>
       <x:c r="D16" s="33"/>
@@ -3649,7 +3659,7 @@
     </x:row>
     <x:row r="17" spans="2:10" ht="13.949999999999999" customHeight="1">
       <x:c r="B17" s="34" t="s">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C17" s="35"/>
       <x:c r="D17" s="35"/>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.10187"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="11370" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="7월" sheetId="1" r:id="rId4"/>
@@ -19,39 +19,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="31">
   <x:si>
-    <x:t>기본</x:t>
+    <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뼈추가</x:t>
   </x:si>
   <x:si>
     <x:t>김아영</x:t>
   </x:si>
   <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감자탕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
     <x:t>소주</x:t>
   </x:si>
   <x:si>
-    <x:t>o</x:t>
+    <x:t>김승환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볶음밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조민정</x:t>
   </x:si>
   <x:si>
     <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>뼈추가</x:t>
+    <x:t>기본</x:t>
   </x:si>
   <x:si>
-    <x:t>감자탕</x:t>
+    <x:t>박규태</x:t>
   </x:si>
   <x:si>
-    <x:t>박경민</x:t>
+    <x:t>음료수</x:t>
   </x:si>
   <x:si>
-    <x:t>김승환</x:t>
+    <x:t>남현우</x:t>
   </x:si>
   <x:si>
-    <x:t>볶음밥</x:t>
+    <x:t>이정은</x:t>
   </x:si>
   <x:si>
-    <x:t>이제섭</x:t>
+    <x:t>총인원</x:t>
   </x:si>
   <x:si>
     <x:t>맥주</x:t>
@@ -60,34 +84,16 @@
     <x:t>정근승</x:t>
   </x:si>
   <x:si>
-    <x:t>현준수</x:t>
-  </x:si>
-  <x:si>
     <x:t>김소원</x:t>
   </x:si>
   <x:si>
     <x:t>요일</x:t>
   </x:si>
   <x:si>
-    <x:t>조민정</x:t>
+    <x:t>현준수</x:t>
   </x:si>
   <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박규태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총인원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료수</x:t>
+    <x:t>술 안먹은사람(기본+음료수)</x:t>
   </x:si>
   <x:si>
     <x:t>술 먹은 사람</x:t>
@@ -96,22 +102,16 @@
     <x:t>총 참여 횟수</x:t>
   </x:si>
   <x:si>
-    <x:t>술 안먹은사람(기본+음료수)</x:t>
-  </x:si>
-  <x:si>
     <x:t>술 안먹은 사람</x:t>
   </x:si>
   <x:si>
     <x:t>술 안먹은사람 2명</x:t>
   </x:si>
   <x:si>
-    <x:t>술 먹은사람 8명</x:t>
-  </x:si>
-  <x:si>
     <x:t>총 인원 10명</x:t>
   </x:si>
   <x:si>
-    <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
+    <x:t>술 먹은사람 8명</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1613,7 +1613,7 @@
   <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B14" activeCellId="0" sqref="B14:B14"/>
+      <x:selection activeCell="C32" activeCellId="0" sqref="C32:C32"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1631,11 +1631,11 @@
   <x:sheetData>
     <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="20" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D1" s="21"/>
       <x:c r="E1" s="21"/>
@@ -1668,43 +1668,43 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -1961,9 +1961,13 @@
         <x:f t="shared" si="0"/>
         <x:v>45484</x:v>
       </x:c>
-      <x:c r="C14" s="6"/>
+      <x:c r="C14" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="D14" s="6"/>
-      <x:c r="E14" s="6"/>
+      <x:c r="E14" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="F14" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -1972,8 +1976,12 @@
       <x:c r="I14" s="6"/>
       <x:c r="J14" s="6"/>
       <x:c r="K14" s="6"/>
-      <x:c r="L14" s="6"/>
-      <x:c r="M14" s="6"/>
+      <x:c r="L14" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M14" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:13">
       <x:c r="A15" s="3">
@@ -2397,12 +2405,12 @@
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B35" s="19"/>
       <x:c r="C35" s="2">
         <x:f>COUNTA(C4:C34)</x:f>
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" ref="D35:M35" si="2">COUNTA(D4:D34)</x:f>
@@ -2410,7 +2418,7 @@
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="2"/>
@@ -2438,11 +2446,11 @@
       </x:c>
       <x:c r="L35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2494,11 +2502,11 @@
   <x:sheetData>
     <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="20" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D1" s="21"/>
       <x:c r="E1" s="21"/>
@@ -2531,43 +2539,43 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -3392,7 +3400,7 @@
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B35" s="19"/>
       <x:c r="C35" s="2">
@@ -3488,17 +3496,17 @@
   <x:sheetData>
     <x:row r="7" spans="2:10">
       <x:c r="B7" s="26" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C7" s="27"/>
       <x:c r="D7" s="27"/>
       <x:c r="E7" s="26" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F7" s="27"/>
       <x:c r="G7" s="30"/>
       <x:c r="H7" s="27" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I7" s="27"/>
       <x:c r="J7" s="30"/>
@@ -3516,7 +3524,7 @@
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:v>3</x:v>
@@ -3525,7 +3533,7 @@
         <x:v>126000</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F9" s="7">
         <x:v>2</x:v>
@@ -3535,7 +3543,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I9" s="7">
         <x:v>7</x:v>
@@ -3546,7 +3554,7 @@
     </x:row>
     <x:row r="10" spans="2:10">
       <x:c r="B10" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>1</x:v>
@@ -3557,7 +3565,7 @@
       <x:c r="E10" s="9"/>
       <x:c r="G10" s="10"/>
       <x:c r="H10" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I10" s="7">
         <x:v>13</x:v>
@@ -3568,7 +3576,7 @@
     </x:row>
     <x:row r="11" spans="2:10">
       <x:c r="B11" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="7">
         <x:v>6</x:v>
@@ -3579,7 +3587,7 @@
       <x:c r="E11" s="9"/>
       <x:c r="G11" s="11"/>
       <x:c r="H11" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I11" s="7">
         <x:v>4</x:v>
@@ -3612,11 +3620,11 @@
       </x:c>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
       <x:c r="I13" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J13" s="11"/>
     </x:row>
@@ -3646,7 +3654,7 @@
     </x:row>
     <x:row r="16" spans="2:10" ht="13.949999999999999">
       <x:c r="B16" s="32" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C16" s="33"/>
       <x:c r="D16" s="33"/>
@@ -3659,7 +3667,7 @@
     </x:row>
     <x:row r="17" spans="2:10" ht="13.949999999999999" customHeight="1">
       <x:c r="B17" s="34" t="s">
-        <x:v>30</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="35"/>
       <x:c r="D17" s="35"/>

--- a/스터디 기록.xlsx
+++ b/스터디 기록.xlsx
@@ -19,15 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="31">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="31">
   <x:si>
     <x:t>술 먹은사람(기본+술+음료수4개)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아영</x:t>
   </x:si>
   <x:si>
     <x:t>뼈추가</x:t>
   </x:si>
   <x:si>
-    <x:t>김아영</x:t>
+    <x:t>볶음밥</x:t>
   </x:si>
   <x:si>
     <x:t>o</x:t>
@@ -45,13 +48,7 @@
     <x:t>소주</x:t>
   </x:si>
   <x:si>
-    <x:t>김승환</x:t>
-  </x:si>
-  <x:si>
     <x:t>박경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볶음밥</x:t>
   </x:si>
   <x:si>
     <x:t>조민정</x:t>
@@ -63,43 +60,46 @@
     <x:t>기본</x:t>
   </x:si>
   <x:si>
-    <x:t>박규태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이정은</x:t>
-  </x:si>
-  <x:si>
     <x:t>총인원</x:t>
   </x:si>
   <x:si>
     <x:t>맥주</x:t>
   </x:si>
   <x:si>
+    <x:t>박규태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남현우</x:t>
+  </x:si>
+  <x:si>
     <x:t>정근승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요일</x:t>
   </x:si>
   <x:si>
     <x:t>김소원</x:t>
   </x:si>
   <x:si>
-    <x:t>요일</x:t>
+    <x:t>현준수</x:t>
   </x:si>
   <x:si>
-    <x:t>현준수</x:t>
+    <x:t>음료수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김승환</x:t>
   </x:si>
   <x:si>
     <x:t>술 안먹은사람(기본+음료수)</x:t>
   </x:si>
   <x:si>
-    <x:t>술 먹은 사람</x:t>
+    <x:t>총 참여 횟수</x:t>
   </x:si>
   <x:si>
-    <x:t>총 참여 횟수</x:t>
+    <x:t>술 먹은 사람</x:t>
   </x:si>
   <x:si>
     <x:t>술 안먹은 사람</x:t>
@@ -1613,7 +1613,7 @@
   <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C32" activeCellId="0" sqref="C32:C32"/>
+      <x:selection activeCell="G22" activeCellId="0" sqref="G22:G22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -1631,11 +1631,11 @@
   <x:sheetData>
     <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="20" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D1" s="21"/>
       <x:c r="E1" s="21"/>
@@ -1668,43 +1668,43 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -1740,14 +1740,14 @@
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G5" s="6"/>
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="6"/>
       <x:c r="J5" s="6"/>
       <x:c r="K5" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L5" s="6"/>
       <x:c r="M5" s="6"/>
@@ -1785,10 +1785,10 @@
       <x:c r="C7" s="6"/>
       <x:c r="D7" s="6"/>
       <x:c r="E7" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6"/>
@@ -1796,10 +1796,10 @@
       <x:c r="J7" s="6"/>
       <x:c r="K7" s="6"/>
       <x:c r="L7" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M7" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:13">
@@ -1833,14 +1833,14 @@
         <x:v>45479</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D9" s="6"/>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="6"/>
@@ -1860,25 +1860,25 @@
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="6"/>
       <x:c r="E10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G10" s="6"/>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:13">
@@ -1894,7 +1894,7 @@
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6"/>
@@ -1919,16 +1919,16 @@
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="6"/>
       <x:c r="H12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I12" s="6"/>
       <x:c r="J12" s="6"/>
       <x:c r="K12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L12" s="6"/>
       <x:c r="M12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:13">
@@ -1962,14 +1962,14 @@
         <x:v>45484</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F14" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G14" s="6"/>
       <x:c r="H14" s="6"/>
@@ -1977,10 +1977,10 @@
       <x:c r="J14" s="6"/>
       <x:c r="K14" s="6"/>
       <x:c r="L14" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M14" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:13">
@@ -2016,14 +2016,20 @@
       <x:c r="C16" s="6"/>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="6"/>
-      <x:c r="F16" s="6"/>
+      <x:c r="F16" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="G16" s="6"/>
-      <x:c r="H16" s="6"/>
+      <x:c r="H16" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="I16" s="6"/>
       <x:c r="J16" s="6"/>
       <x:c r="K16" s="6"/>
       <x:c r="L16" s="6"/>
-      <x:c r="M16" s="6"/>
+      <x:c r="M16" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:13">
       <x:c r="A17" s="3">
@@ -2076,9 +2082,13 @@
         <x:f t="shared" si="0"/>
         <x:v>45489</x:v>
       </x:c>
-      <x:c r="C19" s="6"/>
+      <x:c r="C19" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="D19" s="6"/>
-      <x:c r="E19" s="6"/>
+      <x:c r="E19" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="F19" s="6"/>
       <x:c r="G19" s="6"/>
       <x:c r="H19" s="6"/>
@@ -2086,7 +2096,9 @@
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="6"/>
-      <x:c r="M19" s="6"/>
+      <x:c r="M19" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="1:13">
       <x:c r="A20" s="3">
@@ -2405,12 +2417,12 @@
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B35" s="19"/>
       <x:c r="C35" s="2">
         <x:f>COUNTA(C4:C34)</x:f>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D35" s="2">
         <x:f t="shared" ref="D35:M35" si="2">COUNTA(D4:D34)</x:f>
@@ -2418,11 +2430,11 @@
       </x:c>
       <x:c r="E35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G35" s="2">
         <x:f t="shared" si="2"/>
@@ -2430,7 +2442,7 @@
       </x:c>
       <x:c r="H35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I35" s="2">
         <x:f t="shared" si="2"/>
@@ -2450,7 +2462,7 @@
       </x:c>
       <x:c r="M35" s="2">
         <x:f t="shared" si="2"/>
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2458,10 +2470,10 @@
     <x:mergeCell ref="C1:M2"/>
   </x:mergeCells>
   <x:conditionalFormatting sqref="B4:B34">
-    <x:cfRule type="expression" dxfId="12" priority="4">
+    <x:cfRule type="expression" dxfId="12" priority="6">
       <x:formula>WEEKDAY($B4)=7</x:formula>
     </x:cfRule>
-    <x:cfRule type="expression" dxfId="13" priority="3">
+    <x:cfRule type="expression" dxfId="13" priority="5">
       <x:formula>WEEKDAY($B4)=1</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
@@ -2484,7 +2496,7 @@
   <x:dimension ref="A1:M35"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F15" activeCellId="0" sqref="F15:F15"/>
+      <x:selection activeCell="J13" activeCellId="0" sqref="J13:J13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -2502,11 +2514,11 @@
   <x:sheetData>
     <x:row r="1" spans="1:13" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="20" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D1" s="21"/>
       <x:c r="E1" s="21"/>
@@ -2539,43 +2551,43 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -2587,11 +2599,11 @@
         <x:v>45443</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="6"/>
       <x:c r="G4" s="6"/>
@@ -2612,14 +2624,14 @@
         <x:v>45444</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="6"/>
       <x:c r="H5" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I5" s="6"/>
       <x:c r="J5" s="6"/>
@@ -2639,7 +2651,7 @@
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="6"/>
       <x:c r="E6" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6"/>
@@ -2681,19 +2693,19 @@
         <x:v>45447</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="6"/>
       <x:c r="K8" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L8" s="6"/>
       <x:c r="M8" s="6"/>
@@ -2729,27 +2741,27 @@
         <x:v>45449</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D10" s="6"/>
       <x:c r="E10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G10" s="6"/>
       <x:c r="H10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="6"/>
       <x:c r="K10" s="6"/>
       <x:c r="L10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:13">
@@ -2762,14 +2774,14 @@
         <x:v>45450</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I11" s="6"/>
       <x:c r="J11" s="6"/>
@@ -2791,18 +2803,18 @@
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I12" s="6"/>
       <x:c r="J12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K12" s="6"/>
       <x:c r="L12" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M12" s="6"/>
     </x:row>
@@ -2817,28 +2829,28 @@
       </x:c>
       <x:c r="C13" s="6"/>
       <x:c r="D13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G13" s="6"/>
       <x:c r="H13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J13" s="6"/>
       <x:c r="K13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L13" s="6"/>
       <x:c r="M13" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:13">
@@ -2854,7 +2866,7 @@
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="6"/>
       <x:c r="F14" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G14" s="6"/>
       <x:c r="H14" s="6"/>
@@ -2874,31 +2886,31 @@
         <x:v>45454</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D15" s="6"/>
       <x:c r="E15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G15" s="6"/>
       <x:c r="H15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J15" s="6"/>
       <x:c r="K15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:13">
@@ -2911,26 +2923,26 @@
         <x:v>45455</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="6"/>
       <x:c r="F16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="6"/>
       <x:c r="I16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M16" s="6"/>
     </x:row>
@@ -2986,21 +2998,21 @@
         <x:v>45458</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D19" s="6"/>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="6"/>
       <x:c r="G19" s="6"/>
       <x:c r="H19" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I19" s="6"/>
       <x:c r="J19" s="6"/>
       <x:c r="K19" s="6"/>
       <x:c r="L19" s="6"/>
       <x:c r="M19" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:13">
@@ -3013,25 +3025,25 @@
         <x:v>45459</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D20" s="6"/>
       <x:c r="E20" s="6"/>
       <x:c r="F20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G20" s="6"/>
       <x:c r="H20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I20" s="6"/>
       <x:c r="J20" s="6"/>
       <x:c r="K20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L20" s="6"/>
       <x:c r="M20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:13">
@@ -3044,7 +3056,7 @@
         <x:v>45460</x:v>
       </x:c>
       <x:c r="C21" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D21" s="6"/>
       <x:c r="E21" s="6"/>
@@ -3053,7 +3065,7 @@
       <x:c r="H21" s="6"/>
       <x:c r="I21" s="6"/>
       <x:c r="J21" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K21" s="6"/>
       <x:c r="L21" s="6"/>
@@ -3070,13 +3082,13 @@
       </x:c>
       <x:c r="C22" s="6"/>
       <x:c r="D22" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F22" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G22" s="6"/>
       <x:c r="H22" s="6"/>
@@ -3099,14 +3111,14 @@
       <x:c r="D23" s="6"/>
       <x:c r="E23" s="6"/>
       <x:c r="F23" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G23" s="6"/>
       <x:c r="H23" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I23" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J23" s="6"/>
       <x:c r="K23" s="6"/>
@@ -3124,7 +3136,7 @@
       </x:c>
       <x:c r="C24" s="6"/>
       <x:c r="D24" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E24" s="6"/>
       <x:c r="F24" s="6"/>
@@ -3134,7 +3146,7 @@
       <x:c r="J24" s="6"/>
       <x:c r="K24" s="6"/>
       <x:c r="L24" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M24" s="6"/>
     </x:row>
@@ -3151,7 +3163,7 @@
       <x:c r="D25" s="6"/>
       <x:c r="E25" s="6"/>
       <x:c r="F25" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G25" s="6"/>
       <x:c r="H25" s="6"/>
@@ -3176,14 +3188,14 @@
       <x:c r="F26" s="6"/>
       <x:c r="G26" s="6"/>
       <x:c r="H26" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I26" s="6"/>
       <x:c r="J26" s="6"/>
       <x:c r="K26" s="6"/>
       <x:c r="L26" s="6"/>
       <x:c r="M26" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:13">
@@ -3198,7 +3210,7 @@
       <x:c r="C27" s="6"/>
       <x:c r="D27" s="6"/>
       <x:c r="E27" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F27" s="6"/>
       <x:c r="G27" s="6"/>
@@ -3206,11 +3218,11 @@
       <x:c r="I27" s="6"/>
       <x:c r="J27" s="6"/>
       <x:c r="K27" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L27" s="6"/>
       <x:c r="M27" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:13">
@@ -3226,11 +3238,11 @@
       <x:c r="D28" s="6"/>
       <x:c r="E28" s="6"/>
       <x:c r="F28" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G28" s="6"/>
       <x:c r="H28" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I28" s="6"/>
       <x:c r="J28" s="6"/>
@@ -3248,21 +3260,21 @@
         <x:v>45468</x:v>
       </x:c>
       <x:c r="C29" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D29" s="6"/>
       <x:c r="E29" s="6"/>
       <x:c r="F29" s="6"/>
       <x:c r="G29" s="6"/>
       <x:c r="H29" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I29" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J29" s="6"/>
       <x:c r="K29" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L29" s="6"/>
       <x:c r="M29" s="6"/>
@@ -3278,7 +3290,7 @@
       </x:c>
       <x:c r="C30" s="6"/>
       <x:c r="D30" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E30" s="6"/>
       <x:c r="F30" s="6"/>
@@ -3287,11 +3299,11 @@
       <x:c r="I30" s="6"/>
       <x:c r="J30" s="6"/>
       <x:c r="K30" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L30" s="6"/>
       <x:c r="M30" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:13">
@@ -3305,24 +3317,24 @@
       </x:c>
       <x:c r="C31" s="6"/>
       <x:c r="D31" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E31" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F31" s="6"/>
       <x:c r="G31" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H31" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I31" s="6"/>
       <x:c r="J31" s="6"/>
       <x:c r="K31" s="6"/>
       <x:c r="L31" s="6"/>
       <x:c r="M31" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:13">
@@ -3377,30 +3389,30 @@
         <x:v>45473</x:v>
       </x:c>
       <x:c r="C34" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D34" s="6"/>
       <x:c r="E34" s="6"/>
       <x:c r="F34" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G34" s="6"/>
       <x:c r="H34" s="6"/>
       <x:c r="I34" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J34" s="6"/>
       <x:c r="K34" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L34" s="6"/>
       <x:c r="M34" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B35" s="19"/>
       <x:c r="C35" s="2">
@@ -3496,7 +3508,7 @@
   <x:sheetData>
     <x:row r="7" spans="2:10">
       <x:c r="B7" s="26" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="27"/>
       <x:c r="D7" s="27"/>
@@ -3506,7 +3518,7 @@
       <x:c r="F7" s="27"/>
       <x:c r="G7" s="30"/>
       <x:c r="H7" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I7" s="27"/>
       <x:c r="J7" s="30"/>
@@ -3524,7 +3536,7 @@
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="9" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:v>3</x:v>
@@ -3533,7 +3545,7 @@
         <x:v>126000</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F9" s="7">
         <x:v>2</x:v>
@@ -3543,7 +3555,7 @@
         <x:v>4000</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I9" s="7">
         <x:v>7</x:v>
@@ -3554,7 +3566,7 @@
     </x:row>
     <x:row r="10" spans="2:10">
       <x:c r="B10" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>1</x:v>
@@ -3565,7 +3577,7 @@
       <x:c r="E10" s="9"/>
       <x:c r="G10" s="10"/>
       <x:c r="H10" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I10" s="7">
         <x:v>13</x:v>
@@ -3576,7 +3588,7 @@
     </x:row>
     <x:row r="11" spans="2:10">
       <x:c r="B11" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="7">
         <x:v>6</x:v>
@@ -3587,7 +3599,7 @@
       <x:c r="E11" s="9"/>
       <x:c r="G11" s="11"/>
       <x:c r="H11" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I11" s="7">
         <x:v>4</x:v>
